--- a/Doc/GameData.xlsx
+++ b/Doc/GameData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" activeTab="7"/>
+    <workbookView windowWidth="24225" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="1" r:id="rId1"/>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="141">
   <si>
     <t>分类</t>
   </si>
@@ -90,28 +90,25 @@
     <t>值</t>
   </si>
   <si>
-    <t>代码</t>
-  </si>
-  <si>
     <t>dish</t>
   </si>
   <si>
     <t>upgradeCount</t>
   </si>
   <si>
-    <t>//每升一级需要的卡牌数量</t>
-  </si>
-  <si>
-    <t>1, 2, 4, 8, 16, 32, 64, 128, 256, 512, 1024, 2048</t>
+    <t>每升一级需要的卡牌数量</t>
+  </si>
+  <si>
+    <t>1 2 4 8 16 32 64 128 256 512 1024 2048</t>
   </si>
   <si>
     <t>maxLevel</t>
   </si>
   <si>
-    <t>//不同颜色菜品的最高等级</t>
-  </si>
-  <si>
-    <t>12, 10, 9, 8, 7</t>
+    <t>不同颜色菜品的最高等级</t>
+  </si>
+  <si>
+    <t>12 10 9 8 7</t>
   </si>
   <si>
     <t>白 绿 蓝 紫 金</t>
@@ -120,43 +117,73 @@
     <t>upgradePrice</t>
   </si>
   <si>
-    <t>//升级消耗（金币）</t>
+    <t>升级消耗（金币）</t>
   </si>
   <si>
     <t>priceInc</t>
   </si>
   <si>
-    <t>//升级提升的售价比例</t>
+    <t>升级提升的售价比例</t>
   </si>
   <si>
     <t>百分比</t>
   </si>
   <si>
+    <t>stackCount</t>
+  </si>
+  <si>
+    <t>每一级对应的堆叠数量</t>
+  </si>
+  <si>
+    <t>1 2 2 3 3 3 4 4 4 4 5</t>
+  </si>
+  <si>
     <t>power</t>
   </si>
   <si>
     <t>solictCount</t>
   </si>
   <si>
-    <t>//招揽顾客技能招揽的个数</t>
+    <t>招揽顾客技能招揽的个数</t>
   </si>
   <si>
     <t>addMood</t>
   </si>
   <si>
-    <t>//全场顾客增加心情</t>
+    <t>全场顾客增加心情</t>
   </si>
   <si>
     <t>doubleGold</t>
   </si>
   <si>
-    <t>//双倍金币持续时间（分钟）</t>
+    <t>双倍金币持续时间（分钟）</t>
   </si>
   <si>
     <t>maxPower</t>
   </si>
   <si>
-    <t>//触发技能需要的能量</t>
+    <t>触发技能需要的能量</t>
+  </si>
+  <si>
+    <t>shelf</t>
+  </si>
+  <si>
+    <t>unlockGridPrice</t>
+  </si>
+  <si>
+    <t>每解锁一个栏位的价格</t>
+  </si>
+  <si>
+    <t>0 0 1000 5000 20000 50000</t>
+  </si>
+  <si>
+    <t>unlockShelfLevel</t>
+  </si>
+  <si>
+    <t>解锁货架所需要等级</t>
+  </si>
+  <si>
+    <t>1 2 4 7</t>
   </si>
   <si>
     <t>基础制作时间</t>
@@ -375,15 +402,24 @@
     <t>增加招揽能量(5)</t>
   </si>
   <si>
+    <t>等级</t>
+  </si>
+  <si>
+    <t>计算数据</t>
+  </si>
+  <si>
+    <t>所需经验</t>
+  </si>
+  <si>
+    <t>奖励</t>
+  </si>
+  <si>
     <t>level</t>
   </si>
   <si>
     <t>exp</t>
   </si>
   <si>
-    <t>奖励</t>
-  </si>
-  <si>
     <t>gold</t>
   </si>
   <si>
@@ -391,6 +427,25 @@
   </si>
   <si>
     <t>solict</t>
+  </si>
+  <si>
+    <t>maxCustomer</t>
+  </si>
+  <si>
+    <t>maxVIP</t>
+  </si>
+  <si>
+    <t>兔子家族：喜欢蛋糕，
+猫咪家族：喜欢果汁
+狗家族：喜欢寿司
+熊家族：喜欢冰淇淋
+鹿家族：都喜欢</t>
+  </si>
+  <si>
+    <t>编号</t>
+  </si>
+  <si>
+    <t>index</t>
   </si>
   <si>
     <t>限定</t>
@@ -455,12 +510,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -470,14 +525,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -490,8 +552,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -499,7 +562,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -514,60 +592,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -581,6 +606,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -590,16 +623,16 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -614,18 +647,33 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -646,13 +694,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.5"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -664,13 +778,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -682,67 +850,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -760,31 +874,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -794,56 +890,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="15">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -858,6 +906,19 @@
       <right style="thin">
         <color auto="1"/>
       </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -883,39 +944,13 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
+      <right style="thin">
         <color auto="1"/>
       </right>
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -925,10 +960,38 @@
       <right style="thin">
         <color auto="1"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color auto="1"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -943,6 +1006,33 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -964,68 +1054,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1037,10 +1070,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1049,137 +1082,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1196,10 +1229,22 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1207,56 +1252,59 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -3635,23 +3683,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K38"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="16"/>
-    <col min="2" max="2" width="15.375" style="8" customWidth="1"/>
+    <col min="1" max="1" width="9" style="21"/>
+    <col min="2" max="2" width="17.75" style="9" customWidth="1"/>
     <col min="3" max="3" width="23" customWidth="1"/>
-    <col min="4" max="4" width="29.125" style="8" customWidth="1"/>
-    <col min="5" max="5" width="22.125" customWidth="1"/>
-    <col min="6" max="6" width="108.125" style="17" customWidth="1"/>
+    <col min="4" max="4" width="29.125" style="16" customWidth="1"/>
+    <col min="5" max="5" width="22.125" style="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:10">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3661,599 +3708,458 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="18"/>
-      <c r="F1" s="19" t="s">
+      <c r="E1" s="24"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+    </row>
+    <row r="2" ht="27" spans="1:10">
+      <c r="A2" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="20"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-    </row>
-    <row r="2" ht="27" spans="1:11">
-      <c r="A2" s="21" t="s">
+      <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="D2" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="1"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="27"/>
+      <c r="B3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="22"/>
-      <c r="F2" s="23" t="str">
-        <f>"globalData."&amp;A2&amp;"."&amp;B2&amp;" = new List&lt;int&gt;{"&amp;D2&amp;"};"&amp;C2</f>
-        <v>globalData.dish.upgradeCount = new List&lt;int&gt;{1, 2, 4, 8, 16, 32, 64, 128, 256, 512, 1024, 2048};//每升一级需要的卡牌数量</v>
-      </c>
-      <c r="G2" s="20"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="21" t="s">
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="25"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="27"/>
+      <c r="B4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="19">
+        <v>100</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="27"/>
+      <c r="B5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="19">
+        <v>20</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="25"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="27"/>
+      <c r="B6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="19">
+        <v>20</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="27"/>
+      <c r="B8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="19">
         <v>5</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="9" t="s">
+      <c r="E8" s="1"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="27"/>
+      <c r="B9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="19">
         <v>10</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="23" t="str">
-        <f>"globalData."&amp;A2&amp;"."&amp;B3&amp;" = new List&lt;int&gt;{"&amp;D3&amp;"};"&amp;C3</f>
-        <v>globalData.dish.maxLevel = new List&lt;int&gt;{12, 10, 9, 8, 7};//不同颜色菜品的最高等级</v>
-      </c>
-      <c r="G3" s="20"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="4">
-        <v>100</v>
-      </c>
-      <c r="E4" s="22"/>
-      <c r="F4" s="23" t="str">
-        <f>"globalData."&amp;A2&amp;"."&amp;B4&amp;" = "&amp;D4&amp;";"&amp;C4</f>
-        <v>globalData.dish.upgradePrice = 100;//升级消耗（金币）</v>
-      </c>
-      <c r="G4" s="20"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="3">
-        <v>20</v>
-      </c>
-      <c r="E5" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="23" t="str">
-        <f>"globalData."&amp;A2&amp;"."&amp;B5&amp;" = "&amp;D5&amp;";"&amp;C5</f>
-        <v>globalData.dish.priceInc = 20;//升级提升的售价比例</v>
-      </c>
-      <c r="G5" s="20"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="3">
-        <v>20</v>
-      </c>
-      <c r="E7" s="22"/>
-      <c r="F7" s="23" t="str">
-        <f t="shared" ref="F7:F10" si="0">"globalData."&amp;A7&amp;"."&amp;B7&amp;" = "&amp;D7&amp;";"&amp;C7</f>
-        <v>globalData.power.solictCount = 20;//招揽顾客技能招揽的个数</v>
-      </c>
-      <c r="G7" s="20"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="3">
-        <v>5</v>
-      </c>
-      <c r="E8" s="22"/>
-      <c r="F8" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>globalData.power.addMood = 5;//全场顾客增加心情</v>
-      </c>
-      <c r="G8" s="20"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="3">
-        <v>10</v>
-      </c>
-      <c r="E9" s="22"/>
-      <c r="F9" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>globalData.power.doubleGold = 10;//双倍金币持续时间（分钟）</v>
-      </c>
-      <c r="G9" s="20"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="21" t="s">
-        <v>18</v>
-      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="27"/>
       <c r="B10" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="3">
+        <v>27</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="19">
         <v>200</v>
       </c>
-      <c r="E10" s="22"/>
-      <c r="F10" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>globalData.power.maxPower = 200;//触发技能需要的能量</v>
-      </c>
-      <c r="G10" s="20"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="21" t="s">
-        <v>18</v>
-      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="27"/>
       <c r="B11" s="3"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="21" t="s">
-        <v>18</v>
-      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="27"/>
       <c r="B12" s="3"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="25"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="25"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="25"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="29"/>
+      <c r="B14" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="29"/>
       <c r="B15" s="3"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="25"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="29"/>
       <c r="B16" s="3"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="25"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="29"/>
       <c r="B17" s="3"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="25"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="29"/>
       <c r="B18" s="3"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="25"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="30"/>
       <c r="B19" s="3"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-    </row>
-    <row r="20" spans="1:11">
-      <c r="A20" s="25"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="30"/>
       <c r="B20" s="3"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-    </row>
-    <row r="21" spans="1:11">
-      <c r="A21" s="25"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="30"/>
       <c r="B21" s="3"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-    </row>
-    <row r="22" spans="1:11">
-      <c r="A22" s="25"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="30"/>
       <c r="B22" s="3"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-    </row>
-    <row r="23" spans="1:11">
-      <c r="A23" s="25"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="30"/>
       <c r="B23" s="3"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
-    </row>
-    <row r="24" spans="1:11">
-      <c r="A24" s="25"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="30"/>
       <c r="B24" s="3"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
-    </row>
-    <row r="25" spans="1:11">
-      <c r="A25" s="25"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="30"/>
       <c r="B25" s="3"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9"/>
-    </row>
-    <row r="26" spans="1:11">
-      <c r="A26" s="25"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="30"/>
       <c r="B26" s="3"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
-    </row>
-    <row r="27" spans="1:11">
-      <c r="A27" s="25"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="30"/>
       <c r="B27" s="3"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="9"/>
-    </row>
-    <row r="28" spans="1:11">
-      <c r="A28" s="25"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="30"/>
       <c r="B28" s="3"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="9"/>
-    </row>
-    <row r="29" spans="1:11">
-      <c r="A29" s="25"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="30"/>
       <c r="B29" s="3"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="9"/>
-      <c r="K29" s="9"/>
-    </row>
-    <row r="30" spans="1:11">
-      <c r="A30" s="25"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="30"/>
       <c r="B30" s="3"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="9"/>
-      <c r="K30" s="9"/>
-    </row>
-    <row r="31" spans="1:11">
-      <c r="A31" s="25"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="30"/>
       <c r="B31" s="3"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="24"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="9"/>
-      <c r="K31" s="9"/>
-    </row>
-    <row r="32" spans="1:11">
-      <c r="A32" s="25"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="24"/>
-      <c r="G32" s="20"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
-      <c r="J32" s="9"/>
-      <c r="K32" s="9"/>
-    </row>
-    <row r="33" spans="1:11">
-      <c r="A33" s="25"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="22"/>
-      <c r="F33" s="24"/>
-      <c r="G33" s="20"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="9"/>
-      <c r="J33" s="9"/>
-      <c r="K33" s="9"/>
-    </row>
-    <row r="34" spans="1:11">
-      <c r="A34" s="25"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="22"/>
-      <c r="F34" s="24"/>
-      <c r="G34" s="20"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="9"/>
-      <c r="J34" s="9"/>
-      <c r="K34" s="9"/>
-    </row>
-    <row r="35" spans="1:11">
-      <c r="A35" s="25"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="22"/>
-      <c r="F35" s="24"/>
-      <c r="G35" s="20"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="9"/>
-      <c r="J35" s="9"/>
-      <c r="K35" s="9"/>
-    </row>
-    <row r="36" spans="1:11">
-      <c r="A36" s="25"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="22"/>
-      <c r="F36" s="24"/>
-      <c r="G36" s="20"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="9"/>
-      <c r="J36" s="9"/>
-      <c r="K36" s="9"/>
-    </row>
-    <row r="37" spans="1:11">
-      <c r="A37" s="25"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="22"/>
-      <c r="F37" s="24"/>
-      <c r="G37" s="20"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="9"/>
-      <c r="J37" s="9"/>
-      <c r="K37" s="9"/>
-    </row>
-    <row r="38" spans="1:11">
-      <c r="A38" s="25"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="22"/>
-      <c r="F38" s="24"/>
-      <c r="G38" s="20"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="9"/>
-      <c r="J38" s="9"/>
-      <c r="K38" s="9"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A7:A12"/>
+    <mergeCell ref="A13:A18"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -4273,20 +4179,20 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="6.25" style="8" customWidth="1"/>
-    <col min="2" max="2" width="9" style="8"/>
-    <col min="3" max="3" width="10.625" style="8" customWidth="1"/>
-    <col min="4" max="4" width="7.75" style="8" customWidth="1"/>
-    <col min="5" max="5" width="10.625" style="8" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="8" customWidth="1"/>
-    <col min="7" max="7" width="9" style="8"/>
-    <col min="8" max="8" width="10.625" style="8" customWidth="1"/>
-    <col min="9" max="10" width="8.75" style="8" customWidth="1"/>
-    <col min="11" max="11" width="10.625" style="8" customWidth="1"/>
-    <col min="12" max="12" width="9" style="8"/>
-    <col min="13" max="13" width="14" style="8" customWidth="1"/>
-    <col min="14" max="16" width="9" style="8"/>
-    <col min="17" max="24" width="9" style="9"/>
+    <col min="1" max="1" width="6.25" style="9" customWidth="1"/>
+    <col min="2" max="2" width="9" style="9"/>
+    <col min="3" max="3" width="10.625" style="9" customWidth="1"/>
+    <col min="4" max="4" width="7.75" style="9" customWidth="1"/>
+    <col min="5" max="5" width="10.625" style="9" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="9" customWidth="1"/>
+    <col min="7" max="7" width="9" style="9"/>
+    <col min="8" max="8" width="10.625" style="9" customWidth="1"/>
+    <col min="9" max="10" width="8.75" style="9" customWidth="1"/>
+    <col min="11" max="11" width="10.625" style="9" customWidth="1"/>
+    <col min="12" max="12" width="9" style="9"/>
+    <col min="13" max="13" width="14" style="9" customWidth="1"/>
+    <col min="14" max="16" width="9" style="9"/>
+    <col min="17" max="24" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -4302,44 +4208,44 @@
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
-      <c r="M1" s="12"/>
+      <c r="M1" s="17"/>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
-      <c r="P1" s="13"/>
-    </row>
-    <row r="2" s="11" customFormat="1" spans="1:24">
+      <c r="P1" s="18"/>
+    </row>
+    <row r="2" s="16" customFormat="1" spans="1:24">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
-      <c r="P2" s="14"/>
+      <c r="P2" s="19"/>
       <c r="Q2" s="4"/>
       <c r="R2" s="4"/>
       <c r="S2" s="4"/>
@@ -4349,49 +4255,49 @@
       <c r="W2" s="4"/>
       <c r="X2" s="4"/>
     </row>
-    <row r="3" s="7" customFormat="1" spans="1:24">
+    <row r="3" s="11" customFormat="1" spans="1:24">
       <c r="A3" s="2" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
-      <c r="P3" s="15"/>
+      <c r="P3" s="20"/>
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
       <c r="S3" s="2"/>
@@ -4416,12 +4322,12 @@
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
-      <c r="P4" s="13"/>
+      <c r="P4" s="18"/>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="3">
@@ -4438,12 +4344,12 @@
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
       <c r="L5" s="3" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
-      <c r="P5" s="13"/>
+      <c r="P5" s="18"/>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="3">
@@ -4460,12 +4366,12 @@
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
-      <c r="P6" s="13"/>
+      <c r="P6" s="18"/>
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="3">
@@ -4482,12 +4388,12 @@
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
       <c r="L7" s="3" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
-      <c r="P7" s="13"/>
+      <c r="P7" s="18"/>
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="3">
@@ -4504,12 +4410,12 @@
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
       <c r="L8" s="3" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
-      <c r="P8" s="13"/>
+      <c r="P8" s="18"/>
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="3">
@@ -4526,12 +4432,12 @@
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
       <c r="L9" s="3" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
-      <c r="P9" s="13"/>
+      <c r="P9" s="18"/>
     </row>
     <row r="10" spans="1:16">
       <c r="A10" s="3">
@@ -4548,12 +4454,12 @@
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
       <c r="L10" s="3" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
-      <c r="P10" s="13"/>
+      <c r="P10" s="18"/>
     </row>
     <row r="11" spans="1:16">
       <c r="A11" s="3">
@@ -4570,12 +4476,12 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-      <c r="P11" s="13"/>
+      <c r="P11" s="18"/>
     </row>
     <row r="12" spans="1:16">
       <c r="A12" s="3">
@@ -4592,12 +4498,12 @@
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
       <c r="L12" s="3" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
-      <c r="P12" s="13"/>
+      <c r="P12" s="18"/>
     </row>
     <row r="13" spans="1:16">
       <c r="A13" s="3">
@@ -4614,12 +4520,12 @@
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
       <c r="L13" s="3" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
-      <c r="P13" s="13"/>
+      <c r="P13" s="18"/>
     </row>
     <row r="14" spans="1:16">
       <c r="A14" s="3">
@@ -4636,12 +4542,12 @@
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
       <c r="L14" s="3" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
-      <c r="P14" s="13"/>
+      <c r="P14" s="18"/>
     </row>
     <row r="15" spans="1:16">
       <c r="A15" s="3">
@@ -4658,12 +4564,12 @@
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
       <c r="L15" s="3" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
-      <c r="P15" s="13"/>
+      <c r="P15" s="18"/>
     </row>
     <row r="16" spans="1:16">
       <c r="A16" s="3">
@@ -4680,12 +4586,12 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-      <c r="P16" s="13"/>
+      <c r="P16" s="18"/>
     </row>
     <row r="17" spans="1:16">
       <c r="A17" s="3">
@@ -4702,12 +4608,12 @@
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
       <c r="L17" s="3" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
-      <c r="P17" s="13"/>
+      <c r="P17" s="18"/>
     </row>
     <row r="18" spans="1:16">
       <c r="A18" s="3">
@@ -4724,12 +4630,12 @@
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
       <c r="L18" s="3" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
       <c r="O18" s="3"/>
-      <c r="P18" s="13"/>
+      <c r="P18" s="18"/>
     </row>
     <row r="19" spans="1:16">
       <c r="A19" s="3">
@@ -4746,12 +4652,12 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-      <c r="P19" s="13"/>
+      <c r="P19" s="18"/>
     </row>
     <row r="20" spans="1:16">
       <c r="A20" s="3">
@@ -4768,12 +4674,12 @@
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
       <c r="L20" s="3" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
       <c r="O20" s="3"/>
-      <c r="P20" s="13"/>
+      <c r="P20" s="18"/>
     </row>
     <row r="21" spans="1:16">
       <c r="A21" s="3">
@@ -4790,12 +4696,12 @@
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
       <c r="L21" s="3" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
       <c r="O21" s="3"/>
-      <c r="P21" s="13"/>
+      <c r="P21" s="18"/>
     </row>
     <row r="22" spans="1:16">
       <c r="A22" s="3">
@@ -4812,12 +4718,12 @@
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
       <c r="L22" s="3" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
       <c r="O22" s="3"/>
-      <c r="P22" s="13"/>
+      <c r="P22" s="18"/>
     </row>
     <row r="23" spans="1:16">
       <c r="A23" s="3">
@@ -4834,12 +4740,12 @@
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
       <c r="L23" s="3" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
       <c r="O23" s="3"/>
-      <c r="P23" s="13"/>
+      <c r="P23" s="18"/>
     </row>
     <row r="24" spans="1:16">
       <c r="A24" s="3">
@@ -4856,12 +4762,12 @@
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
       <c r="L24" s="3" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
       <c r="O24" s="3"/>
-      <c r="P24" s="13"/>
+      <c r="P24" s="18"/>
     </row>
     <row r="25" spans="1:16">
       <c r="A25" s="3">
@@ -4878,12 +4784,12 @@
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
       <c r="L25" s="3" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
-      <c r="P25" s="13"/>
+      <c r="P25" s="18"/>
     </row>
     <row r="26" spans="1:16">
       <c r="A26" s="3">
@@ -4900,12 +4806,12 @@
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
       <c r="L26" s="3" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
       <c r="O26" s="3"/>
-      <c r="P26" s="13"/>
+      <c r="P26" s="18"/>
     </row>
     <row r="27" spans="1:16">
       <c r="A27" s="3">
@@ -4922,12 +4828,12 @@
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
       <c r="L27" s="3" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
       <c r="O27" s="3"/>
-      <c r="P27" s="13"/>
+      <c r="P27" s="18"/>
     </row>
     <row r="28" spans="1:16">
       <c r="A28" s="3">
@@ -4944,12 +4850,12 @@
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
       <c r="L28" s="3" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="M28" s="3"/>
       <c r="N28" s="3"/>
       <c r="O28" s="3"/>
-      <c r="P28" s="13"/>
+      <c r="P28" s="18"/>
     </row>
     <row r="29" spans="1:16">
       <c r="A29" s="3">
@@ -4966,12 +4872,12 @@
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
       <c r="L29" s="3" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="M29" s="3"/>
       <c r="N29" s="3"/>
       <c r="O29" s="3"/>
-      <c r="P29" s="13"/>
+      <c r="P29" s="18"/>
     </row>
     <row r="30" spans="1:16">
       <c r="A30" s="3"/>
@@ -4986,12 +4892,12 @@
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
       <c r="L30" s="3" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="M30" s="3"/>
       <c r="N30" s="3"/>
       <c r="O30" s="3"/>
-      <c r="P30" s="13"/>
+      <c r="P30" s="18"/>
     </row>
     <row r="31" spans="1:16">
       <c r="A31" s="3"/>
@@ -5006,12 +4912,12 @@
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
       <c r="L31" s="3" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="M31" s="3"/>
       <c r="N31" s="3"/>
       <c r="O31" s="3"/>
-      <c r="P31" s="13"/>
+      <c r="P31" s="18"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A4:A29">
@@ -5276,10 +5182,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="3" max="3" width="14" style="8" customWidth="1"/>
-    <col min="4" max="4" width="35.75" style="8" customWidth="1"/>
+    <col min="3" max="3" width="14" style="9" customWidth="1"/>
+    <col min="4" max="4" width="35.75" style="9" customWidth="1"/>
     <col min="5" max="5" width="14.5" customWidth="1"/>
-    <col min="6" max="6" width="16.125" style="8" customWidth="1"/>
+    <col min="6" max="6" width="16.125" style="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -5289,30 +5195,30 @@
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-    </row>
-    <row r="2" s="7" customFormat="1" spans="1:13">
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+    </row>
+    <row r="2" s="11" customFormat="1" spans="1:13">
       <c r="A2" s="2" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
@@ -5329,13 +5235,13 @@
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="3"/>
@@ -5344,13 +5250,13 @@
       <c r="D4" s="4"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="3"/>
@@ -5359,13 +5265,13 @@
       <c r="D5" s="4"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="3"/>
@@ -5374,13 +5280,13 @@
       <c r="D6" s="4"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="3"/>
@@ -5389,13 +5295,13 @@
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="3"/>
@@ -5404,13 +5310,13 @@
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="3"/>
@@ -5419,13 +5325,13 @@
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="3"/>
@@ -5434,13 +5340,13 @@
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="3"/>
@@ -5449,13 +5355,13 @@
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="3"/>
@@ -5464,13 +5370,13 @@
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="3"/>
@@ -5479,13 +5385,13 @@
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="3"/>
@@ -5494,13 +5400,13 @@
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="3"/>
@@ -5509,13 +5415,13 @@
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="3"/>
@@ -5524,13 +5430,13 @@
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="3"/>
@@ -5539,13 +5445,13 @@
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="3"/>
@@ -5554,13 +5460,13 @@
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="3"/>
@@ -5569,13 +5475,13 @@
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="9"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="3"/>
@@ -5584,13 +5490,13 @@
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="9"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="3"/>
@@ -5599,13 +5505,13 @@
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9"/>
-      <c r="M21" s="9"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="3"/>
@@ -5614,13 +5520,13 @@
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
-      <c r="M22" s="9"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="3"/>
@@ -5629,13 +5535,13 @@
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="9"/>
-      <c r="M23" s="9"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="3"/>
@@ -5644,13 +5550,13 @@
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="9"/>
-      <c r="M24" s="9"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="3"/>
@@ -5659,13 +5565,13 @@
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9"/>
-      <c r="L25" s="9"/>
-      <c r="M25" s="9"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="3"/>
@@ -5674,13 +5580,13 @@
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="9"/>
-      <c r="M26" s="9"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="3"/>
@@ -5689,13 +5595,13 @@
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="9"/>
-      <c r="L27" s="9"/>
-      <c r="M27" s="9"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="3"/>
@@ -5704,13 +5610,13 @@
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="9"/>
-      <c r="L28" s="9"/>
-      <c r="M28" s="9"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="3"/>
@@ -5719,13 +5625,13 @@
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="9"/>
-      <c r="K29" s="9"/>
-      <c r="L29" s="9"/>
-      <c r="M29" s="9"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="3"/>
@@ -5734,13 +5640,13 @@
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="9"/>
-      <c r="K30" s="9"/>
-      <c r="L30" s="9"/>
-      <c r="M30" s="9"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="3"/>
@@ -5749,13 +5655,13 @@
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="9"/>
-      <c r="K31" s="9"/>
-      <c r="L31" s="9"/>
-      <c r="M31" s="9"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="3"/>
@@ -5764,13 +5670,13 @@
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
-      <c r="J32" s="9"/>
-      <c r="K32" s="9"/>
-      <c r="L32" s="9"/>
-      <c r="M32" s="9"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="$A1:$XFD2">
@@ -5838,16 +5744,16 @@
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D29" sqref="D29"/>
+      <selection pane="bottomLeft" activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="3" max="3" width="15.5" style="8" customWidth="1"/>
-    <col min="4" max="4" width="14.125" style="8" customWidth="1"/>
-    <col min="5" max="5" width="14.75" style="8" customWidth="1"/>
+    <col min="3" max="3" width="15.5" style="9" customWidth="1"/>
+    <col min="4" max="4" width="14.125" style="9" customWidth="1"/>
+    <col min="5" max="5" width="14.75" style="9" customWidth="1"/>
     <col min="6" max="6" width="46" customWidth="1"/>
-    <col min="7" max="7" width="16.125" style="8" customWidth="1"/>
+    <col min="7" max="7" width="16.125" style="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -5858,32 +5764,32 @@
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-    </row>
-    <row r="2" s="7" customFormat="1" spans="1:14">
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" s="11" customFormat="1" spans="1:14">
       <c r="A2" s="2" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
@@ -5900,21 +5806,21 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="4"/>
       <c r="F3" s="3" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="G3" s="3"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="3">
@@ -5922,21 +5828,21 @@
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="4"/>
       <c r="F4" s="3" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="G4" s="3"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="3">
@@ -5944,21 +5850,21 @@
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="4"/>
       <c r="F5" s="3" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="G5" s="3"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="3">
@@ -5966,21 +5872,21 @@
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="G6" s="3"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="3">
@@ -5988,23 +5894,23 @@
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3">
         <v>2</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="G7" s="3"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="3">
@@ -6012,23 +5918,23 @@
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3">
         <v>2</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="G8" s="3"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="3">
@@ -6036,23 +5942,23 @@
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3">
         <v>2</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="G9" s="3"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="3">
@@ -6060,23 +5966,23 @@
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3">
         <v>3</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="G10" s="3"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="3">
@@ -6084,7 +5990,7 @@
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3">
@@ -6092,13 +5998,13 @@
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="3">
@@ -6106,7 +6012,7 @@
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3">
@@ -6114,13 +6020,13 @@
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="3">
@@ -6128,7 +6034,7 @@
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3">
@@ -6136,13 +6042,13 @@
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="3">
@@ -6150,7 +6056,7 @@
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3">
@@ -6158,13 +6064,13 @@
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="3">
@@ -6172,7 +6078,7 @@
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3">
@@ -6180,13 +6086,13 @@
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="3">
@@ -6194,7 +6100,7 @@
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3">
@@ -6202,13 +6108,13 @@
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="3">
@@ -6216,7 +6122,7 @@
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3">
@@ -6224,13 +6130,13 @@
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="3">
@@ -6238,7 +6144,7 @@
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3">
@@ -6246,13 +6152,13 @@
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="9"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="3">
@@ -6260,7 +6166,7 @@
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3">
@@ -6268,13 +6174,13 @@
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="9"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="3">
@@ -6282,7 +6188,7 @@
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="3">
@@ -6290,13 +6196,13 @@
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="9"/>
-      <c r="N20" s="9"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="3">
@@ -6304,21 +6210,21 @@
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="G21" s="3"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9"/>
-      <c r="M21" s="9"/>
-      <c r="N21" s="9"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="3">
@@ -6326,21 +6232,21 @@
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="G22" s="3"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
-      <c r="M22" s="9"/>
-      <c r="N22" s="9"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="3">
@@ -6348,21 +6254,21 @@
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="3" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="G23" s="3"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="9"/>
-      <c r="M23" s="9"/>
-      <c r="N23" s="9"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="3">
@@ -6370,43 +6276,43 @@
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="3" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="G24" s="3"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="9"/>
-      <c r="M24" s="9"/>
-      <c r="N24" s="9"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="3">
         <v>23</v>
       </c>
       <c r="B25" s="3"/>
-      <c r="C25" s="10" t="s">
-        <v>90</v>
+      <c r="C25" s="15" t="s">
+        <v>99</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="G25" s="3"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9"/>
-      <c r="L25" s="9"/>
-      <c r="M25" s="9"/>
-      <c r="N25" s="9"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
     </row>
     <row r="26" spans="1:14">
       <c r="A26" s="3">
@@ -6414,23 +6320,23 @@
       </c>
       <c r="B26" s="3"/>
       <c r="C26" s="3" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="3">
         <v>1</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="G26" s="3"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="9"/>
-      <c r="M26" s="9"/>
-      <c r="N26" s="9"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="3">
@@ -6438,55 +6344,55 @@
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="3" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="3">
         <v>1</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="G27" s="3"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="9"/>
-      <c r="L27" s="9"/>
-      <c r="M27" s="9"/>
-      <c r="N27" s="9"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="3">
         <v>26</v>
       </c>
       <c r="B28" s="3"/>
-      <c r="C28" s="10" t="s">
-        <v>96</v>
+      <c r="C28" s="15" t="s">
+        <v>105</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="3">
         <v>2</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="G28" s="3"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="9"/>
-      <c r="L28" s="9"/>
-      <c r="M28" s="9"/>
-      <c r="N28" s="9"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
     </row>
     <row r="29" spans="1:14">
       <c r="A29" s="3">
         <v>27</v>
       </c>
       <c r="B29" s="3"/>
-      <c r="C29" s="10" t="s">
-        <v>98</v>
+      <c r="C29" s="15" t="s">
+        <v>107</v>
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="3">
@@ -6494,13 +6400,13 @@
       </c>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="9"/>
-      <c r="K29" s="9"/>
-      <c r="L29" s="9"/>
-      <c r="M29" s="9"/>
-      <c r="N29" s="9"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
     </row>
     <row r="30" spans="1:14">
       <c r="A30" s="3">
@@ -6512,13 +6418,13 @@
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="9"/>
-      <c r="K30" s="9"/>
-      <c r="L30" s="9"/>
-      <c r="M30" s="9"/>
-      <c r="N30" s="9"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
     </row>
     <row r="31" spans="1:14">
       <c r="A31" s="3">
@@ -6530,13 +6436,13 @@
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="9"/>
-      <c r="K31" s="9"/>
-      <c r="L31" s="9"/>
-      <c r="M31" s="9"/>
-      <c r="N31" s="9"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
     </row>
     <row r="32" spans="1:14">
       <c r="A32" s="3">
@@ -6548,13 +6454,13 @@
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
-      <c r="J32" s="9"/>
-      <c r="K32" s="9"/>
-      <c r="L32" s="9"/>
-      <c r="M32" s="9"/>
-      <c r="N32" s="9"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
     </row>
     <row r="33" spans="1:14">
       <c r="A33" s="3">
@@ -6566,13 +6472,13 @@
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="9"/>
-      <c r="J33" s="9"/>
-      <c r="K33" s="9"/>
-      <c r="L33" s="9"/>
-      <c r="M33" s="9"/>
-      <c r="N33" s="9"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
     </row>
     <row r="34" spans="1:14">
       <c r="A34" s="3">
@@ -6584,13 +6490,13 @@
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="9"/>
-      <c r="J34" s="9"/>
-      <c r="K34" s="9"/>
-      <c r="L34" s="9"/>
-      <c r="M34" s="9"/>
-      <c r="N34" s="9"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
     </row>
     <row r="35" spans="1:14">
       <c r="A35" s="3">
@@ -6602,13 +6508,13 @@
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="9"/>
-      <c r="J35" s="9"/>
-      <c r="K35" s="9"/>
-      <c r="L35" s="9"/>
-      <c r="M35" s="9"/>
-      <c r="N35" s="9"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
     </row>
     <row r="36" spans="1:14">
       <c r="A36" s="3">
@@ -6620,13 +6526,13 @@
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="9"/>
-      <c r="J36" s="9"/>
-      <c r="K36" s="9"/>
-      <c r="L36" s="9"/>
-      <c r="M36" s="9"/>
-      <c r="N36" s="9"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
     </row>
     <row r="37" spans="1:14">
       <c r="A37" s="3">
@@ -6638,13 +6544,13 @@
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="9"/>
-      <c r="J37" s="9"/>
-      <c r="K37" s="9"/>
-      <c r="L37" s="9"/>
-      <c r="M37" s="9"/>
-      <c r="N37" s="9"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
     </row>
     <row r="38" spans="1:14">
       <c r="A38" s="3">
@@ -6656,13 +6562,13 @@
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="9"/>
-      <c r="J38" s="9"/>
-      <c r="K38" s="9"/>
-      <c r="L38" s="9"/>
-      <c r="M38" s="9"/>
-      <c r="N38" s="9"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
     </row>
     <row r="39" spans="1:14">
       <c r="A39" s="3">
@@ -6674,13 +6580,13 @@
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="9"/>
-      <c r="J39" s="9"/>
-      <c r="K39" s="9"/>
-      <c r="L39" s="9"/>
-      <c r="M39" s="9"/>
-      <c r="N39" s="9"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B33:N33">
@@ -6962,10 +6868,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="3" max="3" width="14" style="8" customWidth="1"/>
-    <col min="4" max="4" width="19.25" style="8" customWidth="1"/>
+    <col min="3" max="3" width="14" style="9" customWidth="1"/>
+    <col min="4" max="4" width="19.25" style="9" customWidth="1"/>
     <col min="5" max="5" width="14.5" customWidth="1"/>
-    <col min="6" max="6" width="16.125" style="8" customWidth="1"/>
+    <col min="6" max="6" width="16.125" style="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -6975,30 +6881,30 @@
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="2" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
@@ -7015,13 +6921,13 @@
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="3"/>
@@ -7030,13 +6936,13 @@
       <c r="D4" s="4"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="3"/>
@@ -7045,13 +6951,13 @@
       <c r="D5" s="4"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="3"/>
@@ -7060,13 +6966,13 @@
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="3"/>
@@ -7075,13 +6981,13 @@
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="3"/>
@@ -7090,13 +6996,13 @@
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="3"/>
@@ -7105,13 +7011,13 @@
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="3"/>
@@ -7120,13 +7026,13 @@
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="3"/>
@@ -7135,13 +7041,13 @@
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="3"/>
@@ -7150,13 +7056,13 @@
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="3"/>
@@ -7165,13 +7071,13 @@
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="3"/>
@@ -7180,13 +7086,13 @@
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="3"/>
@@ -7195,13 +7101,13 @@
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="3"/>
@@ -7210,13 +7116,13 @@
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="3"/>
@@ -7225,13 +7131,13 @@
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="3"/>
@@ -7240,13 +7146,13 @@
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="3"/>
@@ -7255,13 +7161,13 @@
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="9"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="3"/>
@@ -7270,13 +7176,13 @@
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="9"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="3"/>
@@ -7285,13 +7191,13 @@
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9"/>
-      <c r="M21" s="9"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="3"/>
@@ -7300,13 +7206,13 @@
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
-      <c r="M22" s="9"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="3"/>
@@ -7315,13 +7221,13 @@
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="9"/>
-      <c r="M23" s="9"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="3"/>
@@ -7330,13 +7236,13 @@
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="9"/>
-      <c r="M24" s="9"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="3"/>
@@ -7345,13 +7251,13 @@
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9"/>
-      <c r="L25" s="9"/>
-      <c r="M25" s="9"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="3"/>
@@ -7360,13 +7266,13 @@
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="9"/>
-      <c r="M26" s="9"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="3"/>
@@ -7375,13 +7281,13 @@
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="9"/>
-      <c r="L27" s="9"/>
-      <c r="M27" s="9"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="3"/>
@@ -7390,13 +7296,13 @@
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="9"/>
-      <c r="L28" s="9"/>
-      <c r="M28" s="9"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="3"/>
@@ -7405,13 +7311,13 @@
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="9"/>
-      <c r="K29" s="9"/>
-      <c r="L29" s="9"/>
-      <c r="M29" s="9"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="3"/>
@@ -7420,13 +7326,13 @@
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="9"/>
-      <c r="K30" s="9"/>
-      <c r="L30" s="9"/>
-      <c r="M30" s="9"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="3"/>
@@ -7435,13 +7341,13 @@
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="9"/>
-      <c r="K31" s="9"/>
-      <c r="L31" s="9"/>
-      <c r="M31" s="9"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="3"/>
@@ -7450,13 +7356,13 @@
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
-      <c r="J32" s="9"/>
-      <c r="K32" s="9"/>
-      <c r="L32" s="9"/>
-      <c r="M32" s="9"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:O2">
@@ -7519,911 +7425,1843 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L43"/>
+  <dimension ref="A1:N43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="K4" sqref="K4"/>
+      <selection pane="bottomLeft" activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="3" max="3" width="8.5" style="8" customWidth="1"/>
-    <col min="4" max="4" width="10.125" customWidth="1"/>
-    <col min="5" max="5" width="10.5" customWidth="1"/>
+    <col min="2" max="2" width="12.625"/>
+    <col min="3" max="3" width="11.25" customWidth="1"/>
+    <col min="4" max="4" width="11.375" customWidth="1"/>
+    <col min="5" max="5" width="9.625" style="9" customWidth="1"/>
+    <col min="6" max="6" width="8.25" customWidth="1"/>
+    <col min="7" max="7" width="10.5" customWidth="1"/>
+    <col min="9" max="9" width="12.25" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
+    <row r="1" spans="1:14">
+      <c r="A1" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="C1" s="14"/>
+      <c r="D1" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>111</v>
+      </c>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-    </row>
-    <row r="2" s="7" customFormat="1" spans="1:12">
-      <c r="A2" s="2"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" s="11" customFormat="1" spans="1:14">
+      <c r="A2" s="2" t="s">
+        <v>112</v>
+      </c>
       <c r="B2" s="2"/>
-      <c r="C2" s="2" t="s">
-        <v>102</v>
-      </c>
+      <c r="C2" s="2"/>
       <c r="D2" s="2" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
+        <v>115</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>118</v>
+      </c>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="3"/>
+      <c r="B3" s="3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3">
+        <v>100</v>
+      </c>
       <c r="D3" s="3">
+        <f>ROUND(C3/100,0)*100</f>
+        <v>100</v>
+      </c>
+      <c r="F3" s="3">
+        <v>20</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="10">
         <v>10</v>
       </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
+      <c r="B4" s="3">
+        <v>2</v>
+      </c>
+      <c r="C4" s="3">
+        <f>C3*B4</f>
+        <v>200</v>
+      </c>
       <c r="D4" s="3">
-        <v>10</v>
-      </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-    </row>
-    <row r="5" spans="1:12">
+        <f>ROUND(C4/100,0)*100</f>
+        <v>200</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3">
+        <f t="shared" ref="F4:F42" si="0">F3</f>
+        <v>20</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
+      <c r="B5" s="3">
+        <v>2</v>
+      </c>
+      <c r="C5" s="3">
+        <f t="shared" ref="C5:C42" si="1">C4*B5</f>
+        <v>400</v>
+      </c>
       <c r="D5" s="3">
-        <v>10</v>
-      </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-    </row>
-    <row r="6" spans="1:12">
+        <f>ROUND(C5/100,0)*100</f>
+        <v>400</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
+      <c r="B6" s="3">
+        <v>2</v>
+      </c>
+      <c r="C6" s="3">
+        <f t="shared" si="1"/>
+        <v>800</v>
+      </c>
       <c r="D6" s="3">
-        <v>10</v>
-      </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-    </row>
-    <row r="7" spans="1:12">
+        <f>ROUND(C6/100,0)*100</f>
+        <v>800</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
+      <c r="B7" s="3">
+        <v>2</v>
+      </c>
+      <c r="C7" s="3">
+        <f t="shared" si="1"/>
+        <v>1600</v>
+      </c>
       <c r="D7" s="3">
-        <v>10</v>
-      </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-    </row>
-    <row r="8" spans="1:12">
+        <f>ROUND(C7/100,0)*100</f>
+        <v>1600</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
+      <c r="B8" s="3">
+        <v>1.9</v>
+      </c>
+      <c r="C8" s="3">
+        <f t="shared" si="1"/>
+        <v>3040</v>
+      </c>
       <c r="D8" s="3">
-        <v>10</v>
-      </c>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-    </row>
-    <row r="9" spans="1:12">
+        <f>ROUND(C8/100,0)*100</f>
+        <v>3000</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="3">
         <v>7</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
+      <c r="B9" s="3">
+        <f t="shared" ref="B9:B30" si="2">B8*0.96</f>
+        <v>1.824</v>
+      </c>
+      <c r="C9" s="3">
+        <f t="shared" si="1"/>
+        <v>5544.96</v>
+      </c>
       <c r="D9" s="3">
-        <v>10</v>
-      </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-    </row>
-    <row r="10" spans="1:12">
+        <f>ROUND(C9/100,0)*100</f>
+        <v>5500</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="3">
         <v>8</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
+      <c r="B10" s="3">
+        <f t="shared" si="2"/>
+        <v>1.75104</v>
+      </c>
+      <c r="C10" s="3">
+        <f t="shared" si="1"/>
+        <v>9709.4467584</v>
+      </c>
       <c r="D10" s="3">
-        <v>10</v>
-      </c>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-    </row>
-    <row r="11" spans="1:12">
+        <f>ROUND(C10/1000,0)*1000</f>
+        <v>10000</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" s="3">
         <v>9</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
+      <c r="B11" s="3">
+        <f t="shared" si="2"/>
+        <v>1.6809984</v>
+      </c>
+      <c r="C11" s="3">
+        <f t="shared" si="1"/>
+        <v>16321.5644657556</v>
+      </c>
       <c r="D11" s="3">
-        <v>10</v>
-      </c>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-    </row>
-    <row r="12" spans="1:12">
+        <f>ROUND(C11/1000,0)*1000</f>
+        <v>16000</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" s="3">
         <v>10</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
+      <c r="B12" s="3">
+        <f t="shared" si="2"/>
+        <v>1.613758464</v>
+      </c>
+      <c r="C12" s="3">
+        <f t="shared" si="1"/>
+        <v>26339.0628023347</v>
+      </c>
       <c r="D12" s="3">
-        <v>10</v>
-      </c>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-    </row>
-    <row r="13" spans="1:12">
+        <f>ROUND(C12/1000,0)*1000</f>
+        <v>26000</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" s="3">
         <v>11</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
+      <c r="B13" s="3">
+        <f t="shared" si="2"/>
+        <v>1.54920812544</v>
+      </c>
+      <c r="C13" s="3">
+        <f t="shared" si="1"/>
+        <v>40804.6901098513</v>
+      </c>
       <c r="D13" s="3">
-        <v>10</v>
-      </c>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-    </row>
-    <row r="14" spans="1:12">
+        <f>ROUND(C13/1000,0)*1000</f>
+        <v>41000</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14" s="3">
         <v>12</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
+      <c r="B14" s="3">
+        <f t="shared" si="2"/>
+        <v>1.4872398004224</v>
+      </c>
+      <c r="C14" s="3">
+        <f t="shared" si="1"/>
+        <v>60686.3591752732</v>
+      </c>
       <c r="D14" s="3">
-        <v>10</v>
-      </c>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-    </row>
-    <row r="15" spans="1:12">
+        <f>ROUND(C14/1000,0)*1000</f>
+        <v>61000</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15" s="3">
         <v>13</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
+      <c r="B15" s="3">
+        <f t="shared" si="2"/>
+        <v>1.4277502084055</v>
+      </c>
+      <c r="C15" s="3">
+        <f t="shared" si="1"/>
+        <v>86644.9619598675</v>
+      </c>
       <c r="D15" s="3">
-        <v>10</v>
-      </c>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-    </row>
-    <row r="16" spans="1:12">
+        <f>ROUND(C15/1000,0)*1000</f>
+        <v>87000</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16" s="3">
         <v>14</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
+      <c r="B16" s="3">
+        <f t="shared" si="2"/>
+        <v>1.37064020006928</v>
+      </c>
+      <c r="C16" s="3">
+        <f t="shared" si="1"/>
+        <v>118759.067995668</v>
+      </c>
       <c r="D16" s="3">
-        <v>10</v>
-      </c>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-    </row>
-    <row r="17" spans="1:12">
+        <f>ROUND(C16/1000,0)*1000</f>
+        <v>119000</v>
+      </c>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="3">
         <v>15</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
+      <c r="B17" s="3">
+        <f t="shared" si="2"/>
+        <v>1.31581459206651</v>
+      </c>
+      <c r="C17" s="3">
+        <f t="shared" si="1"/>
+        <v>156264.914608919</v>
+      </c>
       <c r="D17" s="3">
-        <v>10</v>
-      </c>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-    </row>
-    <row r="18" spans="1:12">
+        <f>ROUND(C17/1000,0)*1000</f>
+        <v>156000</v>
+      </c>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="3">
         <v>16</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
+      <c r="B18" s="3">
+        <f t="shared" si="2"/>
+        <v>1.26318200838385</v>
+      </c>
+      <c r="C18" s="3">
+        <f t="shared" si="1"/>
+        <v>197391.028675626</v>
+      </c>
       <c r="D18" s="3">
-        <v>10</v>
-      </c>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-    </row>
-    <row r="19" spans="1:12">
+        <f>ROUND(C18/1000,0)*1000</f>
+        <v>197000</v>
+      </c>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="3">
         <v>17</v>
       </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
+      <c r="B19" s="3">
+        <f t="shared" si="2"/>
+        <v>1.2126547280485</v>
+      </c>
+      <c r="C19" s="3">
+        <f t="shared" si="1"/>
+        <v>239367.164197854</v>
+      </c>
       <c r="D19" s="3">
-        <v>10</v>
-      </c>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
-    </row>
-    <row r="20" spans="1:12">
+        <f>ROUND(C19/1000,0)*1000</f>
+        <v>239000</v>
+      </c>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="3">
         <v>18</v>
       </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
+      <c r="B20" s="3">
+        <f t="shared" ref="B20:B30" si="3">1.2</f>
+        <v>1.2</v>
+      </c>
+      <c r="C20" s="3">
+        <f t="shared" si="1"/>
+        <v>287240.597037425</v>
+      </c>
       <c r="D20" s="3">
-        <v>10</v>
-      </c>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-    </row>
-    <row r="21" spans="1:12">
+        <f>ROUND(C20/1000,0)*1000</f>
+        <v>287000</v>
+      </c>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="3">
         <v>19</v>
       </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
+      <c r="B21" s="3">
+        <f t="shared" si="3"/>
+        <v>1.2</v>
+      </c>
+      <c r="C21" s="3">
+        <f t="shared" si="1"/>
+        <v>344688.71644491</v>
+      </c>
       <c r="D21" s="3">
-        <v>10</v>
-      </c>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9"/>
-    </row>
-    <row r="22" spans="1:12">
+        <f t="shared" ref="D21:D42" si="4">ROUND(C21/10000,0)*10000</f>
+        <v>340000</v>
+      </c>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="3">
         <v>20</v>
       </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
+      <c r="B22" s="3">
+        <f t="shared" si="3"/>
+        <v>1.2</v>
+      </c>
+      <c r="C22" s="3">
+        <f t="shared" si="1"/>
+        <v>413626.459733892</v>
+      </c>
       <c r="D22" s="3">
-        <v>10</v>
-      </c>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
-    </row>
-    <row r="23" spans="1:12">
+        <f t="shared" si="4"/>
+        <v>410000</v>
+      </c>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="3">
         <v>21</v>
       </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
+      <c r="B23" s="3">
+        <f t="shared" si="3"/>
+        <v>1.2</v>
+      </c>
+      <c r="C23" s="3">
+        <f t="shared" si="1"/>
+        <v>496351.75168067</v>
+      </c>
       <c r="D23" s="3">
-        <v>10</v>
-      </c>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="9"/>
-    </row>
-    <row r="24" spans="1:12">
+        <f t="shared" si="4"/>
+        <v>500000</v>
+      </c>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="3">
         <v>22</v>
       </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
+      <c r="B24" s="3">
+        <f t="shared" si="3"/>
+        <v>1.2</v>
+      </c>
+      <c r="C24" s="3">
+        <f t="shared" si="1"/>
+        <v>595622.102016804</v>
+      </c>
       <c r="D24" s="3">
-        <v>10</v>
-      </c>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="9"/>
-    </row>
-    <row r="25" spans="1:12">
+        <f t="shared" si="4"/>
+        <v>600000</v>
+      </c>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="3">
         <v>23</v>
       </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
+      <c r="B25" s="3">
+        <f t="shared" si="3"/>
+        <v>1.2</v>
+      </c>
+      <c r="C25" s="3">
+        <f t="shared" si="1"/>
+        <v>714746.522420165</v>
+      </c>
       <c r="D25" s="3">
-        <v>10</v>
-      </c>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9"/>
-      <c r="L25" s="9"/>
-    </row>
-    <row r="26" spans="1:12">
+        <f t="shared" si="4"/>
+        <v>710000</v>
+      </c>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+    </row>
+    <row r="26" spans="1:14">
       <c r="A26" s="3">
         <v>24</v>
       </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
+      <c r="B26" s="3">
+        <f t="shared" si="3"/>
+        <v>1.2</v>
+      </c>
+      <c r="C26" s="3">
+        <f t="shared" si="1"/>
+        <v>857695.826904198</v>
+      </c>
       <c r="D26" s="3">
-        <v>10</v>
-      </c>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="9"/>
-    </row>
-    <row r="27" spans="1:12">
+        <f t="shared" si="4"/>
+        <v>860000</v>
+      </c>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+    </row>
+    <row r="27" spans="1:14">
       <c r="A27" s="3">
         <v>25</v>
       </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
+      <c r="B27" s="3">
+        <f t="shared" si="3"/>
+        <v>1.2</v>
+      </c>
+      <c r="C27" s="3">
+        <f t="shared" si="1"/>
+        <v>1029234.99228504</v>
+      </c>
       <c r="D27" s="3">
-        <v>10</v>
-      </c>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="9"/>
-      <c r="L27" s="9"/>
-    </row>
-    <row r="28" spans="1:12">
+        <f t="shared" si="4"/>
+        <v>1030000</v>
+      </c>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+    </row>
+    <row r="28" spans="1:14">
       <c r="A28" s="3">
         <v>26</v>
       </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
+      <c r="B28" s="3">
+        <f t="shared" si="3"/>
+        <v>1.2</v>
+      </c>
+      <c r="C28" s="3">
+        <f t="shared" si="1"/>
+        <v>1235081.99074205</v>
+      </c>
       <c r="D28" s="3">
-        <v>10</v>
-      </c>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="9"/>
-      <c r="L28" s="9"/>
-    </row>
-    <row r="29" spans="1:12">
+        <f t="shared" si="4"/>
+        <v>1240000</v>
+      </c>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+    </row>
+    <row r="29" spans="1:14">
       <c r="A29" s="3">
         <v>27</v>
       </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
+      <c r="B29" s="3">
+        <f t="shared" si="3"/>
+        <v>1.2</v>
+      </c>
+      <c r="C29" s="3">
+        <f t="shared" si="1"/>
+        <v>1482098.38889045</v>
+      </c>
       <c r="D29" s="3">
-        <v>10</v>
-      </c>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="9"/>
-      <c r="K29" s="9"/>
-      <c r="L29" s="9"/>
-    </row>
-    <row r="30" spans="1:12">
+        <f t="shared" si="4"/>
+        <v>1480000</v>
+      </c>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+    </row>
+    <row r="30" spans="1:14">
       <c r="A30" s="3">
         <v>28</v>
       </c>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
+      <c r="B30" s="3">
+        <f t="shared" si="3"/>
+        <v>1.2</v>
+      </c>
+      <c r="C30" s="3">
+        <f t="shared" si="1"/>
+        <v>1778518.06666855</v>
+      </c>
       <c r="D30" s="3">
-        <v>10</v>
-      </c>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="9"/>
-      <c r="K30" s="9"/>
-      <c r="L30" s="9"/>
-    </row>
-    <row r="31" spans="1:12">
+        <f t="shared" si="4"/>
+        <v>1780000</v>
+      </c>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+    </row>
+    <row r="31" spans="1:14">
       <c r="A31" s="3">
         <v>29</v>
       </c>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
+      <c r="B31" s="3">
+        <f t="shared" ref="B31:B42" si="5">1.2</f>
+        <v>1.2</v>
+      </c>
+      <c r="C31" s="3">
+        <f t="shared" si="1"/>
+        <v>2134221.68000225</v>
+      </c>
       <c r="D31" s="3">
-        <v>10</v>
-      </c>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="9"/>
-      <c r="K31" s="9"/>
-      <c r="L31" s="9"/>
-    </row>
-    <row r="32" spans="1:12">
+        <f t="shared" si="4"/>
+        <v>2130000</v>
+      </c>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+    </row>
+    <row r="32" spans="1:14">
       <c r="A32" s="3">
         <v>30</v>
       </c>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
+      <c r="B32" s="3">
+        <f t="shared" si="5"/>
+        <v>1.2</v>
+      </c>
+      <c r="C32" s="3">
+        <f t="shared" si="1"/>
+        <v>2561066.0160027</v>
+      </c>
       <c r="D32" s="3">
-        <v>10</v>
-      </c>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
-      <c r="J32" s="9"/>
-      <c r="K32" s="9"/>
-      <c r="L32" s="9"/>
-    </row>
-    <row r="33" spans="1:12">
+        <f t="shared" si="4"/>
+        <v>2560000</v>
+      </c>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+    </row>
+    <row r="33" spans="1:14">
       <c r="A33" s="3">
         <v>31</v>
       </c>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
+      <c r="B33" s="3">
+        <f t="shared" si="5"/>
+        <v>1.2</v>
+      </c>
+      <c r="C33" s="3">
+        <f t="shared" si="1"/>
+        <v>3073279.21920325</v>
+      </c>
       <c r="D33" s="3">
-        <v>10</v>
-      </c>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="9"/>
-      <c r="J33" s="9"/>
-      <c r="K33" s="9"/>
-      <c r="L33" s="9"/>
-    </row>
-    <row r="34" spans="1:12">
+        <f t="shared" si="4"/>
+        <v>3070000</v>
+      </c>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+    </row>
+    <row r="34" spans="1:14">
       <c r="A34" s="3">
         <v>32</v>
       </c>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
+      <c r="B34" s="3">
+        <f t="shared" si="5"/>
+        <v>1.2</v>
+      </c>
+      <c r="C34" s="3">
+        <f t="shared" si="1"/>
+        <v>3687935.06304389</v>
+      </c>
       <c r="D34" s="3">
-        <v>10</v>
-      </c>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="9"/>
-      <c r="J34" s="9"/>
-      <c r="K34" s="9"/>
-      <c r="L34" s="9"/>
-    </row>
-    <row r="35" spans="1:12">
+        <f t="shared" si="4"/>
+        <v>3690000</v>
+      </c>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+    </row>
+    <row r="35" spans="1:14">
       <c r="A35" s="3">
         <v>33</v>
       </c>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
+      <c r="B35" s="3">
+        <f t="shared" si="5"/>
+        <v>1.2</v>
+      </c>
+      <c r="C35" s="3">
+        <f t="shared" si="1"/>
+        <v>4425522.07565267</v>
+      </c>
       <c r="D35" s="3">
-        <v>10</v>
-      </c>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="9"/>
-      <c r="J35" s="9"/>
-      <c r="K35" s="9"/>
-      <c r="L35" s="9"/>
-    </row>
-    <row r="36" spans="1:12">
+        <f t="shared" si="4"/>
+        <v>4430000</v>
+      </c>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+    </row>
+    <row r="36" spans="1:14">
       <c r="A36" s="3">
         <v>34</v>
       </c>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
+      <c r="B36" s="3">
+        <f t="shared" si="5"/>
+        <v>1.2</v>
+      </c>
+      <c r="C36" s="3">
+        <f t="shared" si="1"/>
+        <v>5310626.49078321</v>
+      </c>
       <c r="D36" s="3">
-        <v>10</v>
-      </c>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="9"/>
-      <c r="J36" s="9"/>
-      <c r="K36" s="9"/>
-      <c r="L36" s="9"/>
-    </row>
-    <row r="37" spans="1:12">
+        <f t="shared" si="4"/>
+        <v>5310000</v>
+      </c>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+    </row>
+    <row r="37" spans="1:14">
       <c r="A37" s="3">
         <v>35</v>
       </c>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
+      <c r="B37" s="3">
+        <f t="shared" si="5"/>
+        <v>1.2</v>
+      </c>
+      <c r="C37" s="3">
+        <f t="shared" si="1"/>
+        <v>6372751.78893985</v>
+      </c>
       <c r="D37" s="3">
-        <v>10</v>
-      </c>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="9"/>
-      <c r="J37" s="9"/>
-      <c r="K37" s="9"/>
-      <c r="L37" s="9"/>
-    </row>
-    <row r="38" spans="1:12">
+        <f t="shared" si="4"/>
+        <v>6370000</v>
+      </c>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+    </row>
+    <row r="38" spans="1:14">
       <c r="A38" s="3">
         <v>36</v>
       </c>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
+      <c r="B38" s="3">
+        <f t="shared" si="5"/>
+        <v>1.2</v>
+      </c>
+      <c r="C38" s="3">
+        <f t="shared" si="1"/>
+        <v>7647302.14672782</v>
+      </c>
       <c r="D38" s="3">
-        <v>10</v>
-      </c>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="9"/>
-      <c r="J38" s="9"/>
-      <c r="K38" s="9"/>
-      <c r="L38" s="9"/>
-    </row>
-    <row r="39" spans="1:12">
+        <f t="shared" si="4"/>
+        <v>7650000</v>
+      </c>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+    </row>
+    <row r="39" spans="1:14">
       <c r="A39" s="3">
         <v>37</v>
       </c>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
+      <c r="B39" s="3">
+        <f t="shared" si="5"/>
+        <v>1.2</v>
+      </c>
+      <c r="C39" s="3">
+        <f t="shared" si="1"/>
+        <v>9176762.57607338</v>
+      </c>
       <c r="D39" s="3">
-        <v>10</v>
-      </c>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="9"/>
-      <c r="J39" s="9"/>
-      <c r="K39" s="9"/>
-      <c r="L39" s="9"/>
-    </row>
-    <row r="40" spans="1:12">
+        <f t="shared" si="4"/>
+        <v>9180000</v>
+      </c>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+    </row>
+    <row r="40" spans="1:14">
       <c r="A40" s="3">
         <v>38</v>
       </c>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
+      <c r="B40" s="3">
+        <f t="shared" si="5"/>
+        <v>1.2</v>
+      </c>
+      <c r="C40" s="3">
+        <f t="shared" si="1"/>
+        <v>11012115.0912881</v>
+      </c>
       <c r="D40" s="3">
-        <v>10</v>
-      </c>
-      <c r="E40" s="9"/>
-      <c r="F40" s="9"/>
-      <c r="G40" s="9"/>
-      <c r="H40" s="9"/>
-      <c r="I40" s="9"/>
-      <c r="J40" s="9"/>
-      <c r="K40" s="9"/>
-      <c r="L40" s="9"/>
-    </row>
-    <row r="41" spans="1:12">
+        <f t="shared" si="4"/>
+        <v>11010000</v>
+      </c>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+    </row>
+    <row r="41" spans="1:14">
       <c r="A41" s="3">
         <v>39</v>
       </c>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
+      <c r="B41" s="3">
+        <f t="shared" si="5"/>
+        <v>1.2</v>
+      </c>
+      <c r="C41" s="3">
+        <f t="shared" si="1"/>
+        <v>13214538.1095457</v>
+      </c>
       <c r="D41" s="3">
-        <v>10</v>
-      </c>
-      <c r="E41" s="9"/>
-      <c r="F41" s="9"/>
-      <c r="G41" s="9"/>
-      <c r="H41" s="9"/>
-      <c r="I41" s="9"/>
-      <c r="J41" s="9"/>
-      <c r="K41" s="9"/>
-      <c r="L41" s="9"/>
-    </row>
-    <row r="42" spans="1:12">
+        <f t="shared" si="4"/>
+        <v>13210000</v>
+      </c>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="10"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+    </row>
+    <row r="42" spans="1:14">
       <c r="A42" s="3">
         <v>40</v>
       </c>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
+      <c r="B42" s="3">
+        <f t="shared" si="5"/>
+        <v>1.2</v>
+      </c>
+      <c r="C42" s="3">
+        <f t="shared" si="1"/>
+        <v>15857445.7314548</v>
+      </c>
       <c r="D42" s="3">
-        <v>10</v>
-      </c>
-      <c r="E42" s="9"/>
-      <c r="F42" s="9"/>
-      <c r="G42" s="9"/>
-      <c r="H42" s="9"/>
-      <c r="I42" s="9"/>
-      <c r="J42" s="9"/>
-      <c r="K42" s="9"/>
-      <c r="L42" s="9"/>
-    </row>
-    <row r="43" spans="1:12">
+        <f t="shared" si="4"/>
+        <v>15860000</v>
+      </c>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="10"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+    </row>
+    <row r="43" spans="1:14">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
-      <c r="E43" s="9"/>
-      <c r="F43" s="9"/>
-      <c r="G43" s="9"/>
-      <c r="H43" s="9"/>
-      <c r="I43" s="9"/>
-      <c r="J43" s="9"/>
-      <c r="K43" s="9"/>
-      <c r="L43" s="9"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="10"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="C1:I1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
+  <mergeCells count="2">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="E1:K1"/>
   </mergeCells>
-  <conditionalFormatting sqref="A43:L43">
+  <conditionalFormatting sqref="A2:D2">
     <cfRule type="expression" dxfId="0" priority="9">
       <formula>#REF!="blue"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="41">
+    <cfRule type="expression" dxfId="1" priority="10">
       <formula>#REF!="green"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="73">
+    <cfRule type="expression" dxfId="2" priority="11">
       <formula>#REF!="purple"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="105">
-      <formula>#REF!="orange"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="137">
-      <formula>#REF!="orange"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="169" operator="equal">
+    <cfRule type="expression" dxfId="3" priority="12">
+      <formula>#REF!="orange"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="13" operator="equal">
       <formula>"blue"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="201" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="14" operator="equal">
       <formula>"green"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="233" operator="equal">
+    <cfRule type="cellIs" priority="15" operator="equal">
+      <formula>"white"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A43:N43">
+    <cfRule type="expression" dxfId="0" priority="24">
+      <formula>#REF!="blue"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="56">
+      <formula>#REF!="green"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="88">
+      <formula>#REF!="purple"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="120">
+      <formula>#REF!="orange"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="152">
+      <formula>#REF!="orange"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="184" operator="equal">
+      <formula>"blue"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="216" operator="equal">
+      <formula>"green"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="248" operator="equal">
       <formula>"white"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D42">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>#REF!="blue"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>#REF!="green"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>#REF!="purple"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>#REF!="orange"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="5">
+      <formula>#REF!="orange"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+      <formula>"blue"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
+      <formula>"green"</formula>
+    </cfRule>
     <cfRule type="cellIs" priority="8" operator="equal">
       <formula>"white"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F4:F42">
+    <cfRule type="expression" dxfId="0" priority="16">
+      <formula>#REF!="blue"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="17">
+      <formula>#REF!="green"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="18">
+      <formula>#REF!="purple"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="19">
+      <formula>#REF!="orange"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="20">
+      <formula>#REF!="orange"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="21" operator="equal">
+      <formula>"blue"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="22" operator="equal">
       <formula>"green"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+    <cfRule type="cellIs" priority="23" operator="equal">
+      <formula>"white"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D1 A1:B1 E6 E2:P2 G4:P5">
+    <cfRule type="cellIs" dxfId="4" priority="293" operator="equal">
       <formula>"blue"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="5">
-      <formula>#REF!="orange"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="4">
-      <formula>#REF!="orange"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="cellIs" dxfId="5" priority="294" operator="equal">
+      <formula>"green"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="295" operator="equal">
+      <formula>"white"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D1 A1:B1 E2:XFD2 G4:XFD5 E6">
+    <cfRule type="expression" dxfId="0" priority="288">
+      <formula>#REF!="blue"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="289">
+      <formula>#REF!="green"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="290">
       <formula>#REF!="purple"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="3" priority="291">
+      <formula>#REF!="orange"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3:B42 E4:E5 C4:C42 F3:N3 E7:E11 C3:D3 G6:N11">
+    <cfRule type="expression" dxfId="0" priority="280">
+      <formula>#REF!="blue"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="281">
       <formula>#REF!="green"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="2" priority="282">
+      <formula>#REF!="purple"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="283">
+      <formula>#REF!="orange"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="284">
+      <formula>#REF!="orange"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="285" operator="equal">
+      <formula>"blue"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="286" operator="equal">
+      <formula>"green"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="287" operator="equal">
+      <formula>"white"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4:P5 E6">
+    <cfRule type="expression" dxfId="3" priority="292">
+      <formula>#REF!="orange"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E12 G12:N12">
+    <cfRule type="expression" dxfId="0" priority="55">
       <formula>#REF!="blue"</formula>
     </cfRule>
+    <cfRule type="expression" dxfId="1" priority="87">
+      <formula>#REF!="green"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="119">
+      <formula>#REF!="purple"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="151">
+      <formula>#REF!="orange"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="183">
+      <formula>#REF!="orange"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="215" operator="equal">
+      <formula>"blue"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="247" operator="equal">
+      <formula>"green"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="279" operator="equal">
+      <formula>"white"</formula>
+    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:N2 A1:B1 E4:N5 C6 B4:B5">
-    <cfRule type="cellIs" dxfId="4" priority="278" operator="equal">
+  <conditionalFormatting sqref="E13 G13:N13">
+    <cfRule type="expression" dxfId="0" priority="54">
+      <formula>#REF!="blue"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="86">
+      <formula>#REF!="green"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="118">
+      <formula>#REF!="purple"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="150">
+      <formula>#REF!="orange"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="182">
+      <formula>#REF!="orange"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="214" operator="equal">
       <formula>"blue"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="279" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="246" operator="equal">
       <formula>"green"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="280" operator="equal">
+    <cfRule type="cellIs" priority="278" operator="equal">
       <formula>"white"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E4:XFD5 C6 C2:XFD2 A1:B1 B4:B5">
-    <cfRule type="expression" dxfId="0" priority="273">
+  <conditionalFormatting sqref="E14 G14:N14">
+    <cfRule type="expression" dxfId="0" priority="53">
       <formula>#REF!="blue"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="274">
+    <cfRule type="expression" dxfId="1" priority="85">
       <formula>#REF!="green"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="275">
+    <cfRule type="expression" dxfId="2" priority="117">
       <formula>#REF!="purple"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="276">
-      <formula>#REF!="orange"</formula>
+    <cfRule type="expression" dxfId="3" priority="149">
+      <formula>#REF!="orange"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="181">
+      <formula>#REF!="orange"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="213" operator="equal">
+      <formula>"blue"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="245" operator="equal">
+      <formula>"green"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="277" operator="equal">
+      <formula>"white"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4:C5 E6:L11 C7:C11 B6:B11 D3:L3 A3:B3 A4:A42">
-    <cfRule type="expression" dxfId="0" priority="265">
+  <conditionalFormatting sqref="E15 G15:N15">
+    <cfRule type="expression" dxfId="0" priority="52">
       <formula>#REF!="blue"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="266">
+    <cfRule type="expression" dxfId="1" priority="84">
       <formula>#REF!="green"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="267">
+    <cfRule type="expression" dxfId="2" priority="116">
       <formula>#REF!="purple"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="268">
-      <formula>#REF!="orange"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="269">
-      <formula>#REF!="orange"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="270" operator="equal">
+    <cfRule type="expression" dxfId="3" priority="148">
+      <formula>#REF!="orange"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="180">
+      <formula>#REF!="orange"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="212" operator="equal">
       <formula>"blue"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="271" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="244" operator="equal">
+      <formula>"green"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="276" operator="equal">
+      <formula>"white"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E16 G16:N16">
+    <cfRule type="expression" dxfId="0" priority="51">
+      <formula>#REF!="blue"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="83">
+      <formula>#REF!="green"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="115">
+      <formula>#REF!="purple"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="147">
+      <formula>#REF!="orange"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="179">
+      <formula>#REF!="orange"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="211" operator="equal">
+      <formula>"blue"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="243" operator="equal">
+      <formula>"green"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="275" operator="equal">
+      <formula>"white"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E17 G17:N17">
+    <cfRule type="expression" dxfId="0" priority="50">
+      <formula>#REF!="blue"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="82">
+      <formula>#REF!="green"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="114">
+      <formula>#REF!="purple"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="146">
+      <formula>#REF!="orange"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="178">
+      <formula>#REF!="orange"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="210" operator="equal">
+      <formula>"blue"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="242" operator="equal">
+      <formula>"green"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="274" operator="equal">
+      <formula>"white"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E18 G18:N18">
+    <cfRule type="expression" dxfId="0" priority="49">
+      <formula>#REF!="blue"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="81">
+      <formula>#REF!="green"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="113">
+      <formula>#REF!="purple"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="145">
+      <formula>#REF!="orange"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="177">
+      <formula>#REF!="orange"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="209" operator="equal">
+      <formula>"blue"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="241" operator="equal">
+      <formula>"green"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="273" operator="equal">
+      <formula>"white"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E19 G19:N19">
+    <cfRule type="expression" dxfId="0" priority="48">
+      <formula>#REF!="blue"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="80">
+      <formula>#REF!="green"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="112">
+      <formula>#REF!="purple"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="144">
+      <formula>#REF!="orange"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="176">
+      <formula>#REF!="orange"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="208" operator="equal">
+      <formula>"blue"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="240" operator="equal">
       <formula>"green"</formula>
     </cfRule>
     <cfRule type="cellIs" priority="272" operator="equal">
       <formula>"white"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E4:N5 C6 B4:B5">
-    <cfRule type="expression" dxfId="3" priority="277">
-      <formula>#REF!="orange"</formula>
+  <conditionalFormatting sqref="E20 G20:N20">
+    <cfRule type="expression" dxfId="0" priority="47">
+      <formula>#REF!="blue"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="79">
+      <formula>#REF!="green"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="111">
+      <formula>#REF!="purple"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="143">
+      <formula>#REF!="orange"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="175">
+      <formula>#REF!="orange"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="207" operator="equal">
+      <formula>"blue"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="239" operator="equal">
+      <formula>"green"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="271" operator="equal">
+      <formula>"white"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B12:C12 E12:L12">
+  <conditionalFormatting sqref="E21 G21:N21">
+    <cfRule type="expression" dxfId="0" priority="46">
+      <formula>#REF!="blue"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="78">
+      <formula>#REF!="green"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="110">
+      <formula>#REF!="purple"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="142">
+      <formula>#REF!="orange"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="174">
+      <formula>#REF!="orange"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="206" operator="equal">
+      <formula>"blue"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="238" operator="equal">
+      <formula>"green"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="270" operator="equal">
+      <formula>"white"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E22 G22:N22">
+    <cfRule type="expression" dxfId="0" priority="45">
+      <formula>#REF!="blue"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="77">
+      <formula>#REF!="green"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="109">
+      <formula>#REF!="purple"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="141">
+      <formula>#REF!="orange"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="173">
+      <formula>#REF!="orange"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="205" operator="equal">
+      <formula>"blue"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="237" operator="equal">
+      <formula>"green"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="269" operator="equal">
+      <formula>"white"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E23 G23:N23">
+    <cfRule type="expression" dxfId="0" priority="44">
+      <formula>#REF!="blue"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="76">
+      <formula>#REF!="green"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="108">
+      <formula>#REF!="purple"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="140">
+      <formula>#REF!="orange"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="172">
+      <formula>#REF!="orange"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="204" operator="equal">
+      <formula>"blue"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="236" operator="equal">
+      <formula>"green"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="268" operator="equal">
+      <formula>"white"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E24 G24:N24">
+    <cfRule type="expression" dxfId="0" priority="43">
+      <formula>#REF!="blue"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="75">
+      <formula>#REF!="green"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="107">
+      <formula>#REF!="purple"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="139">
+      <formula>#REF!="orange"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="171">
+      <formula>#REF!="orange"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="203" operator="equal">
+      <formula>"blue"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="235" operator="equal">
+      <formula>"green"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="267" operator="equal">
+      <formula>"white"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E25 G25:N25">
+    <cfRule type="expression" dxfId="0" priority="42">
+      <formula>#REF!="blue"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="74">
+      <formula>#REF!="green"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="106">
+      <formula>#REF!="purple"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="138">
+      <formula>#REF!="orange"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="170">
+      <formula>#REF!="orange"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="202" operator="equal">
+      <formula>"blue"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="234" operator="equal">
+      <formula>"green"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="266" operator="equal">
+      <formula>"white"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E26 G26:N26">
+    <cfRule type="expression" dxfId="0" priority="41">
+      <formula>#REF!="blue"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="73">
+      <formula>#REF!="green"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="105">
+      <formula>#REF!="purple"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="137">
+      <formula>#REF!="orange"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="169">
+      <formula>#REF!="orange"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="201" operator="equal">
+      <formula>"blue"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="233" operator="equal">
+      <formula>"green"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="265" operator="equal">
+      <formula>"white"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E27 G27:N27">
     <cfRule type="expression" dxfId="0" priority="40">
       <formula>#REF!="blue"</formula>
     </cfRule>
@@ -8449,7 +9287,7 @@
       <formula>"white"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B13:C13 E13:L13">
+  <conditionalFormatting sqref="E28 G28:N28">
     <cfRule type="expression" dxfId="0" priority="39">
       <formula>#REF!="blue"</formula>
     </cfRule>
@@ -8475,7 +9313,7 @@
       <formula>"white"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B14:C14 E14:L14">
+  <conditionalFormatting sqref="E29 G29:N29">
     <cfRule type="expression" dxfId="0" priority="38">
       <formula>#REF!="blue"</formula>
     </cfRule>
@@ -8501,7 +9339,7 @@
       <formula>"white"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B15:C15 E15:L15">
+  <conditionalFormatting sqref="E30 G30:N30">
     <cfRule type="expression" dxfId="0" priority="37">
       <formula>#REF!="blue"</formula>
     </cfRule>
@@ -8527,7 +9365,7 @@
       <formula>"white"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B16:C16 E16:L16">
+  <conditionalFormatting sqref="E31 G31:N31">
     <cfRule type="expression" dxfId="0" priority="36">
       <formula>#REF!="blue"</formula>
     </cfRule>
@@ -8553,7 +9391,7 @@
       <formula>"white"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B17:C17 E17:L17">
+  <conditionalFormatting sqref="E32 G32:N32">
     <cfRule type="expression" dxfId="0" priority="35">
       <formula>#REF!="blue"</formula>
     </cfRule>
@@ -8579,7 +9417,7 @@
       <formula>"white"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B18:C18 E18:L18">
+  <conditionalFormatting sqref="E33 G33:N33">
     <cfRule type="expression" dxfId="0" priority="34">
       <formula>#REF!="blue"</formula>
     </cfRule>
@@ -8605,7 +9443,7 @@
       <formula>"white"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B19:C19 E19:L19">
+  <conditionalFormatting sqref="E34 G34:N34">
     <cfRule type="expression" dxfId="0" priority="33">
       <formula>#REF!="blue"</formula>
     </cfRule>
@@ -8631,7 +9469,7 @@
       <formula>"white"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B20:C20 E20:L20">
+  <conditionalFormatting sqref="E35 G35:N35">
     <cfRule type="expression" dxfId="0" priority="32">
       <formula>#REF!="blue"</formula>
     </cfRule>
@@ -8657,7 +9495,7 @@
       <formula>"white"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B21:C21 E21:L21">
+  <conditionalFormatting sqref="E36 G36:N36">
     <cfRule type="expression" dxfId="0" priority="31">
       <formula>#REF!="blue"</formula>
     </cfRule>
@@ -8683,7 +9521,7 @@
       <formula>"white"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B22:C22 E22:L22">
+  <conditionalFormatting sqref="E37 G37:N37">
     <cfRule type="expression" dxfId="0" priority="30">
       <formula>#REF!="blue"</formula>
     </cfRule>
@@ -8709,7 +9547,7 @@
       <formula>"white"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B23:C23 E23:L23">
+  <conditionalFormatting sqref="E38 G38:N38">
     <cfRule type="expression" dxfId="0" priority="29">
       <formula>#REF!="blue"</formula>
     </cfRule>
@@ -8735,7 +9573,7 @@
       <formula>"white"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B24:C24 E24:L24">
+  <conditionalFormatting sqref="E39 G39:N39">
     <cfRule type="expression" dxfId="0" priority="28">
       <formula>#REF!="blue"</formula>
     </cfRule>
@@ -8761,7 +9599,7 @@
       <formula>"white"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B25:C25 E25:L25">
+  <conditionalFormatting sqref="E40 G40:N40">
     <cfRule type="expression" dxfId="0" priority="27">
       <formula>#REF!="blue"</formula>
     </cfRule>
@@ -8787,7 +9625,7 @@
       <formula>"white"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B26:C26 E26:L26">
+  <conditionalFormatting sqref="E41 G41:N41">
     <cfRule type="expression" dxfId="0" priority="26">
       <formula>#REF!="blue"</formula>
     </cfRule>
@@ -8813,7 +9651,7 @@
       <formula>"white"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B27:C27 E27:L27">
+  <conditionalFormatting sqref="E42 G42:N42">
     <cfRule type="expression" dxfId="0" priority="25">
       <formula>#REF!="blue"</formula>
     </cfRule>
@@ -8836,396 +9674,6 @@
       <formula>"green"</formula>
     </cfRule>
     <cfRule type="cellIs" priority="249" operator="equal">
-      <formula>"white"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B28:C28 E28:L28">
-    <cfRule type="expression" dxfId="0" priority="24">
-      <formula>#REF!="blue"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="56">
-      <formula>#REF!="green"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="88">
-      <formula>#REF!="purple"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="120">
-      <formula>#REF!="orange"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="152">
-      <formula>#REF!="orange"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="184" operator="equal">
-      <formula>"blue"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="216" operator="equal">
-      <formula>"green"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="248" operator="equal">
-      <formula>"white"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B29:C29 E29:L29">
-    <cfRule type="expression" dxfId="0" priority="23">
-      <formula>#REF!="blue"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="55">
-      <formula>#REF!="green"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="87">
-      <formula>#REF!="purple"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="119">
-      <formula>#REF!="orange"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="151">
-      <formula>#REF!="orange"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="183" operator="equal">
-      <formula>"blue"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="215" operator="equal">
-      <formula>"green"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="247" operator="equal">
-      <formula>"white"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B30:C30 E30:L30">
-    <cfRule type="expression" dxfId="0" priority="22">
-      <formula>#REF!="blue"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="54">
-      <formula>#REF!="green"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="86">
-      <formula>#REF!="purple"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="118">
-      <formula>#REF!="orange"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="150">
-      <formula>#REF!="orange"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="182" operator="equal">
-      <formula>"blue"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="214" operator="equal">
-      <formula>"green"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="246" operator="equal">
-      <formula>"white"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B31:C31 E31:L31">
-    <cfRule type="expression" dxfId="0" priority="21">
-      <formula>#REF!="blue"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="53">
-      <formula>#REF!="green"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="85">
-      <formula>#REF!="purple"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="117">
-      <formula>#REF!="orange"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="149">
-      <formula>#REF!="orange"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="181" operator="equal">
-      <formula>"blue"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="213" operator="equal">
-      <formula>"green"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="245" operator="equal">
-      <formula>"white"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B32:C32 E32:L32">
-    <cfRule type="expression" dxfId="0" priority="20">
-      <formula>#REF!="blue"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="52">
-      <formula>#REF!="green"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="84">
-      <formula>#REF!="purple"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="116">
-      <formula>#REF!="orange"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="148">
-      <formula>#REF!="orange"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="180" operator="equal">
-      <formula>"blue"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="212" operator="equal">
-      <formula>"green"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="244" operator="equal">
-      <formula>"white"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B33:C33 E33:L33">
-    <cfRule type="expression" dxfId="0" priority="19">
-      <formula>#REF!="blue"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="51">
-      <formula>#REF!="green"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="83">
-      <formula>#REF!="purple"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="115">
-      <formula>#REF!="orange"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="147">
-      <formula>#REF!="orange"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="179" operator="equal">
-      <formula>"blue"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="211" operator="equal">
-      <formula>"green"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="243" operator="equal">
-      <formula>"white"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B34:C34 E34:L34">
-    <cfRule type="expression" dxfId="0" priority="18">
-      <formula>#REF!="blue"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="50">
-      <formula>#REF!="green"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="82">
-      <formula>#REF!="purple"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="114">
-      <formula>#REF!="orange"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="146">
-      <formula>#REF!="orange"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="178" operator="equal">
-      <formula>"blue"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="210" operator="equal">
-      <formula>"green"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="242" operator="equal">
-      <formula>"white"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B35:C35 E35:L35">
-    <cfRule type="expression" dxfId="0" priority="17">
-      <formula>#REF!="blue"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="49">
-      <formula>#REF!="green"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="81">
-      <formula>#REF!="purple"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="113">
-      <formula>#REF!="orange"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="145">
-      <formula>#REF!="orange"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="177" operator="equal">
-      <formula>"blue"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="209" operator="equal">
-      <formula>"green"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="241" operator="equal">
-      <formula>"white"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B36:C36 E36:L36">
-    <cfRule type="expression" dxfId="0" priority="16">
-      <formula>#REF!="blue"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="48">
-      <formula>#REF!="green"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="80">
-      <formula>#REF!="purple"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="112">
-      <formula>#REF!="orange"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="144">
-      <formula>#REF!="orange"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="176" operator="equal">
-      <formula>"blue"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="208" operator="equal">
-      <formula>"green"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="240" operator="equal">
-      <formula>"white"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B37:C37 E37:L37">
-    <cfRule type="expression" dxfId="0" priority="15">
-      <formula>#REF!="blue"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="47">
-      <formula>#REF!="green"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="79">
-      <formula>#REF!="purple"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="111">
-      <formula>#REF!="orange"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="143">
-      <formula>#REF!="orange"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="175" operator="equal">
-      <formula>"blue"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="207" operator="equal">
-      <formula>"green"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="239" operator="equal">
-      <formula>"white"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B38:C38 E38:L38">
-    <cfRule type="expression" dxfId="0" priority="14">
-      <formula>#REF!="blue"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="46">
-      <formula>#REF!="green"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="78">
-      <formula>#REF!="purple"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="110">
-      <formula>#REF!="orange"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="142">
-      <formula>#REF!="orange"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="174" operator="equal">
-      <formula>"blue"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="206" operator="equal">
-      <formula>"green"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="238" operator="equal">
-      <formula>"white"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B39:C39 E39:L39">
-    <cfRule type="expression" dxfId="0" priority="13">
-      <formula>#REF!="blue"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="45">
-      <formula>#REF!="green"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="77">
-      <formula>#REF!="purple"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="109">
-      <formula>#REF!="orange"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="141">
-      <formula>#REF!="orange"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="173" operator="equal">
-      <formula>"blue"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="205" operator="equal">
-      <formula>"green"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="237" operator="equal">
-      <formula>"white"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B40:C40 E40:L40">
-    <cfRule type="expression" dxfId="0" priority="12">
-      <formula>#REF!="blue"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="44">
-      <formula>#REF!="green"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="76">
-      <formula>#REF!="purple"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="108">
-      <formula>#REF!="orange"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="140">
-      <formula>#REF!="orange"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="172" operator="equal">
-      <formula>"blue"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="204" operator="equal">
-      <formula>"green"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="236" operator="equal">
-      <formula>"white"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B41:C41 E41:L41">
-    <cfRule type="expression" dxfId="0" priority="11">
-      <formula>#REF!="blue"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="43">
-      <formula>#REF!="green"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="75">
-      <formula>#REF!="purple"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="107">
-      <formula>#REF!="orange"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="139">
-      <formula>#REF!="orange"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="171" operator="equal">
-      <formula>"blue"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="203" operator="equal">
-      <formula>"green"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="235" operator="equal">
-      <formula>"white"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B42:C42 E42:L42">
-    <cfRule type="expression" dxfId="0" priority="10">
-      <formula>#REF!="blue"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="42">
-      <formula>#REF!="green"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="74">
-      <formula>#REF!="purple"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="106">
-      <formula>#REF!="orange"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="138">
-      <formula>#REF!="orange"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="170" operator="equal">
-      <formula>"blue"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="202" operator="equal">
-      <formula>"green"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="234" operator="equal">
       <formula>"white"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9237,14 +9685,1011 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" ht="86" customHeight="1" spans="1:9">
+      <c r="A1" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="3">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="3">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="3">
+        <v>4</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="3">
+        <v>5</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="3">
+        <v>6</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="3">
+        <v>7</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="3">
+        <v>8</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="3">
+        <v>9</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="3">
+        <v>10</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="3">
+        <v>11</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="3">
+        <v>12</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="3">
+        <v>13</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="3">
+        <v>14</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="3">
+        <v>15</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="3">
+        <v>16</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="3">
+        <v>17</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="3">
+        <v>18</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="3">
+        <v>19</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="3">
+        <v>20</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="3">
+        <v>21</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="3">
+        <v>22</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="3">
+        <v>23</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="3">
+        <v>24</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="3">
+        <v>25</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="3">
+        <v>26</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="3">
+        <v>27</v>
+      </c>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:I1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="A3:B3">
+    <cfRule type="expression" dxfId="0" priority="9">
+      <formula>#REF!="blue"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="10">
+      <formula>#REF!="green"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="11">
+      <formula>#REF!="purple"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="12">
+      <formula>#REF!="orange"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="13" operator="equal">
+      <formula>"blue"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="14" operator="equal">
+      <formula>"green"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="15" operator="equal">
+      <formula>"white"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B5:B30">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>#REF!="blue"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>#REF!="green"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>#REF!="purple"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>#REF!="orange"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="5">
+      <formula>#REF!="orange"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+      <formula>"blue"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
+      <formula>"green"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="8" operator="equal">
+      <formula>"white"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5:D30">
+    <cfRule type="expression" dxfId="0" priority="16">
+      <formula>#REF!="blue"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="17">
+      <formula>#REF!="green"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="18">
+      <formula>#REF!="purple"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="19">
+      <formula>#REF!="orange"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="20">
+      <formula>#REF!="orange"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="21" operator="equal">
+      <formula>"blue"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="22" operator="equal">
+      <formula>"green"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="23" operator="equal">
+      <formula>"white"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:B2 C7 C3:I3 E5:I6">
+    <cfRule type="cellIs" dxfId="4" priority="181" operator="equal">
+      <formula>"blue"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="182" operator="equal">
+      <formula>"green"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="183" operator="equal">
+      <formula>"white"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:B2 C3:I3 E5:I6 C7">
+    <cfRule type="expression" dxfId="0" priority="176">
+      <formula>#REF!="blue"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="177">
+      <formula>#REF!="green"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="178">
+      <formula>#REF!="purple"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="179">
+      <formula>#REF!="orange"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4:A30 C5:C6 D4:I4 C8:C12 B4 E7:I12">
+    <cfRule type="expression" dxfId="0" priority="168">
+      <formula>#REF!="blue"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="169">
+      <formula>#REF!="green"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="170">
+      <formula>#REF!="purple"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="171">
+      <formula>#REF!="orange"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="172">
+      <formula>#REF!="orange"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="173" operator="equal">
+      <formula>"blue"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="174" operator="equal">
+      <formula>"green"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="175" operator="equal">
+      <formula>"white"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E5:I6 C7">
+    <cfRule type="expression" dxfId="3" priority="180">
+      <formula>#REF!="orange"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C13 E13:I13">
+    <cfRule type="expression" dxfId="0" priority="41">
+      <formula>#REF!="blue"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="59">
+      <formula>#REF!="green"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="77">
+      <formula>#REF!="purple"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="95">
+      <formula>#REF!="orange"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="113">
+      <formula>#REF!="orange"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="131" operator="equal">
+      <formula>"blue"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="149" operator="equal">
+      <formula>"green"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="167" operator="equal">
+      <formula>"white"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C14 E14:I14">
+    <cfRule type="expression" dxfId="0" priority="40">
+      <formula>#REF!="blue"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="58">
+      <formula>#REF!="green"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="76">
+      <formula>#REF!="purple"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="94">
+      <formula>#REF!="orange"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="112">
+      <formula>#REF!="orange"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="130" operator="equal">
+      <formula>"blue"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="148" operator="equal">
+      <formula>"green"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="166" operator="equal">
+      <formula>"white"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15 E15:I15">
+    <cfRule type="expression" dxfId="0" priority="39">
+      <formula>#REF!="blue"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="57">
+      <formula>#REF!="green"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="75">
+      <formula>#REF!="purple"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="93">
+      <formula>#REF!="orange"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="111">
+      <formula>#REF!="orange"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="129" operator="equal">
+      <formula>"blue"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="147" operator="equal">
+      <formula>"green"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="165" operator="equal">
+      <formula>"white"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C16 E16:I16">
+    <cfRule type="expression" dxfId="0" priority="38">
+      <formula>#REF!="blue"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="56">
+      <formula>#REF!="green"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="74">
+      <formula>#REF!="purple"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="92">
+      <formula>#REF!="orange"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="110">
+      <formula>#REF!="orange"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="128" operator="equal">
+      <formula>"blue"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="146" operator="equal">
+      <formula>"green"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="164" operator="equal">
+      <formula>"white"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C17 E17:I17">
+    <cfRule type="expression" dxfId="0" priority="37">
+      <formula>#REF!="blue"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="55">
+      <formula>#REF!="green"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="73">
+      <formula>#REF!="purple"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="91">
+      <formula>#REF!="orange"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="109">
+      <formula>#REF!="orange"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="127" operator="equal">
+      <formula>"blue"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="145" operator="equal">
+      <formula>"green"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="163" operator="equal">
+      <formula>"white"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C18 E18:I18">
+    <cfRule type="expression" dxfId="0" priority="36">
+      <formula>#REF!="blue"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="54">
+      <formula>#REF!="green"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="72">
+      <formula>#REF!="purple"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="90">
+      <formula>#REF!="orange"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="108">
+      <formula>#REF!="orange"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="126" operator="equal">
+      <formula>"blue"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="144" operator="equal">
+      <formula>"green"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="162" operator="equal">
+      <formula>"white"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C19 E19:I19">
+    <cfRule type="expression" dxfId="0" priority="35">
+      <formula>#REF!="blue"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="53">
+      <formula>#REF!="green"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="71">
+      <formula>#REF!="purple"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="89">
+      <formula>#REF!="orange"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="107">
+      <formula>#REF!="orange"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="125" operator="equal">
+      <formula>"blue"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="143" operator="equal">
+      <formula>"green"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="161" operator="equal">
+      <formula>"white"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C20 E20:I20">
+    <cfRule type="expression" dxfId="0" priority="34">
+      <formula>#REF!="blue"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="52">
+      <formula>#REF!="green"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="70">
+      <formula>#REF!="purple"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="88">
+      <formula>#REF!="orange"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="106">
+      <formula>#REF!="orange"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="124" operator="equal">
+      <formula>"blue"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="142" operator="equal">
+      <formula>"green"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="160" operator="equal">
+      <formula>"white"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C21 E21:I21">
+    <cfRule type="expression" dxfId="0" priority="33">
+      <formula>#REF!="blue"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="51">
+      <formula>#REF!="green"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="69">
+      <formula>#REF!="purple"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="87">
+      <formula>#REF!="orange"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="105">
+      <formula>#REF!="orange"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="123" operator="equal">
+      <formula>"blue"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="141" operator="equal">
+      <formula>"green"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="159" operator="equal">
+      <formula>"white"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C22 E22:I22">
+    <cfRule type="expression" dxfId="0" priority="32">
+      <formula>#REF!="blue"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="50">
+      <formula>#REF!="green"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="68">
+      <formula>#REF!="purple"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="86">
+      <formula>#REF!="orange"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="104">
+      <formula>#REF!="orange"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="122" operator="equal">
+      <formula>"blue"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="140" operator="equal">
+      <formula>"green"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="158" operator="equal">
+      <formula>"white"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C23 E23:I23">
+    <cfRule type="expression" dxfId="0" priority="31">
+      <formula>#REF!="blue"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="49">
+      <formula>#REF!="green"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="67">
+      <formula>#REF!="purple"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="85">
+      <formula>#REF!="orange"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="103">
+      <formula>#REF!="orange"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="121" operator="equal">
+      <formula>"blue"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="139" operator="equal">
+      <formula>"green"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="157" operator="equal">
+      <formula>"white"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C24 E24:I24">
+    <cfRule type="expression" dxfId="0" priority="30">
+      <formula>#REF!="blue"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="48">
+      <formula>#REF!="green"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="66">
+      <formula>#REF!="purple"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="84">
+      <formula>#REF!="orange"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="102">
+      <formula>#REF!="orange"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="120" operator="equal">
+      <formula>"blue"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="138" operator="equal">
+      <formula>"green"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="156" operator="equal">
+      <formula>"white"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C25 E25:I25">
+    <cfRule type="expression" dxfId="0" priority="29">
+      <formula>#REF!="blue"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="47">
+      <formula>#REF!="green"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="65">
+      <formula>#REF!="purple"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="83">
+      <formula>#REF!="orange"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="101">
+      <formula>#REF!="orange"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="119" operator="equal">
+      <formula>"blue"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="137" operator="equal">
+      <formula>"green"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="155" operator="equal">
+      <formula>"white"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C26 E26:I26">
+    <cfRule type="expression" dxfId="0" priority="28">
+      <formula>#REF!="blue"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="46">
+      <formula>#REF!="green"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="64">
+      <formula>#REF!="purple"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="82">
+      <formula>#REF!="orange"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="100">
+      <formula>#REF!="orange"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="118" operator="equal">
+      <formula>"blue"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="136" operator="equal">
+      <formula>"green"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="154" operator="equal">
+      <formula>"white"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C27 E27:I27">
+    <cfRule type="expression" dxfId="0" priority="27">
+      <formula>#REF!="blue"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="45">
+      <formula>#REF!="green"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="63">
+      <formula>#REF!="purple"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="81">
+      <formula>#REF!="orange"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="99">
+      <formula>#REF!="orange"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="117" operator="equal">
+      <formula>"blue"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="135" operator="equal">
+      <formula>"green"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="153" operator="equal">
+      <formula>"white"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C28 E28:I28">
+    <cfRule type="expression" dxfId="0" priority="26">
+      <formula>#REF!="blue"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="44">
+      <formula>#REF!="green"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="62">
+      <formula>#REF!="purple"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="80">
+      <formula>#REF!="orange"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="98">
+      <formula>#REF!="orange"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="116" operator="equal">
+      <formula>"blue"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="134" operator="equal">
+      <formula>"green"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="152" operator="equal">
+      <formula>"white"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C29 E29:I29">
+    <cfRule type="expression" dxfId="0" priority="25">
+      <formula>#REF!="blue"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="43">
+      <formula>#REF!="green"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="61">
+      <formula>#REF!="purple"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="79">
+      <formula>#REF!="orange"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="97">
+      <formula>#REF!="orange"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="115" operator="equal">
+      <formula>"blue"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="133" operator="equal">
+      <formula>"green"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="151" operator="equal">
+      <formula>"white"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C30 E30:I30">
+    <cfRule type="expression" dxfId="0" priority="24">
+      <formula>#REF!="blue"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="42">
+      <formula>#REF!="green"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="60">
+      <formula>#REF!="purple"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="78">
+      <formula>#REF!="orange"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="96">
+      <formula>#REF!="orange"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="114" operator="equal">
+      <formula>"blue"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="132" operator="equal">
+      <formula>"green"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="150" operator="equal">
+      <formula>"white"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -9255,7 +10700,7 @@
   <sheetPr/>
   <dimension ref="A1:N15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
@@ -9282,51 +10727,51 @@
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
-      <c r="L1" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="M1" s="5"/>
-      <c r="N1" s="6"/>
+      <c r="L1" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="M1" s="3"/>
+      <c r="N1" s="5"/>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="2" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="N2" s="2"/>
     </row>
@@ -9335,10 +10780,10 @@
         <v>100</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="D3" s="3">
         <v>1</v>
@@ -9365,10 +10810,10 @@
         <v>101</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="D4" s="3">
         <v>30</v>
@@ -9397,10 +10842,10 @@
         <v>102</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="D5" s="3">
         <v>120</v>
@@ -9429,10 +10874,10 @@
         <v>103</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>117</v>
+        <v>134</v>
       </c>
       <c r="D6" s="3">
         <v>480</v>
@@ -9463,10 +10908,10 @@
         <v>104</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>118</v>
+        <v>135</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="D7" s="3">
         <v>720</v>
@@ -9499,10 +10944,10 @@
         <v>105</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="D8" s="3">
         <v>1440</v>
@@ -9535,10 +10980,10 @@
         <v>106</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="D9" s="3">
         <v>2880</v>

--- a/Doc/GameData.xlsx
+++ b/Doc/GameData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12540"/>
+    <workbookView windowWidth="24225" windowHeight="12540" tabRatio="621" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,9 @@
     <sheet name="Level" sheetId="4" r:id="rId6"/>
     <sheet name="Customer" sheetId="6" r:id="rId7"/>
     <sheet name="Box" sheetId="9" r:id="rId8"/>
-    <sheet name="布局" sheetId="7" r:id="rId9"/>
+    <sheet name="Achievement" sheetId="11" r:id="rId9"/>
+    <sheet name="NewGuide" sheetId="12" r:id="rId10"/>
+    <sheet name="布局" sheetId="7" r:id="rId11"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -76,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="137">
   <si>
     <t>分类</t>
   </si>
@@ -90,6 +92,15 @@
     <t>值</t>
   </si>
   <si>
+    <t>group</t>
+  </si>
+  <si>
+    <t>param</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
     <t>dish</t>
   </si>
   <si>
@@ -153,7 +164,7 @@
     <t>全场顾客增加心情</t>
   </si>
   <si>
-    <t>doubleGold</t>
+    <t>doubleMoney</t>
   </si>
   <si>
     <t>双倍金币持续时间（分钟）</t>
@@ -165,27 +176,6 @@
     <t>触发技能需要的能量</t>
   </si>
   <si>
-    <t>shelf</t>
-  </si>
-  <si>
-    <t>unlockGridPrice</t>
-  </si>
-  <si>
-    <t>每解锁一个栏位的价格</t>
-  </si>
-  <si>
-    <t>0 0 1000 5000 20000 50000</t>
-  </si>
-  <si>
-    <t>unlockShelfLevel</t>
-  </si>
-  <si>
-    <t>解锁货架所需要等级</t>
-  </si>
-  <si>
-    <t>1 2 4 7</t>
-  </si>
-  <si>
     <t>基础制作时间</t>
   </si>
   <si>
@@ -333,13 +323,13 @@
     <t>加经验（5）</t>
   </si>
   <si>
-    <t>加好感（3）</t>
-  </si>
-  <si>
-    <t>加好感（4）</t>
-  </si>
-  <si>
-    <t>加好感（5）</t>
+    <t>加心情（3）</t>
+  </si>
+  <si>
+    <t>加心情（4）</t>
+  </si>
+  <si>
+    <t>加心情（5）</t>
   </si>
   <si>
     <t>加能量（3）</t>
@@ -525,59 +515,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -592,7 +530,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -603,53 +548,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -668,12 +566,104 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -706,7 +696,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -718,31 +834,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -754,103 +858,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -862,31 +876,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -965,6 +955,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -976,6 +986,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1022,43 +1047,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1070,10 +1060,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1082,137 +1072,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1243,13 +1233,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1276,12 +1260,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1295,15 +1273,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3683,19 +3652,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="21"/>
+    <col min="1" max="1" width="9" style="10"/>
     <col min="2" max="2" width="17.75" style="9" customWidth="1"/>
     <col min="3" max="3" width="23" customWidth="1"/>
-    <col min="4" max="4" width="29.125" style="16" customWidth="1"/>
-    <col min="5" max="5" width="22.125" style="22" customWidth="1"/>
+    <col min="4" max="4" width="29.125" style="14" customWidth="1"/>
+    <col min="5" max="5" width="22.125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -3708,461 +3677,403 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="24"/>
-      <c r="F1" s="25"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="21"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
     </row>
-    <row r="2" ht="27" spans="1:10">
-      <c r="A2" s="26" t="s">
+    <row r="2" spans="1:10">
+      <c r="A2" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2"/>
+      <c r="D2" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="25"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="21"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="27"/>
+    <row r="3" ht="27" spans="1:10">
+      <c r="A3" s="22" t="s">
+        <v>7</v>
+      </c>
       <c r="B3" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="25"/>
+      <c r="F3" s="21"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="27"/>
+      <c r="A4" s="23"/>
       <c r="B4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="19">
-        <v>100</v>
-      </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="25"/>
+      <c r="E4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="21"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="27"/>
+      <c r="A5" s="23"/>
       <c r="B5" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="19">
-        <v>20</v>
-      </c>
-      <c r="E5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="25"/>
+      <c r="D5" s="17">
+        <v>100</v>
+      </c>
+      <c r="F5" s="21"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="27"/>
+      <c r="A6" s="23"/>
       <c r="B6" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="17">
+        <v>20</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="25"/>
+      <c r="F6" s="21"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="23"/>
+      <c r="B7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="C7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="19">
-        <v>20</v>
-      </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="25"/>
+      <c r="F7" s="21"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="27"/>
+      <c r="A8" s="22" t="s">
+        <v>23</v>
+      </c>
       <c r="B8" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="19">
-        <v>5</v>
-      </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="25"/>
+        <v>25</v>
+      </c>
+      <c r="D8" s="17">
+        <v>20</v>
+      </c>
+      <c r="F8" s="21"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="27"/>
+      <c r="A9" s="23"/>
       <c r="B9" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="19">
-        <v>10</v>
-      </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="25"/>
+        <v>27</v>
+      </c>
+      <c r="D9" s="17">
+        <v>5</v>
+      </c>
+      <c r="F9" s="21"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="27"/>
+      <c r="A10" s="23"/>
       <c r="B10" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="19">
-        <v>200</v>
-      </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="25"/>
+        <v>29</v>
+      </c>
+      <c r="D10" s="17">
+        <v>10</v>
+      </c>
+      <c r="F10" s="21"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="27"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="25"/>
+      <c r="A11" s="23"/>
+      <c r="B11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="17">
+        <v>200</v>
+      </c>
+      <c r="F11" s="21"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="27"/>
+      <c r="A12" s="23"/>
       <c r="B12" s="3"/>
       <c r="C12" s="1"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="25"/>
+      <c r="D12" s="17"/>
+      <c r="F12" s="21"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="E13" s="1"/>
-      <c r="F13" s="25"/>
+      <c r="A13" s="23"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="17"/>
+      <c r="F13" s="21"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="29"/>
-      <c r="B14" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="E14" s="1"/>
-      <c r="F14" s="25"/>
+      <c r="A14" s="2"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="17"/>
+      <c r="F14" s="21"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="29"/>
+      <c r="A15" s="2"/>
       <c r="B15" s="3"/>
       <c r="C15" s="1"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="25"/>
+      <c r="D15" s="17"/>
+      <c r="F15" s="21"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="29"/>
+      <c r="A16" s="2"/>
       <c r="B16" s="3"/>
       <c r="C16" s="1"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="25"/>
+      <c r="D16" s="17"/>
+      <c r="F16" s="21"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="29"/>
+      <c r="A17" s="2"/>
       <c r="B17" s="3"/>
       <c r="C17" s="1"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="25"/>
+      <c r="D17" s="17"/>
+      <c r="F17" s="21"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="29"/>
+      <c r="A18" s="2"/>
       <c r="B18" s="3"/>
       <c r="C18" s="1"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="25"/>
+      <c r="D18" s="17"/>
+      <c r="F18" s="21"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="30"/>
+      <c r="A19" s="2"/>
       <c r="B19" s="3"/>
       <c r="C19" s="1"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="25"/>
+      <c r="D19" s="17"/>
+      <c r="F19" s="21"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="30"/>
+      <c r="A20" s="2"/>
       <c r="B20" s="3"/>
       <c r="C20" s="1"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="25"/>
+      <c r="D20" s="17"/>
+      <c r="F20" s="21"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="30"/>
+      <c r="A21" s="2"/>
       <c r="B21" s="3"/>
       <c r="C21" s="1"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="25"/>
+      <c r="D21" s="17"/>
+      <c r="F21" s="21"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="30"/>
+      <c r="A22" s="2"/>
       <c r="B22" s="3"/>
       <c r="C22" s="1"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="25"/>
+      <c r="D22" s="17"/>
+      <c r="F22" s="21"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="30"/>
+      <c r="A23" s="2"/>
       <c r="B23" s="3"/>
       <c r="C23" s="1"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="25"/>
+      <c r="D23" s="17"/>
+      <c r="F23" s="21"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="30"/>
+      <c r="A24" s="2"/>
       <c r="B24" s="3"/>
       <c r="C24" s="1"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="25"/>
+      <c r="D24" s="17"/>
+      <c r="F24" s="21"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="30"/>
+      <c r="A25" s="2"/>
       <c r="B25" s="3"/>
       <c r="C25" s="1"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="25"/>
+      <c r="D25" s="17"/>
+      <c r="F25" s="21"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="30"/>
+      <c r="A26" s="2"/>
       <c r="B26" s="3"/>
       <c r="C26" s="1"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="25"/>
+      <c r="D26" s="17"/>
+      <c r="F26" s="21"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
     </row>
-    <row r="27" spans="1:10">
-      <c r="A27" s="30"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-    </row>
-    <row r="28" spans="1:10">
-      <c r="A28" s="30"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-    </row>
-    <row r="29" spans="1:10">
-      <c r="A29" s="30"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-    </row>
-    <row r="30" spans="1:10">
-      <c r="A30" s="30"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-    </row>
-    <row r="31" spans="1:10">
-      <c r="A31" s="30"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="25"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-    </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A7:A12"/>
-    <mergeCell ref="A13:A18"/>
+  <mergeCells count="2">
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="A8:A13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4174,7 +4085,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="K4" sqref="K4"/>
+      <selection pane="bottomLeft" activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4208,44 +4119,44 @@
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
-      <c r="M1" s="17"/>
+      <c r="M1" s="15"/>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
-      <c r="P1" s="18"/>
-    </row>
-    <row r="2" s="16" customFormat="1" spans="1:24">
+      <c r="P1" s="16"/>
+    </row>
+    <row r="2" s="14" customFormat="1" spans="1:24">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="K2" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="L2" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="M2" s="4" t="s">
         <v>39</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>43</v>
       </c>
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
-      <c r="P2" s="19"/>
+      <c r="P2" s="17"/>
       <c r="Q2" s="4"/>
       <c r="R2" s="4"/>
       <c r="S2" s="4"/>
@@ -4255,49 +4166,49 @@
       <c r="W2" s="4"/>
       <c r="X2" s="4"/>
     </row>
-    <row r="3" s="11" customFormat="1" spans="1:24">
+    <row r="3" s="10" customFormat="1" spans="1:24">
       <c r="A3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>56</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
-      <c r="P3" s="20"/>
+      <c r="P3" s="18"/>
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
       <c r="S3" s="2"/>
@@ -4322,12 +4233,12 @@
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
-      <c r="P4" s="18"/>
+      <c r="P4" s="16"/>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="3">
@@ -4344,12 +4255,12 @@
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
       <c r="L5" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
-      <c r="P5" s="18"/>
+      <c r="P5" s="16"/>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="3">
@@ -4366,12 +4277,12 @@
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
-      <c r="P6" s="18"/>
+      <c r="P6" s="16"/>
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="3">
@@ -4388,12 +4299,12 @@
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
       <c r="L7" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
-      <c r="P7" s="18"/>
+      <c r="P7" s="16"/>
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="3">
@@ -4410,12 +4321,12 @@
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
       <c r="L8" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
-      <c r="P8" s="18"/>
+      <c r="P8" s="16"/>
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="3">
@@ -4432,12 +4343,12 @@
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
       <c r="L9" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
-      <c r="P9" s="18"/>
+      <c r="P9" s="16"/>
     </row>
     <row r="10" spans="1:16">
       <c r="A10" s="3">
@@ -4454,12 +4365,12 @@
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
       <c r="L10" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
-      <c r="P10" s="18"/>
+      <c r="P10" s="16"/>
     </row>
     <row r="11" spans="1:16">
       <c r="A11" s="3">
@@ -4476,12 +4387,12 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-      <c r="P11" s="18"/>
+      <c r="P11" s="16"/>
     </row>
     <row r="12" spans="1:16">
       <c r="A12" s="3">
@@ -4498,12 +4409,12 @@
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
       <c r="L12" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
-      <c r="P12" s="18"/>
+      <c r="P12" s="16"/>
     </row>
     <row r="13" spans="1:16">
       <c r="A13" s="3">
@@ -4520,12 +4431,12 @@
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
       <c r="L13" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
-      <c r="P13" s="18"/>
+      <c r="P13" s="16"/>
     </row>
     <row r="14" spans="1:16">
       <c r="A14" s="3">
@@ -4542,12 +4453,12 @@
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
       <c r="L14" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
-      <c r="P14" s="18"/>
+      <c r="P14" s="16"/>
     </row>
     <row r="15" spans="1:16">
       <c r="A15" s="3">
@@ -4564,12 +4475,12 @@
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
       <c r="L15" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
-      <c r="P15" s="18"/>
+      <c r="P15" s="16"/>
     </row>
     <row r="16" spans="1:16">
       <c r="A16" s="3">
@@ -4586,12 +4497,12 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-      <c r="P16" s="18"/>
+      <c r="P16" s="16"/>
     </row>
     <row r="17" spans="1:16">
       <c r="A17" s="3">
@@ -4608,12 +4519,12 @@
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
       <c r="L17" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
-      <c r="P17" s="18"/>
+      <c r="P17" s="16"/>
     </row>
     <row r="18" spans="1:16">
       <c r="A18" s="3">
@@ -4630,12 +4541,12 @@
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
       <c r="L18" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
       <c r="O18" s="3"/>
-      <c r="P18" s="18"/>
+      <c r="P18" s="16"/>
     </row>
     <row r="19" spans="1:16">
       <c r="A19" s="3">
@@ -4652,12 +4563,12 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-      <c r="P19" s="18"/>
+      <c r="P19" s="16"/>
     </row>
     <row r="20" spans="1:16">
       <c r="A20" s="3">
@@ -4674,12 +4585,12 @@
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
       <c r="L20" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
       <c r="O20" s="3"/>
-      <c r="P20" s="18"/>
+      <c r="P20" s="16"/>
     </row>
     <row r="21" spans="1:16">
       <c r="A21" s="3">
@@ -4696,12 +4607,12 @@
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
       <c r="L21" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
       <c r="O21" s="3"/>
-      <c r="P21" s="18"/>
+      <c r="P21" s="16"/>
     </row>
     <row r="22" spans="1:16">
       <c r="A22" s="3">
@@ -4718,12 +4629,12 @@
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
       <c r="L22" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
       <c r="O22" s="3"/>
-      <c r="P22" s="18"/>
+      <c r="P22" s="16"/>
     </row>
     <row r="23" spans="1:16">
       <c r="A23" s="3">
@@ -4740,12 +4651,12 @@
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
       <c r="L23" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
       <c r="O23" s="3"/>
-      <c r="P23" s="18"/>
+      <c r="P23" s="16"/>
     </row>
     <row r="24" spans="1:16">
       <c r="A24" s="3">
@@ -4762,12 +4673,12 @@
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
       <c r="L24" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
       <c r="O24" s="3"/>
-      <c r="P24" s="18"/>
+      <c r="P24" s="16"/>
     </row>
     <row r="25" spans="1:16">
       <c r="A25" s="3">
@@ -4784,12 +4695,12 @@
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
       <c r="L25" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
-      <c r="P25" s="18"/>
+      <c r="P25" s="16"/>
     </row>
     <row r="26" spans="1:16">
       <c r="A26" s="3">
@@ -4806,12 +4717,12 @@
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
       <c r="L26" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
       <c r="O26" s="3"/>
-      <c r="P26" s="18"/>
+      <c r="P26" s="16"/>
     </row>
     <row r="27" spans="1:16">
       <c r="A27" s="3">
@@ -4828,12 +4739,12 @@
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
       <c r="L27" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
       <c r="O27" s="3"/>
-      <c r="P27" s="18"/>
+      <c r="P27" s="16"/>
     </row>
     <row r="28" spans="1:16">
       <c r="A28" s="3">
@@ -4850,12 +4761,12 @@
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
       <c r="L28" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="M28" s="3"/>
       <c r="N28" s="3"/>
       <c r="O28" s="3"/>
-      <c r="P28" s="18"/>
+      <c r="P28" s="16"/>
     </row>
     <row r="29" spans="1:16">
       <c r="A29" s="3">
@@ -4872,12 +4783,12 @@
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
       <c r="L29" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="M29" s="3"/>
       <c r="N29" s="3"/>
       <c r="O29" s="3"/>
-      <c r="P29" s="18"/>
+      <c r="P29" s="16"/>
     </row>
     <row r="30" spans="1:16">
       <c r="A30" s="3"/>
@@ -4892,12 +4803,12 @@
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
       <c r="L30" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="M30" s="3"/>
       <c r="N30" s="3"/>
       <c r="O30" s="3"/>
-      <c r="P30" s="18"/>
+      <c r="P30" s="16"/>
     </row>
     <row r="31" spans="1:16">
       <c r="A31" s="3"/>
@@ -4912,12 +4823,12 @@
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
       <c r="L31" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="M31" s="3"/>
       <c r="N31" s="3"/>
       <c r="O31" s="3"/>
-      <c r="P31" s="18"/>
+      <c r="P31" s="16"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A4:A29">
@@ -5203,22 +5114,22 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" s="11" customFormat="1" spans="1:13">
+    <row r="2" s="10" customFormat="1" spans="1:13">
       <c r="A2" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
@@ -5741,10 +5652,10 @@
   <sheetPr/>
   <dimension ref="A1:N39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G21" sqref="G21"/>
+      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5772,24 +5683,24 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" s="11" customFormat="1" spans="1:14">
+    <row r="2" s="10" customFormat="1" spans="1:14">
       <c r="A2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
@@ -5806,12 +5717,12 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="4"/>
       <c r="F3" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="1"/>
@@ -5828,12 +5739,12 @@
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="4"/>
       <c r="F4" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="1"/>
@@ -5850,12 +5761,12 @@
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="4"/>
       <c r="F5" s="3" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="1"/>
@@ -5872,12 +5783,12 @@
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="1"/>
@@ -5894,14 +5805,14 @@
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3">
         <v>2</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="1"/>
@@ -5918,14 +5829,14 @@
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3">
         <v>2</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="1"/>
@@ -5942,14 +5853,14 @@
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3">
         <v>2</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="1"/>
@@ -5966,14 +5877,14 @@
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3">
         <v>3</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="1"/>
@@ -5990,7 +5901,7 @@
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3">
@@ -6012,7 +5923,7 @@
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3">
@@ -6034,7 +5945,7 @@
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3">
@@ -6056,7 +5967,7 @@
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3">
@@ -6078,7 +5989,7 @@
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3">
@@ -6100,7 +6011,7 @@
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3">
@@ -6122,7 +6033,7 @@
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3">
@@ -6144,7 +6055,7 @@
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3">
@@ -6166,7 +6077,7 @@
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3">
@@ -6188,7 +6099,7 @@
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="3">
@@ -6210,12 +6121,12 @@
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="G21" s="3"/>
       <c r="H21" s="1"/>
@@ -6232,12 +6143,12 @@
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="G22" s="3"/>
       <c r="H22" s="1"/>
@@ -6254,12 +6165,12 @@
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="G23" s="3"/>
       <c r="H23" s="1"/>
@@ -6276,12 +6187,12 @@
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="3" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G24" s="3"/>
       <c r="H24" s="1"/>
@@ -6297,13 +6208,13 @@
         <v>23</v>
       </c>
       <c r="B25" s="3"/>
-      <c r="C25" s="15" t="s">
-        <v>99</v>
+      <c r="C25" s="13" t="s">
+        <v>95</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="G25" s="3"/>
       <c r="H25" s="1"/>
@@ -6320,14 +6231,14 @@
       </c>
       <c r="B26" s="3"/>
       <c r="C26" s="3" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="3">
         <v>1</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G26" s="3"/>
       <c r="H26" s="1"/>
@@ -6344,14 +6255,14 @@
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="3" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="3">
         <v>1</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="G27" s="3"/>
       <c r="H27" s="1"/>
@@ -6367,15 +6278,15 @@
         <v>26</v>
       </c>
       <c r="B28" s="3"/>
-      <c r="C28" s="15" t="s">
-        <v>105</v>
+      <c r="C28" s="13" t="s">
+        <v>101</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="3">
         <v>2</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="G28" s="3"/>
       <c r="H28" s="1"/>
@@ -6391,8 +6302,8 @@
         <v>27</v>
       </c>
       <c r="B29" s="3"/>
-      <c r="C29" s="15" t="s">
-        <v>107</v>
+      <c r="C29" s="13" t="s">
+        <v>103</v>
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="3">
@@ -6891,20 +6802,20 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
@@ -7441,22 +7352,22 @@
     <col min="5" max="5" width="9.625" style="9" customWidth="1"/>
     <col min="6" max="6" width="8.25" customWidth="1"/>
     <col min="7" max="7" width="10.5" customWidth="1"/>
-    <col min="9" max="9" width="12.25" style="12" customWidth="1"/>
+    <col min="9" max="9" width="12.25" style="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="C1" s="14"/>
+        <v>104</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="C1" s="12"/>
       <c r="D1" s="8" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
@@ -7468,32 +7379,32 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" s="11" customFormat="1" spans="1:14">
+    <row r="2" s="10" customFormat="1" spans="1:14">
       <c r="A2" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>118</v>
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
@@ -7511,7 +7422,7 @@
         <v>100</v>
       </c>
       <c r="D3" s="3">
-        <f>ROUND(C3/100,0)*100</f>
+        <f t="shared" ref="D3:D9" si="0">ROUND(C3/100,0)*100</f>
         <v>100</v>
       </c>
       <c r="F3" s="3">
@@ -7519,7 +7430,7 @@
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="10">
+      <c r="I3" s="3">
         <v>10</v>
       </c>
       <c r="J3" s="1"/>
@@ -7540,17 +7451,17 @@
         <v>200</v>
       </c>
       <c r="D4" s="3">
-        <f>ROUND(C4/100,0)*100</f>
+        <f t="shared" si="0"/>
         <v>200</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3">
-        <f t="shared" ref="F4:F42" si="0">F3</f>
+        <f t="shared" ref="F4:F42" si="1">F3</f>
         <v>20</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-      <c r="I4" s="10"/>
+      <c r="I4" s="3"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
@@ -7565,21 +7476,21 @@
         <v>2</v>
       </c>
       <c r="C5" s="3">
-        <f t="shared" ref="C5:C42" si="1">C4*B5</f>
+        <f t="shared" ref="C5:C42" si="2">C4*B5</f>
         <v>400</v>
       </c>
       <c r="D5" s="3">
-        <f>ROUND(C5/100,0)*100</f>
+        <f t="shared" si="0"/>
         <v>400</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
-      <c r="I5" s="10"/>
+      <c r="I5" s="3"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -7594,21 +7505,21 @@
         <v>2</v>
       </c>
       <c r="C6" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>800</v>
       </c>
       <c r="D6" s="3">
-        <f>ROUND(C6/100,0)*100</f>
+        <f t="shared" si="0"/>
         <v>800</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
-      <c r="I6" s="10"/>
+      <c r="I6" s="3"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
@@ -7623,21 +7534,21 @@
         <v>2</v>
       </c>
       <c r="C7" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1600</v>
       </c>
       <c r="D7" s="3">
-        <f>ROUND(C7/100,0)*100</f>
+        <f t="shared" si="0"/>
         <v>1600</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="10"/>
+      <c r="I7" s="3"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
@@ -7652,21 +7563,21 @@
         <v>1.9</v>
       </c>
       <c r="C8" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3040</v>
       </c>
       <c r="D8" s="3">
-        <f>ROUND(C8/100,0)*100</f>
+        <f t="shared" si="0"/>
         <v>3000</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
-      <c r="I8" s="10"/>
+      <c r="I8" s="3"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
@@ -7678,25 +7589,25 @@
         <v>7</v>
       </c>
       <c r="B9" s="3">
-        <f t="shared" ref="B9:B30" si="2">B8*0.96</f>
+        <f t="shared" ref="B9:B30" si="3">B8*0.96</f>
         <v>1.824</v>
       </c>
       <c r="C9" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5544.96</v>
       </c>
       <c r="D9" s="3">
-        <f>ROUND(C9/100,0)*100</f>
+        <f t="shared" si="0"/>
         <v>5500</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
-      <c r="I9" s="10"/>
+      <c r="I9" s="3"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
@@ -7708,25 +7619,25 @@
         <v>8</v>
       </c>
       <c r="B10" s="3">
+        <f t="shared" si="3"/>
+        <v>1.75104</v>
+      </c>
+      <c r="C10" s="3">
         <f t="shared" si="2"/>
-        <v>1.75104</v>
-      </c>
-      <c r="C10" s="3">
-        <f t="shared" si="1"/>
         <v>9709.4467584</v>
       </c>
       <c r="D10" s="3">
-        <f>ROUND(C10/1000,0)*1000</f>
+        <f t="shared" ref="D10:D20" si="4">ROUND(C10/1000,0)*1000</f>
         <v>10000</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
-      <c r="I10" s="10"/>
+      <c r="I10" s="3"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
@@ -7738,25 +7649,25 @@
         <v>9</v>
       </c>
       <c r="B11" s="3">
+        <f t="shared" si="3"/>
+        <v>1.6809984</v>
+      </c>
+      <c r="C11" s="3">
         <f t="shared" si="2"/>
-        <v>1.6809984</v>
-      </c>
-      <c r="C11" s="3">
-        <f t="shared" si="1"/>
         <v>16321.5644657556</v>
       </c>
       <c r="D11" s="3">
-        <f>ROUND(C11/1000,0)*1000</f>
+        <f t="shared" si="4"/>
         <v>16000</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
-      <c r="I11" s="10"/>
+      <c r="I11" s="3"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
@@ -7768,25 +7679,25 @@
         <v>10</v>
       </c>
       <c r="B12" s="3">
+        <f t="shared" si="3"/>
+        <v>1.613758464</v>
+      </c>
+      <c r="C12" s="3">
         <f t="shared" si="2"/>
-        <v>1.613758464</v>
-      </c>
-      <c r="C12" s="3">
-        <f t="shared" si="1"/>
         <v>26339.0628023347</v>
       </c>
       <c r="D12" s="3">
-        <f>ROUND(C12/1000,0)*1000</f>
+        <f t="shared" si="4"/>
         <v>26000</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
-      <c r="I12" s="10"/>
+      <c r="I12" s="3"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
@@ -7798,25 +7709,25 @@
         <v>11</v>
       </c>
       <c r="B13" s="3">
+        <f t="shared" si="3"/>
+        <v>1.54920812544</v>
+      </c>
+      <c r="C13" s="3">
         <f t="shared" si="2"/>
-        <v>1.54920812544</v>
-      </c>
-      <c r="C13" s="3">
-        <f t="shared" si="1"/>
         <v>40804.6901098513</v>
       </c>
       <c r="D13" s="3">
-        <f>ROUND(C13/1000,0)*1000</f>
+        <f t="shared" si="4"/>
         <v>41000</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
-      <c r="I13" s="10"/>
+      <c r="I13" s="3"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
@@ -7828,25 +7739,25 @@
         <v>12</v>
       </c>
       <c r="B14" s="3">
+        <f t="shared" si="3"/>
+        <v>1.4872398004224</v>
+      </c>
+      <c r="C14" s="3">
         <f t="shared" si="2"/>
-        <v>1.4872398004224</v>
-      </c>
-      <c r="C14" s="3">
-        <f t="shared" si="1"/>
         <v>60686.3591752732</v>
       </c>
       <c r="D14" s="3">
-        <f>ROUND(C14/1000,0)*1000</f>
+        <f t="shared" si="4"/>
         <v>61000</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
-      <c r="I14" s="10"/>
+      <c r="I14" s="3"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
@@ -7858,25 +7769,25 @@
         <v>13</v>
       </c>
       <c r="B15" s="3">
+        <f t="shared" si="3"/>
+        <v>1.4277502084055</v>
+      </c>
+      <c r="C15" s="3">
         <f t="shared" si="2"/>
-        <v>1.4277502084055</v>
-      </c>
-      <c r="C15" s="3">
-        <f t="shared" si="1"/>
         <v>86644.9619598675</v>
       </c>
       <c r="D15" s="3">
-        <f>ROUND(C15/1000,0)*1000</f>
+        <f t="shared" si="4"/>
         <v>87000</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
-      <c r="I15" s="10"/>
+      <c r="I15" s="3"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
@@ -7888,25 +7799,25 @@
         <v>14</v>
       </c>
       <c r="B16" s="3">
+        <f t="shared" si="3"/>
+        <v>1.37064020006928</v>
+      </c>
+      <c r="C16" s="3">
         <f t="shared" si="2"/>
-        <v>1.37064020006928</v>
-      </c>
-      <c r="C16" s="3">
-        <f t="shared" si="1"/>
         <v>118759.067995668</v>
       </c>
       <c r="D16" s="3">
-        <f>ROUND(C16/1000,0)*1000</f>
+        <f t="shared" si="4"/>
         <v>119000</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
-      <c r="I16" s="10"/>
+      <c r="I16" s="3"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
@@ -7918,25 +7829,25 @@
         <v>15</v>
       </c>
       <c r="B17" s="3">
+        <f t="shared" si="3"/>
+        <v>1.31581459206651</v>
+      </c>
+      <c r="C17" s="3">
         <f t="shared" si="2"/>
-        <v>1.31581459206651</v>
-      </c>
-      <c r="C17" s="3">
-        <f t="shared" si="1"/>
         <v>156264.914608919</v>
       </c>
       <c r="D17" s="3">
-        <f>ROUND(C17/1000,0)*1000</f>
+        <f t="shared" si="4"/>
         <v>156000</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
-      <c r="I17" s="10"/>
+      <c r="I17" s="3"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
@@ -7948,25 +7859,25 @@
         <v>16</v>
       </c>
       <c r="B18" s="3">
+        <f t="shared" si="3"/>
+        <v>1.26318200838385</v>
+      </c>
+      <c r="C18" s="3">
         <f t="shared" si="2"/>
-        <v>1.26318200838385</v>
-      </c>
-      <c r="C18" s="3">
-        <f t="shared" si="1"/>
         <v>197391.028675626</v>
       </c>
       <c r="D18" s="3">
-        <f>ROUND(C18/1000,0)*1000</f>
+        <f t="shared" si="4"/>
         <v>197000</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
-      <c r="I18" s="10"/>
+      <c r="I18" s="3"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
@@ -7978,25 +7889,25 @@
         <v>17</v>
       </c>
       <c r="B19" s="3">
+        <f t="shared" si="3"/>
+        <v>1.2126547280485</v>
+      </c>
+      <c r="C19" s="3">
         <f t="shared" si="2"/>
-        <v>1.2126547280485</v>
-      </c>
-      <c r="C19" s="3">
-        <f t="shared" si="1"/>
         <v>239367.164197854</v>
       </c>
       <c r="D19" s="3">
-        <f>ROUND(C19/1000,0)*1000</f>
+        <f t="shared" si="4"/>
         <v>239000</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
-      <c r="I19" s="10"/>
+      <c r="I19" s="3"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
@@ -8008,25 +7919,25 @@
         <v>18</v>
       </c>
       <c r="B20" s="3">
-        <f t="shared" ref="B20:B30" si="3">1.2</f>
+        <f t="shared" ref="B20:B30" si="5">1.2</f>
         <v>1.2</v>
       </c>
       <c r="C20" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>287240.597037425</v>
       </c>
       <c r="D20" s="3">
-        <f>ROUND(C20/1000,0)*1000</f>
+        <f t="shared" si="4"/>
         <v>287000</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
-      <c r="I20" s="10"/>
+      <c r="I20" s="3"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
@@ -8038,25 +7949,25 @@
         <v>19</v>
       </c>
       <c r="B21" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.2</v>
       </c>
       <c r="C21" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>344688.71644491</v>
       </c>
       <c r="D21" s="3">
-        <f t="shared" ref="D21:D42" si="4">ROUND(C21/10000,0)*10000</f>
+        <f t="shared" ref="D21:D42" si="6">ROUND(C21/10000,0)*10000</f>
         <v>340000</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
-      <c r="I21" s="10"/>
+      <c r="I21" s="3"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
@@ -8068,25 +7979,25 @@
         <v>20</v>
       </c>
       <c r="B22" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.2</v>
       </c>
       <c r="C22" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>413626.459733892</v>
       </c>
       <c r="D22" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>410000</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
-      <c r="I22" s="10"/>
+      <c r="I22" s="3"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
@@ -8098,25 +8009,25 @@
         <v>21</v>
       </c>
       <c r="B23" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.2</v>
       </c>
       <c r="C23" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>496351.75168067</v>
       </c>
       <c r="D23" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>500000</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
-      <c r="I23" s="10"/>
+      <c r="I23" s="3"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
@@ -8128,25 +8039,25 @@
         <v>22</v>
       </c>
       <c r="B24" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.2</v>
       </c>
       <c r="C24" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>595622.102016804</v>
       </c>
       <c r="D24" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>600000</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
-      <c r="I24" s="10"/>
+      <c r="I24" s="3"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
@@ -8158,25 +8069,25 @@
         <v>23</v>
       </c>
       <c r="B25" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.2</v>
       </c>
       <c r="C25" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>714746.522420165</v>
       </c>
       <c r="D25" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>710000</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
-      <c r="I25" s="10"/>
+      <c r="I25" s="3"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
@@ -8188,25 +8099,25 @@
         <v>24</v>
       </c>
       <c r="B26" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.2</v>
       </c>
       <c r="C26" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>857695.826904198</v>
       </c>
       <c r="D26" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>860000</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
-      <c r="I26" s="10"/>
+      <c r="I26" s="3"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
@@ -8218,25 +8129,25 @@
         <v>25</v>
       </c>
       <c r="B27" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.2</v>
       </c>
       <c r="C27" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1029234.99228504</v>
       </c>
       <c r="D27" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1030000</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
-      <c r="I27" s="10"/>
+      <c r="I27" s="3"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
@@ -8248,25 +8159,25 @@
         <v>26</v>
       </c>
       <c r="B28" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.2</v>
       </c>
       <c r="C28" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1235081.99074205</v>
       </c>
       <c r="D28" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1240000</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
-      <c r="I28" s="10"/>
+      <c r="I28" s="3"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
@@ -8278,25 +8189,25 @@
         <v>27</v>
       </c>
       <c r="B29" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.2</v>
       </c>
       <c r="C29" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1482098.38889045</v>
       </c>
       <c r="D29" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1480000</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
-      <c r="I29" s="10"/>
+      <c r="I29" s="3"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
@@ -8308,25 +8219,25 @@
         <v>28</v>
       </c>
       <c r="B30" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.2</v>
       </c>
       <c r="C30" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1778518.06666855</v>
       </c>
       <c r="D30" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1780000</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
-      <c r="I30" s="10"/>
+      <c r="I30" s="3"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
@@ -8338,25 +8249,25 @@
         <v>29</v>
       </c>
       <c r="B31" s="3">
-        <f t="shared" ref="B31:B42" si="5">1.2</f>
+        <f t="shared" ref="B31:B42" si="7">1.2</f>
         <v>1.2</v>
       </c>
       <c r="C31" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2134221.68000225</v>
       </c>
       <c r="D31" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2130000</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
-      <c r="I31" s="10"/>
+      <c r="I31" s="3"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
@@ -8368,25 +8279,25 @@
         <v>30</v>
       </c>
       <c r="B32" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.2</v>
       </c>
       <c r="C32" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2561066.0160027</v>
       </c>
       <c r="D32" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2560000</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
-      <c r="I32" s="10"/>
+      <c r="I32" s="3"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
@@ -8398,25 +8309,25 @@
         <v>31</v>
       </c>
       <c r="B33" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.2</v>
       </c>
       <c r="C33" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3073279.21920325</v>
       </c>
       <c r="D33" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3070000</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
-      <c r="I33" s="10"/>
+      <c r="I33" s="3"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
@@ -8428,25 +8339,25 @@
         <v>32</v>
       </c>
       <c r="B34" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.2</v>
       </c>
       <c r="C34" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3687935.06304389</v>
       </c>
       <c r="D34" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3690000</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
-      <c r="I34" s="10"/>
+      <c r="I34" s="3"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
@@ -8458,25 +8369,25 @@
         <v>33</v>
       </c>
       <c r="B35" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.2</v>
       </c>
       <c r="C35" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4425522.07565267</v>
       </c>
       <c r="D35" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>4430000</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
-      <c r="I35" s="10"/>
+      <c r="I35" s="3"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
@@ -8488,25 +8399,25 @@
         <v>34</v>
       </c>
       <c r="B36" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.2</v>
       </c>
       <c r="C36" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5310626.49078321</v>
       </c>
       <c r="D36" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5310000</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
-      <c r="I36" s="10"/>
+      <c r="I36" s="3"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
@@ -8518,25 +8429,25 @@
         <v>35</v>
       </c>
       <c r="B37" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.2</v>
       </c>
       <c r="C37" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6372751.78893985</v>
       </c>
       <c r="D37" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>6370000</v>
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
-      <c r="I37" s="10"/>
+      <c r="I37" s="3"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
@@ -8548,25 +8459,25 @@
         <v>36</v>
       </c>
       <c r="B38" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.2</v>
       </c>
       <c r="C38" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7647302.14672782</v>
       </c>
       <c r="D38" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>7650000</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
-      <c r="I38" s="10"/>
+      <c r="I38" s="3"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
@@ -8578,25 +8489,25 @@
         <v>37</v>
       </c>
       <c r="B39" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.2</v>
       </c>
       <c r="C39" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9176762.57607338</v>
       </c>
       <c r="D39" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>9180000</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
-      <c r="I39" s="10"/>
+      <c r="I39" s="3"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
@@ -8608,25 +8519,25 @@
         <v>38</v>
       </c>
       <c r="B40" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.2</v>
       </c>
       <c r="C40" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11012115.0912881</v>
       </c>
       <c r="D40" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>11010000</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
-      <c r="I40" s="10"/>
+      <c r="I40" s="3"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
@@ -8638,25 +8549,25 @@
         <v>39</v>
       </c>
       <c r="B41" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.2</v>
       </c>
       <c r="C41" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>13214538.1095457</v>
       </c>
       <c r="D41" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>13210000</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
-      <c r="I41" s="10"/>
+      <c r="I41" s="3"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
@@ -8668,25 +8579,25 @@
         <v>40</v>
       </c>
       <c r="B42" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.2</v>
       </c>
       <c r="C42" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>15857445.7314548</v>
       </c>
       <c r="D42" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>15860000</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
-      <c r="I42" s="10"/>
+      <c r="I42" s="3"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
@@ -8702,7 +8613,7 @@
       <c r="F43" s="3"/>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
-      <c r="I43" s="10"/>
+      <c r="I43" s="3"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
@@ -9695,7 +9606,7 @@
   <sheetData>
     <row r="1" ht="86" customHeight="1" spans="1:9">
       <c r="A1" s="6" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -9708,7 +9619,7 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="8" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>0</v>
@@ -9723,10 +9634,10 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -9745,7 +9656,7 @@
       <c r="D4" s="3"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="10"/>
+      <c r="G4" s="3"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
@@ -9758,7 +9669,7 @@
       <c r="D5" s="3"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-      <c r="G5" s="10"/>
+      <c r="G5" s="3"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
@@ -9771,7 +9682,7 @@
       <c r="D6" s="3"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
-      <c r="G6" s="10"/>
+      <c r="G6" s="3"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
@@ -9784,7 +9695,7 @@
       <c r="D7" s="3"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="10"/>
+      <c r="G7" s="3"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
@@ -9797,7 +9708,7 @@
       <c r="D8" s="3"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
-      <c r="G8" s="10"/>
+      <c r="G8" s="3"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
@@ -9810,7 +9721,7 @@
       <c r="D9" s="3"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
-      <c r="G9" s="10"/>
+      <c r="G9" s="3"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
@@ -9823,7 +9734,7 @@
       <c r="D10" s="3"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-      <c r="G10" s="10"/>
+      <c r="G10" s="3"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
@@ -9836,7 +9747,7 @@
       <c r="D11" s="3"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
-      <c r="G11" s="10"/>
+      <c r="G11" s="3"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
@@ -9849,7 +9760,7 @@
       <c r="D12" s="3"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="10"/>
+      <c r="G12" s="3"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
@@ -9862,7 +9773,7 @@
       <c r="D13" s="3"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
-      <c r="G13" s="10"/>
+      <c r="G13" s="3"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
     </row>
@@ -9875,7 +9786,7 @@
       <c r="D14" s="3"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
-      <c r="G14" s="10"/>
+      <c r="G14" s="3"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
@@ -9888,7 +9799,7 @@
       <c r="D15" s="3"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="10"/>
+      <c r="G15" s="3"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
@@ -9901,7 +9812,7 @@
       <c r="D16" s="3"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
-      <c r="G16" s="10"/>
+      <c r="G16" s="3"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
@@ -9914,7 +9825,7 @@
       <c r="D17" s="3"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
-      <c r="G17" s="10"/>
+      <c r="G17" s="3"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>
@@ -9927,7 +9838,7 @@
       <c r="D18" s="3"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
-      <c r="G18" s="10"/>
+      <c r="G18" s="3"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
     </row>
@@ -9940,7 +9851,7 @@
       <c r="D19" s="3"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
-      <c r="G19" s="10"/>
+      <c r="G19" s="3"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
@@ -9953,7 +9864,7 @@
       <c r="D20" s="3"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
-      <c r="G20" s="10"/>
+      <c r="G20" s="3"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
@@ -9966,7 +9877,7 @@
       <c r="D21" s="3"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
-      <c r="G21" s="10"/>
+      <c r="G21" s="3"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
@@ -9979,7 +9890,7 @@
       <c r="D22" s="3"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
-      <c r="G22" s="10"/>
+      <c r="G22" s="3"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
@@ -9992,7 +9903,7 @@
       <c r="D23" s="3"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
-      <c r="G23" s="10"/>
+      <c r="G23" s="3"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
@@ -10005,7 +9916,7 @@
       <c r="D24" s="3"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
-      <c r="G24" s="10"/>
+      <c r="G24" s="3"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
@@ -10018,7 +9929,7 @@
       <c r="D25" s="3"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
-      <c r="G25" s="10"/>
+      <c r="G25" s="3"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
@@ -10031,7 +9942,7 @@
       <c r="D26" s="3"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
-      <c r="G26" s="10"/>
+      <c r="G26" s="3"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
@@ -10044,7 +9955,7 @@
       <c r="D27" s="3"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
-      <c r="G27" s="10"/>
+      <c r="G27" s="3"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
@@ -10057,7 +9968,7 @@
       <c r="D28" s="3"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
-      <c r="G28" s="10"/>
+      <c r="G28" s="3"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
@@ -10070,7 +9981,7 @@
       <c r="D29" s="3"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
-      <c r="G29" s="10"/>
+      <c r="G29" s="3"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
     </row>
@@ -10083,7 +9994,7 @@
       <c r="D30" s="3"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
-      <c r="G30" s="10"/>
+      <c r="G30" s="3"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
     </row>
@@ -10728,50 +10639,50 @@
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="M1" s="3"/>
       <c r="N1" s="5"/>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="N2" s="2"/>
     </row>
@@ -10780,10 +10691,10 @@
         <v>100</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D3" s="3">
         <v>1</v>
@@ -10810,10 +10721,10 @@
         <v>101</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D4" s="3">
         <v>30</v>
@@ -10842,10 +10753,10 @@
         <v>102</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D5" s="3">
         <v>120</v>
@@ -10874,10 +10785,10 @@
         <v>103</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D6" s="3">
         <v>480</v>
@@ -10908,10 +10819,10 @@
         <v>104</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D7" s="3">
         <v>720</v>
@@ -10944,10 +10855,10 @@
         <v>105</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D8" s="3">
         <v>1440</v>
@@ -10980,10 +10891,10 @@
         <v>106</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D9" s="3">
         <v>2880</v>
@@ -11249,13 +11160,12 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+      <selection activeCell="J42" sqref="J42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Doc/GameData.xlsx
+++ b/Doc/GameData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="621"/>
+    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="621" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="1" r:id="rId1"/>
@@ -172,7 +172,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="338">
   <si>
     <t>分类</t>
   </si>
@@ -333,6 +333,45 @@
     <t>心情上限</t>
   </si>
   <si>
+    <t>task</t>
+  </si>
+  <si>
+    <t>intiDiff</t>
+  </si>
+  <si>
+    <t>初始难度</t>
+  </si>
+  <si>
+    <t>perLevelDiff</t>
+  </si>
+  <si>
+    <t>每升一级难度提升</t>
+  </si>
+  <si>
+    <t>diffRange</t>
+  </si>
+  <si>
+    <t>难度波动范围</t>
+  </si>
+  <si>
+    <t>maxDiff</t>
+  </si>
+  <si>
+    <t>非限时任务难度上限</t>
+  </si>
+  <si>
+    <t>limitMaxDiff</t>
+  </si>
+  <si>
+    <t>限时任务难度上限</t>
+  </si>
+  <si>
+    <t>limitTime</t>
+  </si>
+  <si>
+    <t>限时任务时间（分钟）</t>
+  </si>
+  <si>
     <t>名称</t>
   </si>
   <si>
@@ -523,6 +562,9 @@
   </si>
   <si>
     <t>阶段</t>
+  </si>
+  <si>
+    <t>level</t>
   </si>
   <si>
     <t>exp</t>
@@ -601,9 +643,6 @@
     <t>堆叠数量提升</t>
   </si>
   <si>
-    <t>level</t>
-  </si>
-  <si>
     <t>speedInc</t>
   </si>
   <si>
@@ -802,7 +841,67 @@
     <t>钻石箱子</t>
   </si>
   <si>
-    <t>unlockPrice</t>
+    <t>最低难度与最高难度值</t>
+  </si>
+  <si>
+    <t>minParam</t>
+  </si>
+  <si>
+    <t>maxParam</t>
+  </si>
+  <si>
+    <t>Task_Des001</t>
+  </si>
+  <si>
+    <t>出售XX种类的菜品获得XX金币</t>
+  </si>
+  <si>
+    <t>Task_Des002</t>
+  </si>
+  <si>
+    <t>出售XX个XX种类的菜品</t>
+  </si>
+  <si>
+    <t>Task_Des003</t>
+  </si>
+  <si>
+    <t>让XX个顾客至少购买3个商品</t>
+  </si>
+  <si>
+    <t>Task_Des004</t>
+  </si>
+  <si>
+    <t>让XX个顾客至少购买5个商品</t>
+  </si>
+  <si>
+    <t>Task_Des005</t>
+  </si>
+  <si>
+    <t>让XX个顾客至少购买7个商品</t>
+  </si>
+  <si>
+    <t>Task_Des006</t>
+  </si>
+  <si>
+    <t>让XX个顾客离开商店时心情达到6</t>
+  </si>
+  <si>
+    <t>Task_Des007</t>
+  </si>
+  <si>
+    <t>让XX个顾客离开商店时心情达到8</t>
+  </si>
+  <si>
+    <t>Task_Des008</t>
+  </si>
+  <si>
+    <t>让XX个顾客离开商店时金币少于50</t>
+  </si>
+  <si>
+    <t>Task_Des009</t>
+  </si>
+  <si>
+    <t>累计为顾客增加X点心情</t>
   </si>
   <si>
     <t>成就说明</t>
@@ -1100,8 +1199,8 @@
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -1119,24 +1218,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1151,14 +1234,76 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1174,22 +1319,6 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1197,37 +1326,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1235,7 +1334,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1250,14 +1349,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1313,7 +1412,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1325,7 +1484,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1337,19 +1526,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1361,127 +1580,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1493,7 +1592,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1536,7 +1635,9 @@
     </border>
     <border>
       <left/>
-      <right/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -1547,9 +1648,7 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
+      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -1596,63 +1695,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1679,6 +1721,63 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1701,10 +1800,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1713,137 +1812,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1868,6 +1967,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1880,31 +1985,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1916,7 +2015,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1925,7 +2024,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1985,17 +2084,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2398,10 +2488,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2458,7 +2548,7 @@
       <c r="C3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="10" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="47"/>
@@ -2475,7 +2565,7 @@
       <c r="C4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="10" t="s">
         <v>13</v>
       </c>
       <c r="E4" s="47"/>
@@ -2494,7 +2584,7 @@
       <c r="C5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="10">
         <v>10</v>
       </c>
       <c r="E5" s="47"/>
@@ -2511,7 +2601,7 @@
       <c r="C6" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="10">
         <v>3</v>
       </c>
       <c r="E6" s="47"/>
@@ -2528,7 +2618,7 @@
       <c r="C7" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="10">
         <v>10</v>
       </c>
       <c r="E7" s="47"/>
@@ -2545,7 +2635,7 @@
       <c r="C8" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="10">
         <v>200</v>
       </c>
       <c r="E8" s="47"/>
@@ -2562,7 +2652,7 @@
       <c r="C9" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="10">
         <v>10</v>
       </c>
       <c r="E9" s="47"/>
@@ -2579,7 +2669,7 @@
       <c r="C10" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="10">
         <v>15</v>
       </c>
       <c r="E10" s="47"/>
@@ -2596,7 +2686,7 @@
       <c r="C11" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="10">
         <v>10</v>
       </c>
       <c r="E11" s="47"/>
@@ -2613,7 +2703,7 @@
       <c r="C12" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="10">
         <v>12</v>
       </c>
       <c r="E12" s="47"/>
@@ -2630,7 +2720,7 @@
       <c r="C13" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="10">
         <v>10</v>
       </c>
       <c r="E13" s="47"/>
@@ -2643,7 +2733,7 @@
       <c r="A14" s="49"/>
       <c r="B14" s="5"/>
       <c r="C14" s="7"/>
-      <c r="D14" s="8"/>
+      <c r="D14" s="10"/>
       <c r="E14" s="47"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
@@ -2654,7 +2744,7 @@
       <c r="A15" s="50"/>
       <c r="B15" s="5"/>
       <c r="C15" s="7"/>
-      <c r="D15" s="8"/>
+      <c r="D15" s="10"/>
       <c r="E15" s="47"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
@@ -2662,7 +2752,7 @@
       <c r="I15" s="7"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="51" t="s">
+      <c r="A16" s="48" t="s">
         <v>33</v>
       </c>
       <c r="B16" s="5" t="s">
@@ -2671,7 +2761,7 @@
       <c r="C16" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D16" s="10">
         <v>5</v>
       </c>
       <c r="E16" s="47"/>
@@ -2681,14 +2771,14 @@
       <c r="I16" s="7"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="52"/>
+      <c r="A17" s="49"/>
       <c r="B17" s="5" t="s">
         <v>36</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D17" s="10">
         <v>4</v>
       </c>
       <c r="E17" s="47"/>
@@ -2698,14 +2788,14 @@
       <c r="I17" s="7"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="52"/>
+      <c r="A18" s="49"/>
       <c r="B18" s="5" t="s">
         <v>38</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="10" t="s">
         <v>40</v>
       </c>
       <c r="E18" s="47"/>
@@ -2715,14 +2805,14 @@
       <c r="I18" s="7"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="52"/>
+      <c r="A19" s="49"/>
       <c r="B19" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="10" t="s">
         <v>43</v>
       </c>
       <c r="E19" s="47"/>
@@ -2732,10 +2822,10 @@
       <c r="I19" s="7"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="53"/>
+      <c r="A20" s="50"/>
       <c r="B20" s="5"/>
       <c r="C20" s="7"/>
-      <c r="D20" s="8"/>
+      <c r="D20" s="10"/>
       <c r="E20" s="47"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
@@ -2752,7 +2842,7 @@
       <c r="C21" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="8">
+      <c r="D21" s="10">
         <v>100</v>
       </c>
       <c r="E21" s="47"/>
@@ -2769,10 +2859,10 @@
       <c r="C22" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D22" s="8">
+      <c r="D22" s="10">
         <v>25</v>
       </c>
-      <c r="E22" s="47"/>
+      <c r="E22" s="7"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
@@ -2786,10 +2876,10 @@
       <c r="C23" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="D23" s="8">
+      <c r="D23" s="10">
         <v>15</v>
       </c>
-      <c r="E23" s="47"/>
+      <c r="E23" s="7"/>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
@@ -2803,21 +2893,29 @@
       <c r="C24" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="D24" s="8">
+      <c r="D24" s="10">
         <v>10</v>
       </c>
-      <c r="E24" s="47"/>
+      <c r="E24" s="7"/>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
       <c r="I24" s="7"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="6"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="47"/>
+      <c r="A25" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D25" s="10">
+        <v>15</v>
+      </c>
+      <c r="E25" s="7"/>
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
@@ -2825,21 +2923,128 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="6"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="47"/>
+      <c r="B26" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D26" s="10">
+        <v>3</v>
+      </c>
+      <c r="E26" s="7"/>
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
     </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="6"/>
+      <c r="B27" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D27" s="10">
+        <v>12</v>
+      </c>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="6"/>
+      <c r="B28" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D28" s="10">
+        <v>87</v>
+      </c>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="6"/>
+      <c r="B29" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D29" s="10">
+        <v>60</v>
+      </c>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="6"/>
+      <c r="B30" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D30" s="10">
+        <v>5</v>
+      </c>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="6"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="6"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+    </row>
+    <row r="33" spans="2:9">
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A5:A15"/>
     <mergeCell ref="A16:A20"/>
     <mergeCell ref="A21:A24"/>
+    <mergeCell ref="A25:A32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2854,9 +3059,9 @@
   <dimension ref="A2:Z39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="L31" sqref="L31"/>
+      <selection pane="bottomLeft" activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2880,91 +3085,91 @@
   </cols>
   <sheetData>
     <row r="2" s="3" customFormat="1" ht="27" spans="1:26">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="M2" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="N2" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="O2" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="N2" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="O2" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
       <c r="R2" s="46"/>
-      <c r="S2" s="8"/>
-      <c r="T2" s="8"/>
-      <c r="U2" s="8"/>
-      <c r="V2" s="8"/>
-      <c r="W2" s="8"/>
-      <c r="X2" s="8"/>
-      <c r="Y2" s="8"/>
-      <c r="Z2" s="8"/>
+      <c r="S2" s="10"/>
+      <c r="T2" s="10"/>
+      <c r="U2" s="10"/>
+      <c r="V2" s="10"/>
+      <c r="W2" s="10"/>
+      <c r="X2" s="10"/>
+      <c r="Y2" s="10"/>
+      <c r="Z2" s="10"/>
     </row>
     <row r="3" s="15" customFormat="1" spans="1:26">
       <c r="A3" s="6" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
       <c r="J3" s="6" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="L3" s="45"/>
       <c r="M3" s="6" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="O3" s="6" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="P3" s="6"/>
       <c r="Q3" s="6"/>
@@ -2987,10 +3192,10 @@
         <v>DishName_101</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="E4" s="5" t="str">
         <f t="shared" ref="E4:E39" si="1">"DishDes_"&amp;A4</f>
@@ -3013,17 +3218,17 @@
       <c r="K4" s="5">
         <v>0.2</v>
       </c>
-      <c r="L4" s="8"/>
+      <c r="L4" s="10"/>
       <c r="M4" s="5"/>
       <c r="N4" s="5" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="O4" s="5">
         <v>100</v>
       </c>
       <c r="P4" s="5"/>
       <c r="Q4" s="5"/>
-      <c r="R4" s="12"/>
+      <c r="R4" s="8"/>
     </row>
     <row r="5" spans="1:18">
       <c r="A5" s="5">
@@ -3034,10 +3239,10 @@
         <v>DishName_102</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="E5" s="5" t="str">
         <f t="shared" si="1"/>
@@ -3060,17 +3265,17 @@
       <c r="K5" s="5">
         <v>0.2</v>
       </c>
-      <c r="L5" s="8"/>
+      <c r="L5" s="10"/>
       <c r="M5" s="5"/>
       <c r="N5" s="5" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="O5" s="5">
         <v>100</v>
       </c>
       <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
-      <c r="R5" s="12"/>
+      <c r="R5" s="8"/>
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="5">
@@ -3081,10 +3286,10 @@
         <v>DishName_103</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="E6" s="5" t="str">
         <f t="shared" si="1"/>
@@ -3107,17 +3312,17 @@
       <c r="K6" s="5">
         <v>0.2</v>
       </c>
-      <c r="L6" s="8"/>
+      <c r="L6" s="10"/>
       <c r="M6" s="5"/>
       <c r="N6" s="5" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="O6" s="5">
         <v>100</v>
       </c>
       <c r="P6" s="5"/>
       <c r="Q6" s="5"/>
-      <c r="R6" s="12"/>
+      <c r="R6" s="8"/>
     </row>
     <row r="7" spans="1:18">
       <c r="A7" s="5">
@@ -3128,10 +3333,10 @@
         <v>DishName_104</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="E7" s="5" t="str">
         <f t="shared" si="1"/>
@@ -3154,17 +3359,17 @@
       <c r="K7" s="5">
         <v>0.2</v>
       </c>
-      <c r="L7" s="8"/>
+      <c r="L7" s="10"/>
       <c r="M7" s="5"/>
       <c r="N7" s="5" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="O7" s="5">
         <v>100</v>
       </c>
       <c r="P7" s="5"/>
       <c r="Q7" s="5"/>
-      <c r="R7" s="12"/>
+      <c r="R7" s="8"/>
     </row>
     <row r="8" spans="1:18">
       <c r="A8" s="5">
@@ -3175,10 +3380,10 @@
         <v>DishName_105</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="E8" s="5" t="str">
         <f t="shared" si="1"/>
@@ -3201,17 +3406,17 @@
       <c r="K8" s="5">
         <v>0.5</v>
       </c>
-      <c r="L8" s="8"/>
+      <c r="L8" s="10"/>
       <c r="M8" s="5"/>
       <c r="N8" s="5" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="O8" s="5">
         <v>100</v>
       </c>
       <c r="P8" s="5"/>
       <c r="Q8" s="5"/>
-      <c r="R8" s="12"/>
+      <c r="R8" s="8"/>
     </row>
     <row r="9" spans="1:18">
       <c r="A9" s="5">
@@ -3222,10 +3427,10 @@
         <v>DishName_106</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="E9" s="5" t="str">
         <f t="shared" si="1"/>
@@ -3248,17 +3453,17 @@
       <c r="K9" s="5">
         <v>0.5</v>
       </c>
-      <c r="L9" s="8"/>
+      <c r="L9" s="10"/>
       <c r="M9" s="5"/>
       <c r="N9" s="5" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="O9" s="5">
         <v>100</v>
       </c>
       <c r="P9" s="5"/>
       <c r="Q9" s="5"/>
-      <c r="R9" s="12"/>
+      <c r="R9" s="8"/>
     </row>
     <row r="10" spans="1:18">
       <c r="A10" s="5">
@@ -3269,10 +3474,10 @@
         <v>DishName_107</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="E10" s="5" t="str">
         <f t="shared" si="1"/>
@@ -3295,17 +3500,17 @@
       <c r="K10" s="5">
         <v>1</v>
       </c>
-      <c r="L10" s="8"/>
+      <c r="L10" s="10"/>
       <c r="M10" s="5"/>
       <c r="N10" s="5" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="O10" s="5">
         <v>100</v>
       </c>
       <c r="P10" s="5"/>
       <c r="Q10" s="5"/>
-      <c r="R10" s="12"/>
+      <c r="R10" s="8"/>
     </row>
     <row r="11" ht="27" spans="1:18">
       <c r="A11" s="5">
@@ -3316,10 +3521,10 @@
         <v>DishName_108</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="E11" s="5" t="str">
         <f t="shared" si="1"/>
@@ -3342,19 +3547,19 @@
       <c r="K11" s="5">
         <v>0.7</v>
       </c>
-      <c r="L11" s="8" t="s">
-        <v>86</v>
+      <c r="L11" s="10" t="s">
+        <v>99</v>
       </c>
       <c r="M11" s="5"/>
       <c r="N11" s="5" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="O11" s="5">
         <v>100</v>
       </c>
       <c r="P11" s="5"/>
       <c r="Q11" s="5"/>
-      <c r="R11" s="12"/>
+      <c r="R11" s="8"/>
     </row>
     <row r="12" ht="27" spans="1:18">
       <c r="A12" s="5">
@@ -3365,10 +3570,10 @@
         <v>DishName_109</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="E12" s="5" t="str">
         <f t="shared" si="1"/>
@@ -3391,19 +3596,19 @@
       <c r="K12" s="5">
         <v>1</v>
       </c>
-      <c r="L12" s="8" t="s">
-        <v>89</v>
+      <c r="L12" s="10" t="s">
+        <v>102</v>
       </c>
       <c r="M12" s="5"/>
       <c r="N12" s="5" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="O12" s="5">
         <v>100</v>
       </c>
       <c r="P12" s="5"/>
       <c r="Q12" s="5"/>
-      <c r="R12" s="12"/>
+      <c r="R12" s="8"/>
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="5">
@@ -3414,10 +3619,10 @@
         <v>DishName_201</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="E13" s="5" t="str">
         <f t="shared" si="1"/>
@@ -3433,17 +3638,17 @@
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
-      <c r="L13" s="8"/>
+      <c r="L13" s="10"/>
       <c r="M13" s="5"/>
       <c r="N13" s="5" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="O13" s="5">
         <v>100</v>
       </c>
       <c r="P13" s="5"/>
       <c r="Q13" s="5"/>
-      <c r="R13" s="12"/>
+      <c r="R13" s="8"/>
     </row>
     <row r="14" spans="1:18">
       <c r="A14" s="5">
@@ -3454,10 +3659,10 @@
         <v>DishName_202</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="E14" s="5" t="str">
         <f t="shared" si="1"/>
@@ -3473,17 +3678,17 @@
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
-      <c r="L14" s="8"/>
+      <c r="L14" s="10"/>
       <c r="M14" s="5"/>
       <c r="N14" s="5" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="O14" s="5">
         <v>100</v>
       </c>
       <c r="P14" s="5"/>
       <c r="Q14" s="5"/>
-      <c r="R14" s="12"/>
+      <c r="R14" s="8"/>
     </row>
     <row r="15" spans="1:18">
       <c r="A15" s="5">
@@ -3494,10 +3699,10 @@
         <v>DishName_203</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="E15" s="5" t="str">
         <f t="shared" si="1"/>
@@ -3513,17 +3718,17 @@
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
-      <c r="L15" s="8"/>
+      <c r="L15" s="10"/>
       <c r="M15" s="5"/>
       <c r="N15" s="5" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="O15" s="5">
         <v>100</v>
       </c>
       <c r="P15" s="5"/>
       <c r="Q15" s="5"/>
-      <c r="R15" s="12"/>
+      <c r="R15" s="8"/>
     </row>
     <row r="16" spans="1:18">
       <c r="A16" s="5">
@@ -3534,10 +3739,10 @@
         <v>DishName_204</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="E16" s="5" t="str">
         <f t="shared" si="1"/>
@@ -3553,17 +3758,17 @@
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
-      <c r="L16" s="8"/>
+      <c r="L16" s="10"/>
       <c r="M16" s="5"/>
       <c r="N16" s="5" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="O16" s="5">
         <v>100</v>
       </c>
       <c r="P16" s="5"/>
       <c r="Q16" s="5"/>
-      <c r="R16" s="12"/>
+      <c r="R16" s="8"/>
     </row>
     <row r="17" spans="1:18">
       <c r="A17" s="5">
@@ -3574,10 +3779,10 @@
         <v>DishName_205</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="E17" s="5" t="str">
         <f t="shared" si="1"/>
@@ -3595,17 +3800,17 @@
       <c r="K17" s="5">
         <v>1</v>
       </c>
-      <c r="L17" s="8"/>
+      <c r="L17" s="10"/>
       <c r="M17" s="5"/>
       <c r="N17" s="5" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="O17" s="5">
         <v>100</v>
       </c>
       <c r="P17" s="5"/>
       <c r="Q17" s="5"/>
-      <c r="R17" s="12"/>
+      <c r="R17" s="8"/>
     </row>
     <row r="18" spans="1:18">
       <c r="A18" s="5">
@@ -3617,7 +3822,7 @@
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="E18" s="5" t="str">
         <f t="shared" si="1"/>
@@ -3633,17 +3838,17 @@
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
-      <c r="L18" s="8"/>
+      <c r="L18" s="10"/>
       <c r="M18" s="5"/>
       <c r="N18" s="5" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="O18" s="5">
         <v>100</v>
       </c>
       <c r="P18" s="5"/>
       <c r="Q18" s="5"/>
-      <c r="R18" s="12"/>
+      <c r="R18" s="8"/>
     </row>
     <row r="19" spans="1:18">
       <c r="A19" s="5">
@@ -3655,7 +3860,7 @@
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="5" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="E19" s="5" t="str">
         <f t="shared" si="1"/>
@@ -3671,17 +3876,17 @@
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
-      <c r="L19" s="8"/>
+      <c r="L19" s="10"/>
       <c r="M19" s="5"/>
       <c r="N19" s="5" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="O19" s="5">
         <v>100</v>
       </c>
       <c r="P19" s="5"/>
       <c r="Q19" s="5"/>
-      <c r="R19" s="12"/>
+      <c r="R19" s="8"/>
     </row>
     <row r="20" ht="27" spans="1:18">
       <c r="A20" s="5">
@@ -3692,10 +3897,10 @@
         <v>DishName_208</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="E20" s="5" t="str">
         <f t="shared" si="1"/>
@@ -3711,19 +3916,19 @@
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
-      <c r="L20" s="8" t="s">
-        <v>98</v>
+      <c r="L20" s="10" t="s">
+        <v>111</v>
       </c>
       <c r="M20" s="5"/>
       <c r="N20" s="5" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="O20" s="5">
         <v>100</v>
       </c>
       <c r="P20" s="5"/>
       <c r="Q20" s="5"/>
-      <c r="R20" s="12"/>
+      <c r="R20" s="8"/>
     </row>
     <row r="21" ht="27" spans="1:18">
       <c r="A21" s="5">
@@ -3734,10 +3939,10 @@
         <v>DishName_209</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="E21" s="5" t="str">
         <f t="shared" si="1"/>
@@ -3757,19 +3962,19 @@
       <c r="K21" s="5">
         <v>2</v>
       </c>
-      <c r="L21" s="8" t="s">
-        <v>100</v>
+      <c r="L21" s="10" t="s">
+        <v>113</v>
       </c>
       <c r="M21" s="5"/>
       <c r="N21" s="5" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="O21" s="5">
         <v>100</v>
       </c>
       <c r="P21" s="5"/>
       <c r="Q21" s="5"/>
-      <c r="R21" s="12"/>
+      <c r="R21" s="8"/>
     </row>
     <row r="22" spans="1:18">
       <c r="A22" s="5">
@@ -3781,7 +3986,7 @@
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="5" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="E22" s="5" t="str">
         <f t="shared" si="1"/>
@@ -3797,17 +4002,17 @@
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>
-      <c r="L22" s="8"/>
+      <c r="L22" s="10"/>
       <c r="M22" s="5"/>
       <c r="N22" s="5" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="O22" s="5">
         <v>100</v>
       </c>
       <c r="P22" s="5"/>
       <c r="Q22" s="5"/>
-      <c r="R22" s="12"/>
+      <c r="R22" s="8"/>
     </row>
     <row r="23" spans="1:18">
       <c r="A23" s="5">
@@ -3819,7 +4024,7 @@
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="5" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="E23" s="5" t="str">
         <f t="shared" si="1"/>
@@ -3833,17 +4038,17 @@
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
       <c r="K23" s="5"/>
-      <c r="L23" s="8"/>
+      <c r="L23" s="10"/>
       <c r="M23" s="5"/>
       <c r="N23" s="5" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="O23" s="5">
         <v>100</v>
       </c>
       <c r="P23" s="5"/>
       <c r="Q23" s="5"/>
-      <c r="R23" s="12"/>
+      <c r="R23" s="8"/>
     </row>
     <row r="24" spans="1:18">
       <c r="A24" s="5">
@@ -3855,7 +4060,7 @@
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="5" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="E24" s="5" t="str">
         <f t="shared" si="1"/>
@@ -3869,17 +4074,17 @@
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
       <c r="K24" s="5"/>
-      <c r="L24" s="8"/>
+      <c r="L24" s="10"/>
       <c r="M24" s="5"/>
       <c r="N24" s="5" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="O24" s="5">
         <v>100</v>
       </c>
       <c r="P24" s="5"/>
       <c r="Q24" s="5"/>
-      <c r="R24" s="12"/>
+      <c r="R24" s="8"/>
     </row>
     <row r="25" spans="1:18">
       <c r="A25" s="5">
@@ -3891,7 +4096,7 @@
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="5" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="E25" s="5" t="str">
         <f t="shared" si="1"/>
@@ -3905,17 +4110,17 @@
       <c r="I25" s="5"/>
       <c r="J25" s="5"/>
       <c r="K25" s="5"/>
-      <c r="L25" s="8"/>
+      <c r="L25" s="10"/>
       <c r="M25" s="5"/>
       <c r="N25" s="5" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="O25" s="5">
         <v>100</v>
       </c>
       <c r="P25" s="5"/>
       <c r="Q25" s="5"/>
-      <c r="R25" s="12"/>
+      <c r="R25" s="8"/>
     </row>
     <row r="26" spans="1:18">
       <c r="A26" s="5">
@@ -3927,7 +4132,7 @@
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="5" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="E26" s="5" t="str">
         <f t="shared" si="1"/>
@@ -3943,17 +4148,17 @@
       <c r="K26" s="5">
         <v>1</v>
       </c>
-      <c r="L26" s="8"/>
+      <c r="L26" s="10"/>
       <c r="M26" s="5"/>
       <c r="N26" s="5" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="O26" s="5">
         <v>100</v>
       </c>
       <c r="P26" s="5"/>
       <c r="Q26" s="5"/>
-      <c r="R26" s="12"/>
+      <c r="R26" s="8"/>
     </row>
     <row r="27" spans="1:18">
       <c r="A27" s="5">
@@ -3965,7 +4170,7 @@
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="5" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="E27" s="5" t="str">
         <f t="shared" si="1"/>
@@ -3979,17 +4184,17 @@
       <c r="I27" s="5"/>
       <c r="J27" s="5"/>
       <c r="K27" s="5"/>
-      <c r="L27" s="8"/>
+      <c r="L27" s="10"/>
       <c r="M27" s="5"/>
       <c r="N27" s="5" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="O27" s="5">
         <v>100</v>
       </c>
       <c r="P27" s="5"/>
       <c r="Q27" s="5"/>
-      <c r="R27" s="12"/>
+      <c r="R27" s="8"/>
     </row>
     <row r="28" spans="1:18">
       <c r="A28" s="5">
@@ -4001,7 +4206,7 @@
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="5" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="E28" s="5" t="str">
         <f t="shared" si="1"/>
@@ -4021,20 +4226,20 @@
         <v>3.22748612183951</v>
       </c>
       <c r="J28" s="5" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="K28" s="5"/>
-      <c r="L28" s="8"/>
+      <c r="L28" s="10"/>
       <c r="M28" s="5"/>
       <c r="N28" s="5" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="O28" s="5">
         <v>100</v>
       </c>
       <c r="P28" s="5"/>
       <c r="Q28" s="5"/>
-      <c r="R28" s="12"/>
+      <c r="R28" s="8"/>
     </row>
     <row r="29" ht="27" spans="1:18">
       <c r="A29" s="5">
@@ -4046,7 +4251,7 @@
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="5" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="E29" s="5" t="str">
         <f t="shared" si="1"/>
@@ -4062,19 +4267,19 @@
       <c r="I29" s="5"/>
       <c r="J29" s="5"/>
       <c r="K29" s="5"/>
-      <c r="L29" s="8" t="s">
-        <v>103</v>
+      <c r="L29" s="10" t="s">
+        <v>116</v>
       </c>
       <c r="M29" s="5"/>
       <c r="N29" s="5" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="O29" s="5">
         <v>100</v>
       </c>
       <c r="P29" s="5"/>
       <c r="Q29" s="5"/>
-      <c r="R29" s="12"/>
+      <c r="R29" s="8"/>
     </row>
     <row r="30" ht="27" spans="1:18">
       <c r="A30" s="5">
@@ -4086,7 +4291,7 @@
       </c>
       <c r="C30" s="5"/>
       <c r="D30" s="5" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="E30" s="5" t="str">
         <f t="shared" si="1"/>
@@ -4106,19 +4311,19 @@
       <c r="K30" s="5">
         <v>0</v>
       </c>
-      <c r="L30" s="8" t="s">
-        <v>104</v>
+      <c r="L30" s="10" t="s">
+        <v>117</v>
       </c>
       <c r="M30" s="5"/>
       <c r="N30" s="5" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="O30" s="5">
         <v>100</v>
       </c>
       <c r="P30" s="5"/>
       <c r="Q30" s="5"/>
-      <c r="R30" s="12"/>
+      <c r="R30" s="8"/>
     </row>
     <row r="31" spans="1:18">
       <c r="A31" s="5">
@@ -4130,7 +4335,7 @@
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="5" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="E31" s="5" t="str">
         <f t="shared" si="1"/>
@@ -4144,17 +4349,17 @@
       <c r="I31" s="5"/>
       <c r="J31" s="5"/>
       <c r="K31" s="5"/>
-      <c r="L31" s="8"/>
+      <c r="L31" s="10"/>
       <c r="M31" s="5"/>
       <c r="N31" s="5" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="O31" s="5">
         <v>100</v>
       </c>
       <c r="P31" s="5"/>
       <c r="Q31" s="5"/>
-      <c r="R31" s="12"/>
+      <c r="R31" s="8"/>
     </row>
     <row r="32" spans="1:18">
       <c r="A32" s="5">
@@ -4166,7 +4371,7 @@
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="5" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="E32" s="5" t="str">
         <f t="shared" si="1"/>
@@ -4180,17 +4385,17 @@
       <c r="I32" s="5"/>
       <c r="J32" s="5"/>
       <c r="K32" s="5"/>
-      <c r="L32" s="8"/>
+      <c r="L32" s="10"/>
       <c r="M32" s="5"/>
       <c r="N32" s="5" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="O32" s="5">
         <v>100</v>
       </c>
       <c r="P32" s="5"/>
       <c r="Q32" s="5"/>
-      <c r="R32" s="12"/>
+      <c r="R32" s="8"/>
     </row>
     <row r="33" spans="1:18">
       <c r="A33" s="5">
@@ -4202,7 +4407,7 @@
       </c>
       <c r="C33" s="5"/>
       <c r="D33" s="5" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="E33" s="5" t="str">
         <f t="shared" si="1"/>
@@ -4216,17 +4421,17 @@
       <c r="I33" s="5"/>
       <c r="J33" s="5"/>
       <c r="K33" s="5"/>
-      <c r="L33" s="8"/>
+      <c r="L33" s="10"/>
       <c r="M33" s="5"/>
       <c r="N33" s="5" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="O33" s="5">
         <v>100</v>
       </c>
       <c r="P33" s="5"/>
       <c r="Q33" s="5"/>
-      <c r="R33" s="12"/>
+      <c r="R33" s="8"/>
     </row>
     <row r="34" spans="1:18">
       <c r="A34" s="5">
@@ -4238,7 +4443,7 @@
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="5" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="E34" s="5" t="str">
         <f t="shared" si="1"/>
@@ -4252,17 +4457,17 @@
       <c r="I34" s="5"/>
       <c r="J34" s="5"/>
       <c r="K34" s="5"/>
-      <c r="L34" s="8"/>
+      <c r="L34" s="10"/>
       <c r="M34" s="5"/>
       <c r="N34" s="5" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="O34" s="5">
         <v>100</v>
       </c>
       <c r="P34" s="5"/>
       <c r="Q34" s="5"/>
-      <c r="R34" s="12"/>
+      <c r="R34" s="8"/>
     </row>
     <row r="35" spans="1:18">
       <c r="A35" s="5">
@@ -4274,7 +4479,7 @@
       </c>
       <c r="C35" s="5"/>
       <c r="D35" s="5" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="E35" s="5" t="str">
         <f t="shared" si="1"/>
@@ -4290,17 +4495,17 @@
       <c r="K35" s="5">
         <v>1</v>
       </c>
-      <c r="L35" s="8"/>
+      <c r="L35" s="10"/>
       <c r="M35" s="5"/>
       <c r="N35" s="5" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="O35" s="5">
         <v>100</v>
       </c>
       <c r="P35" s="5"/>
       <c r="Q35" s="5"/>
-      <c r="R35" s="12"/>
+      <c r="R35" s="8"/>
     </row>
     <row r="36" spans="1:18">
       <c r="A36" s="5">
@@ -4312,7 +4517,7 @@
       </c>
       <c r="C36" s="5"/>
       <c r="D36" s="5" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="E36" s="5" t="str">
         <f t="shared" si="1"/>
@@ -4326,17 +4531,17 @@
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
       <c r="K36" s="5"/>
-      <c r="L36" s="8"/>
+      <c r="L36" s="10"/>
       <c r="M36" s="5"/>
       <c r="N36" s="5" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="O36" s="5">
         <v>100</v>
       </c>
       <c r="P36" s="5"/>
       <c r="Q36" s="5"/>
-      <c r="R36" s="12"/>
+      <c r="R36" s="8"/>
     </row>
     <row r="37" spans="1:18">
       <c r="A37" s="5">
@@ -4347,10 +4552,10 @@
         <v>DishName_407</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="E37" s="5" t="str">
         <f t="shared" si="1"/>
@@ -4368,17 +4573,17 @@
       <c r="I37" s="5"/>
       <c r="J37" s="5"/>
       <c r="K37" s="5"/>
-      <c r="L37" s="8"/>
+      <c r="L37" s="10"/>
       <c r="M37" s="5"/>
       <c r="N37" s="5" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="O37" s="5">
         <v>100</v>
       </c>
       <c r="P37" s="5"/>
       <c r="Q37" s="5"/>
-      <c r="R37" s="12"/>
+      <c r="R37" s="8"/>
     </row>
     <row r="38" spans="1:18">
       <c r="A38" s="5">
@@ -4389,10 +4594,10 @@
         <v>DishName_408</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="E38" s="5" t="str">
         <f t="shared" si="1"/>
@@ -4406,19 +4611,19 @@
       <c r="I38" s="5"/>
       <c r="J38" s="5"/>
       <c r="K38" s="5"/>
-      <c r="L38" s="8" t="s">
-        <v>108</v>
+      <c r="L38" s="10" t="s">
+        <v>121</v>
       </c>
       <c r="M38" s="5"/>
       <c r="N38" s="5" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="O38" s="5">
         <v>100</v>
       </c>
       <c r="P38" s="5"/>
       <c r="Q38" s="5"/>
-      <c r="R38" s="12"/>
+      <c r="R38" s="8"/>
     </row>
     <row r="39" ht="27" spans="1:18">
       <c r="A39" s="5">
@@ -4429,10 +4634,10 @@
         <v>DishName_409</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="E39" s="5" t="str">
         <f t="shared" si="1"/>
@@ -4452,19 +4657,19 @@
       <c r="K39" s="5">
         <v>1</v>
       </c>
-      <c r="L39" s="8" t="s">
-        <v>110</v>
+      <c r="L39" s="10" t="s">
+        <v>123</v>
       </c>
       <c r="M39" s="5"/>
       <c r="N39" s="5" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="O39" s="5">
         <v>100</v>
       </c>
       <c r="P39" s="5"/>
       <c r="Q39" s="5"/>
-      <c r="R39" s="12"/>
+      <c r="R39" s="8"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2">
@@ -6554,7 +6759,7 @@
   <sheetPr/>
   <dimension ref="A2:R44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
@@ -6581,31 +6786,31 @@
   <sheetData>
     <row r="2" spans="1:18">
       <c r="A2" s="16" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="C2" s="16"/>
       <c r="D2" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="14"/>
+        <v>126</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="9"/>
       <c r="O2" s="5" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="P2" s="7"/>
       <c r="Q2" s="7"/>
@@ -6613,42 +6818,42 @@
     </row>
     <row r="3" s="15" customFormat="1" spans="1:18">
       <c r="A3" s="18" t="s">
-        <v>64</v>
+        <v>130</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
       <c r="D3" s="6" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>7</v>
       </c>
       <c r="H3" s="18" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="J3" s="29" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="K3" s="29" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="L3" s="29" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="O3" s="6"/>
       <c r="P3" s="6"/>
@@ -6677,7 +6882,7 @@
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="16" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="I4" s="4">
         <v>10</v>
@@ -6696,7 +6901,7 @@
       </c>
       <c r="N4" s="4"/>
       <c r="O4" s="30" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="P4" s="7"/>
       <c r="Q4" s="7"/>
@@ -6725,7 +6930,7 @@
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="16" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="I5" s="4">
         <v>10</v>
@@ -6817,7 +7022,7 @@
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="16" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="I7" s="4">
         <v>11</v>
@@ -6908,7 +7113,7 @@
       </c>
       <c r="G9" s="22"/>
       <c r="H9" s="20" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="I9" s="22">
         <v>12</v>
@@ -6927,7 +7132,7 @@
       </c>
       <c r="N9" s="22"/>
       <c r="O9" s="34" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="P9" s="7"/>
       <c r="Q9" s="7"/>
@@ -7002,7 +7207,7 @@
       </c>
       <c r="G11" s="22"/>
       <c r="H11" s="20" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="I11" s="22">
         <v>13</v>
@@ -7156,7 +7361,7 @@
       </c>
       <c r="N14" s="26"/>
       <c r="O14" s="38" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="P14" s="7"/>
       <c r="Q14" s="7"/>
@@ -7612,7 +7817,7 @@
       </c>
       <c r="N24" s="28"/>
       <c r="O24" s="42" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="P24" s="7"/>
       <c r="Q24" s="7"/>
@@ -8493,18 +8698,18 @@
       <c r="R43" s="7"/>
     </row>
     <row r="44" spans="1:18">
-      <c r="A44" s="14"/>
+      <c r="A44" s="9"/>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
       <c r="F44" s="5"/>
       <c r="G44" s="5"/>
-      <c r="H44" s="14"/>
+      <c r="H44" s="9"/>
       <c r="I44" s="5"/>
-      <c r="J44" s="12"/>
-      <c r="K44" s="12"/>
-      <c r="L44" s="12"/>
+      <c r="J44" s="8"/>
+      <c r="K44" s="8"/>
+      <c r="L44" s="8"/>
       <c r="N44" s="5"/>
       <c r="P44" s="7"/>
       <c r="Q44" s="7"/>
@@ -9861,7 +10066,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -9889,54 +10094,54 @@
     </row>
     <row r="2" customFormat="1" spans="1:9">
       <c r="A2" s="5" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="E2" s="14"/>
-      <c r="F2" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="G2" s="14"/>
-      <c r="H2" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="I2" s="14"/>
+        <v>151</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="E2" s="9"/>
+      <c r="F2" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="G2" s="9"/>
+      <c r="H2" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="I2" s="9"/>
     </row>
     <row r="3" s="15" customFormat="1" spans="1:9">
       <c r="A3" s="6" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -9978,13 +10183,13 @@
       <c r="C5" s="5">
         <v>1000</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="10">
         <v>3</v>
       </c>
       <c r="E5" s="5">
         <v>1000</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="10">
         <v>0</v>
       </c>
       <c r="G5" s="5">
@@ -10008,13 +10213,13 @@
         <f>C5+1000</f>
         <v>2000</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="10">
         <v>3</v>
       </c>
       <c r="E6" s="5">
         <v>0</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="10">
         <v>3</v>
       </c>
       <c r="G6" s="5">
@@ -10038,13 +10243,13 @@
         <f t="shared" ref="C7:C19" si="0">C6+1000</f>
         <v>3000</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="10">
         <v>3</v>
       </c>
       <c r="E7" s="5">
         <v>1000</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="10">
         <v>3</v>
       </c>
       <c r="G7" s="5">
@@ -11054,66 +11259,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="10"/>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
+      <c r="A1" s="12"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="4" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
+      <c r="F2" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="6" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
@@ -11124,7 +11329,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5">
@@ -11157,7 +11362,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5">
@@ -11182,7 +11387,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5">
@@ -11207,7 +11412,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5">
@@ -11232,7 +11437,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5">
@@ -11257,7 +11462,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5">
@@ -11282,7 +11487,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5">
@@ -11307,7 +11512,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5">
@@ -11332,7 +11537,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5">
@@ -11357,7 +11562,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5">
@@ -11382,7 +11587,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="5">
@@ -11407,7 +11612,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="5">
@@ -11432,7 +11637,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="5">
@@ -11457,7 +11662,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="5">
@@ -11482,7 +11687,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5">
@@ -11507,7 +11712,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="5">
@@ -11532,7 +11737,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="5">
@@ -11557,7 +11762,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="5">
@@ -11582,7 +11787,7 @@
         <v>19</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="5">
@@ -11607,7 +11812,7 @@
         <v>20</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="5">
@@ -11632,7 +11837,7 @@
         <v>21</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="5">
@@ -11657,7 +11862,7 @@
         <v>22</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="5">
@@ -11682,7 +11887,7 @@
         <v>23</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="5">
@@ -11707,7 +11912,7 @@
         <v>24</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="5">
@@ -11732,7 +11937,7 @@
         <v>25</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="5">
@@ -11757,7 +11962,7 @@
         <v>26</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="5">
@@ -11782,7 +11987,7 @@
         <v>27</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="C30" s="5"/>
       <c r="D30" s="5">
@@ -11807,7 +12012,7 @@
         <v>28</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="5">
@@ -11832,7 +12037,7 @@
         <v>29</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>186</v>
+        <v>199</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="5">
@@ -11857,7 +12062,7 @@
         <v>30</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="C33" s="5"/>
       <c r="D33" s="5">
@@ -15140,7 +15345,7 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="A1" sqref="$A1:$XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -15165,15 +15370,15 @@
       <c r="H1" s="7"/>
       <c r="I1" s="7"/>
       <c r="J1" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="K1" s="9"/>
+        <v>201</v>
+      </c>
+      <c r="K1" s="11"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="5" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
@@ -15182,36 +15387,36 @@
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
       <c r="J2" s="5"/>
-      <c r="K2" s="9"/>
+      <c r="K2" s="11"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="6" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>190</v>
+        <v>203</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>192</v>
+        <v>205</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>193</v>
+        <v>206</v>
       </c>
       <c r="K3" s="6"/>
     </row>
@@ -15220,10 +15425,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="D4" s="5">
         <v>1</v>
@@ -15247,10 +15452,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>196</v>
+        <v>209</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>197</v>
+        <v>210</v>
       </c>
       <c r="D5" s="5">
         <v>30</v>
@@ -15274,10 +15479,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>198</v>
+        <v>211</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>199</v>
+        <v>212</v>
       </c>
       <c r="D6" s="5">
         <v>120</v>
@@ -15303,10 +15508,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="D7" s="5">
         <v>480</v>
@@ -15332,10 +15537,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="D8" s="5">
         <v>720</v>
@@ -15363,10 +15568,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="D9" s="5">
         <v>1440</v>
@@ -15394,10 +15599,10 @@
         <v>7</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="D10" s="5">
         <v>0</v>
@@ -15630,577 +15835,791 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M33"/>
+  <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="3" max="3" width="14" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.25" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5" customWidth="1"/>
-    <col min="6" max="6" width="16.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="6.125" customWidth="1"/>
+    <col min="2" max="2" width="11.75" customWidth="1"/>
+    <col min="3" max="3" width="33.875" customWidth="1"/>
+    <col min="4" max="4" width="12.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.625" customWidth="1"/>
+    <col min="7" max="7" width="11.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="A1" s="5"/>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
-      <c r="G1" s="7"/>
+      <c r="G1" s="5"/>
       <c r="H1" s="7"/>
       <c r="I1" s="7"/>
       <c r="J1" s="7"/>
       <c r="K1" s="7"/>
       <c r="L1" s="7"/>
       <c r="M1" s="7"/>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="7"/>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="7"/>
+      <c r="F2" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="G2" s="9"/>
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2" s="7"/>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="6" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D3" s="6"/>
+        <v>80</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6" t="s">
+        <v>81</v>
+      </c>
       <c r="E3" s="6" t="s">
-        <v>34</v>
+        <v>165</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="G3" s="6"/>
+        <v>222</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>223</v>
+      </c>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
       <c r="M3" s="6"/>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="7"/>
+      <c r="N3" s="6"/>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="5">
+        <v>1</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5">
+        <v>100</v>
+      </c>
+      <c r="F4" s="5">
+        <v>100</v>
+      </c>
+      <c r="G4" s="5">
+        <v>10000</v>
+      </c>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
       <c r="L4" s="7"/>
       <c r="M4" s="7"/>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="7"/>
+      <c r="N4" s="7"/>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="5">
+        <v>2</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="10">
+        <v>80</v>
+      </c>
+      <c r="F5" s="5">
+        <v>12</v>
+      </c>
+      <c r="G5" s="5">
+        <v>60</v>
+      </c>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="7"/>
+      <c r="N5" s="7"/>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="5">
+        <v>3</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="D6" s="5">
+        <v>4</v>
+      </c>
+      <c r="E6" s="10">
+        <v>10</v>
+      </c>
+      <c r="F6" s="5">
+        <v>10</v>
+      </c>
+      <c r="G6" s="5">
+        <v>40</v>
+      </c>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
       <c r="K6" s="7"/>
       <c r="L6" s="7"/>
       <c r="M6" s="7"/>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="7"/>
+      <c r="N6" s="7"/>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="5">
+        <v>4</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="D7" s="5">
+        <v>8</v>
+      </c>
+      <c r="E7" s="10">
+        <v>10</v>
+      </c>
+      <c r="F7" s="5">
+        <v>8</v>
+      </c>
+      <c r="G7" s="5">
+        <v>30</v>
+      </c>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
       <c r="L7" s="7"/>
       <c r="M7" s="7"/>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="7"/>
+      <c r="N7" s="7"/>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="5">
+        <v>5</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="D8" s="5">
+        <v>12</v>
+      </c>
+      <c r="E8" s="10">
+        <v>10</v>
+      </c>
+      <c r="F8" s="5">
+        <v>5</v>
+      </c>
+      <c r="G8" s="5">
+        <v>20</v>
+      </c>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
       <c r="M8" s="7"/>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="7"/>
+      <c r="N8" s="7"/>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="5">
+        <v>6</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="D9" s="5">
+        <v>6</v>
+      </c>
+      <c r="E9" s="5">
+        <v>15</v>
+      </c>
+      <c r="F9" s="5">
+        <v>10</v>
+      </c>
+      <c r="G9" s="5">
+        <v>40</v>
+      </c>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
       <c r="M9" s="7"/>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="7"/>
+      <c r="N9" s="7"/>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="5">
+        <v>7</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="D10" s="5">
+        <v>10</v>
+      </c>
+      <c r="E10" s="5">
+        <v>15</v>
+      </c>
+      <c r="F10" s="5">
+        <v>6</v>
+      </c>
+      <c r="G10" s="5">
+        <v>20</v>
+      </c>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="7"/>
+      <c r="N10" s="7"/>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="5">
+        <v>8</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="D11" s="5">
+        <v>8</v>
+      </c>
+      <c r="E11" s="5">
+        <v>10</v>
+      </c>
+      <c r="F11" s="5">
+        <v>10</v>
+      </c>
+      <c r="G11" s="5">
+        <v>25</v>
+      </c>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="7"/>
+      <c r="N11" s="7"/>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="5">
+        <v>9</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="D12" s="5">
+        <v>5</v>
+      </c>
+      <c r="E12" s="5">
+        <v>20</v>
+      </c>
+      <c r="F12" s="5">
+        <v>10</v>
+      </c>
+      <c r="G12" s="5">
+        <v>60</v>
+      </c>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12" s="7"/>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
-      <c r="G13" s="7"/>
+      <c r="G13" s="5"/>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="N13" s="7"/>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
-      <c r="G14" s="7"/>
+      <c r="G14" s="5"/>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
       <c r="M14" s="7"/>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14" s="7"/>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
-      <c r="G15" s="7"/>
+      <c r="G15" s="5"/>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
       <c r="M15" s="7"/>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15" s="7"/>
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
-      <c r="G16" s="7"/>
+      <c r="G16" s="5"/>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
       <c r="L16" s="7"/>
       <c r="M16" s="7"/>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16" s="7"/>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
-      <c r="G17" s="7"/>
+      <c r="G17" s="5"/>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
       <c r="L17" s="7"/>
       <c r="M17" s="7"/>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17" s="7"/>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
-      <c r="G18" s="7"/>
+      <c r="G18" s="5"/>
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
       <c r="K18" s="7"/>
       <c r="L18" s="7"/>
       <c r="M18" s="7"/>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18" s="7"/>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
-      <c r="G19" s="7"/>
+      <c r="G19" s="5"/>
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
       <c r="K19" s="7"/>
       <c r="L19" s="7"/>
       <c r="M19" s="7"/>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="N19" s="7"/>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
-      <c r="G20" s="7"/>
+      <c r="G20" s="5"/>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
       <c r="K20" s="7"/>
       <c r="L20" s="7"/>
       <c r="M20" s="7"/>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="N20" s="7"/>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
-      <c r="G21" s="7"/>
+      <c r="G21" s="5"/>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
       <c r="J21" s="7"/>
       <c r="K21" s="7"/>
       <c r="L21" s="7"/>
       <c r="M21" s="7"/>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="7"/>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
-      <c r="G22" s="7"/>
+      <c r="G22" s="5"/>
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
       <c r="K22" s="7"/>
       <c r="L22" s="7"/>
       <c r="M22" s="7"/>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22" s="7"/>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
-      <c r="G23" s="7"/>
+      <c r="G23" s="5"/>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
       <c r="K23" s="7"/>
       <c r="L23" s="7"/>
       <c r="M23" s="7"/>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="N23" s="7"/>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
-      <c r="G24" s="7"/>
+      <c r="G24" s="5"/>
       <c r="H24" s="7"/>
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
       <c r="K24" s="7"/>
       <c r="L24" s="7"/>
       <c r="M24" s="7"/>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="N24" s="7"/>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
-      <c r="G25" s="7"/>
+      <c r="G25" s="5"/>
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
       <c r="J25" s="7"/>
       <c r="K25" s="7"/>
       <c r="L25" s="7"/>
       <c r="M25" s="7"/>
-    </row>
-    <row r="26" spans="1:13">
+      <c r="N25" s="7"/>
+    </row>
+    <row r="26" spans="1:14">
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
-      <c r="G26" s="7"/>
+      <c r="G26" s="5"/>
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
       <c r="J26" s="7"/>
       <c r="K26" s="7"/>
       <c r="L26" s="7"/>
       <c r="M26" s="7"/>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="7"/>
+    </row>
+    <row r="27" spans="1:14">
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
-      <c r="G27" s="7"/>
+      <c r="G27" s="5"/>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
       <c r="J27" s="7"/>
       <c r="K27" s="7"/>
       <c r="L27" s="7"/>
       <c r="M27" s="7"/>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="7"/>
+    </row>
+    <row r="28" spans="1:14">
       <c r="A28" s="5"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
-      <c r="G28" s="7"/>
+      <c r="G28" s="5"/>
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
       <c r="J28" s="7"/>
       <c r="K28" s="7"/>
       <c r="L28" s="7"/>
       <c r="M28" s="7"/>
-    </row>
-    <row r="29" spans="1:13">
+      <c r="N28" s="7"/>
+    </row>
+    <row r="29" spans="1:14">
       <c r="A29" s="5"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
-      <c r="G29" s="7"/>
+      <c r="G29" s="5"/>
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
       <c r="J29" s="7"/>
       <c r="K29" s="7"/>
       <c r="L29" s="7"/>
       <c r="M29" s="7"/>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="7"/>
+    </row>
+    <row r="30" spans="1:14">
       <c r="A30" s="5"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
-      <c r="G30" s="7"/>
+      <c r="G30" s="5"/>
       <c r="H30" s="7"/>
       <c r="I30" s="7"/>
       <c r="J30" s="7"/>
       <c r="K30" s="7"/>
       <c r="L30" s="7"/>
       <c r="M30" s="7"/>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="7"/>
+    </row>
+    <row r="31" spans="1:14">
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
-      <c r="G31" s="7"/>
+      <c r="G31" s="5"/>
       <c r="H31" s="7"/>
       <c r="I31" s="7"/>
       <c r="J31" s="7"/>
       <c r="K31" s="7"/>
       <c r="L31" s="7"/>
       <c r="M31" s="7"/>
-    </row>
-    <row r="32" spans="1:13">
-      <c r="A32" s="5"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="7"/>
-      <c r="J32" s="7"/>
-      <c r="K32" s="7"/>
-      <c r="L32" s="7"/>
-      <c r="M32" s="7"/>
-    </row>
-    <row r="33" spans="1:13">
-      <c r="A33" s="5"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="7"/>
-      <c r="J33" s="7"/>
-      <c r="K33" s="7"/>
-      <c r="L33" s="7"/>
-      <c r="M33" s="7"/>
+      <c r="N31" s="7"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:O3">
-    <cfRule type="cellIs" dxfId="4" priority="13" operator="equal">
-      <formula>"blue"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="14" operator="equal">
-      <formula>"green"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="15" operator="equal">
-      <formula>"white"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="$A1:$XFD3">
-    <cfRule type="expression" dxfId="0" priority="9">
-      <formula>#REF!="blue"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="10">
-      <formula>#REF!="green"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="11">
-      <formula>#REF!="purple"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="12">
-      <formula>#REF!="orange"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A4:D4 A5:B12 C5:D5 E4:M12 A13:M33">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>#REF!="blue"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>#REF!="green"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="3">
-      <formula>#REF!="purple"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="4">
-      <formula>#REF!="orange"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="5">
-      <formula>#REF!="orange"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
-      <formula>"blue"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
-      <formula>"green"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="8" operator="equal">
-      <formula>"white"</formula>
+  <mergeCells count="1">
+    <mergeCell ref="F2:G2"/>
+  </mergeCells>
+  <conditionalFormatting sqref="$A1:$XFD1 A2:F2 H2:XFD2 $A3:$XFD3">
+    <cfRule type="expression" dxfId="0" priority="49">
+      <formula>#REF!="blue"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="50">
+      <formula>#REF!="green"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="51">
+      <formula>#REF!="purple"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="52">
+      <formula>#REF!="orange"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:P1 A2:F2 H2:P2 A3:P3">
+    <cfRule type="cellIs" dxfId="4" priority="53" operator="equal">
+      <formula>"blue"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="54" operator="equal">
+      <formula>"green"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="55" operator="equal">
+      <formula>"white"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4:B14 C11:C12 F11:N14 C4:E5 F4:N6 C6 C9 F9:N9 C14 A15:N31">
+    <cfRule type="expression" dxfId="0" priority="41">
+      <formula>#REF!="blue"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="42">
+      <formula>#REF!="green"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="43">
+      <formula>#REF!="purple"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="44">
+      <formula>#REF!="orange"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="45">
+      <formula>#REF!="orange"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="46" operator="equal">
+      <formula>"blue"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="47" operator="equal">
+      <formula>"green"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="48" operator="equal">
+      <formula>"white"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C7 F7:N7">
+    <cfRule type="expression" dxfId="0" priority="33">
+      <formula>#REF!="blue"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="34">
+      <formula>#REF!="green"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="35">
+      <formula>#REF!="purple"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="36">
+      <formula>#REF!="orange"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="37">
+      <formula>#REF!="orange"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="38" operator="equal">
+      <formula>"blue"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="39" operator="equal">
+      <formula>"green"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="40" operator="equal">
+      <formula>"white"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C8 F8:N8">
+    <cfRule type="cellIs" priority="32" operator="equal">
+      <formula>"white"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="31" operator="equal">
+      <formula>"green"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="30" operator="equal">
+      <formula>"blue"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="29">
+      <formula>#REF!="orange"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="28">
+      <formula>#REF!="orange"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="27">
+      <formula>#REF!="purple"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="26">
+      <formula>#REF!="green"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="25">
+      <formula>#REF!="blue"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C10 F10:N10">
+    <cfRule type="cellIs" priority="24" operator="equal">
+      <formula>"white"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="23" operator="equal">
+      <formula>"green"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="22" operator="equal">
+      <formula>"blue"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="21">
+      <formula>#REF!="orange"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="20">
+      <formula>#REF!="orange"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="19">
+      <formula>#REF!="purple"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="18">
+      <formula>#REF!="green"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="17">
+      <formula>#REF!="blue"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16242,15 +16661,15 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="4" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4" t="s">
-        <v>209</v>
+        <v>242</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>210</v>
+        <v>243</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
@@ -16261,21 +16680,21 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="6" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
       <c r="F3" s="6" t="s">
-        <v>211</v>
+        <v>244</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>212</v>
+        <v>245</v>
       </c>
       <c r="H3" s="6"/>
     </row>
@@ -16284,22 +16703,22 @@
         <v>1</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>213</v>
+        <v>246</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>214</v>
+        <v>247</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>215</v>
+        <v>248</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>216</v>
+        <v>249</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>217</v>
+        <v>250</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>218</v>
+        <v>251</v>
       </c>
       <c r="H4" s="5">
         <f t="shared" ref="H4:H21" si="0">LEN(F4)-LEN(SUBSTITUTE(F4," ",""))+1</f>
@@ -16311,22 +16730,22 @@
         <v>2</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>219</v>
+        <v>252</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>220</v>
+        <v>253</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>221</v>
+        <v>254</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>222</v>
+        <v>255</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>223</v>
+        <v>256</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>224</v>
+        <v>257</v>
       </c>
       <c r="H5" s="5">
         <f t="shared" si="0"/>
@@ -16338,22 +16757,22 @@
         <v>3</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>225</v>
+        <v>258</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>226</v>
+        <v>259</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>227</v>
+        <v>260</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>228</v>
+        <v>261</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>229</v>
+        <v>262</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>230</v>
+        <v>263</v>
       </c>
       <c r="H6" s="5">
         <f t="shared" si="0"/>
@@ -16365,22 +16784,22 @@
         <v>4</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>231</v>
+        <v>264</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>232</v>
+        <v>265</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>233</v>
+        <v>266</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>234</v>
+        <v>267</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>229</v>
+        <v>262</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>235</v>
+        <v>268</v>
       </c>
       <c r="H7" s="5">
         <f t="shared" si="0"/>
@@ -16392,22 +16811,22 @@
         <v>5</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>236</v>
+        <v>269</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>237</v>
+        <v>270</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>238</v>
+        <v>271</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>239</v>
+        <v>272</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>229</v>
+        <v>262</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>235</v>
+        <v>268</v>
       </c>
       <c r="H8" s="5">
         <f t="shared" si="0"/>
@@ -16419,22 +16838,22 @@
         <v>6</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>240</v>
+        <v>273</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>241</v>
+        <v>274</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>242</v>
+        <v>275</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>243</v>
+        <v>276</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>229</v>
+        <v>262</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>230</v>
+        <v>263</v>
       </c>
       <c r="H9" s="5">
         <f t="shared" si="0"/>
@@ -16446,22 +16865,22 @@
         <v>7</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>244</v>
+        <v>277</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>245</v>
+        <v>278</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>246</v>
+        <v>279</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>247</v>
+        <v>280</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>248</v>
+        <v>281</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>249</v>
+        <v>282</v>
       </c>
       <c r="H10" s="5">
         <f t="shared" si="0"/>
@@ -16473,22 +16892,22 @@
         <v>8</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>250</v>
+        <v>283</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>251</v>
+        <v>284</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>252</v>
+        <v>285</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>253</v>
+        <v>286</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>254</v>
+        <v>287</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>255</v>
+        <v>288</v>
       </c>
       <c r="H11" s="5">
         <f t="shared" si="0"/>
@@ -16500,22 +16919,22 @@
         <v>9</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>256</v>
+        <v>289</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>257</v>
+        <v>290</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>258</v>
+        <v>291</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>259</v>
+        <v>292</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>260</v>
+        <v>293</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>261</v>
+        <v>294</v>
       </c>
       <c r="H12" s="5">
         <f t="shared" si="0"/>
@@ -16527,22 +16946,22 @@
         <v>10</v>
       </c>
       <c r="B13" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="F13" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>229</v>
-      </c>
       <c r="G13" s="5" t="s">
-        <v>266</v>
+        <v>299</v>
       </c>
       <c r="H13" s="5">
         <f t="shared" si="0"/>
@@ -16554,22 +16973,22 @@
         <v>11</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>267</v>
+        <v>300</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>268</v>
+        <v>301</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>269</v>
+        <v>302</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>270</v>
+        <v>303</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>271</v>
+        <v>304</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>272</v>
+        <v>305</v>
       </c>
       <c r="H14" s="5">
         <f t="shared" si="0"/>
@@ -16581,22 +17000,22 @@
         <v>12</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>273</v>
+        <v>306</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>274</v>
+        <v>307</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>275</v>
+        <v>308</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>276</v>
+        <v>309</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>277</v>
+        <v>310</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>278</v>
+        <v>311</v>
       </c>
       <c r="H15" s="5">
         <f t="shared" si="0"/>
@@ -16608,22 +17027,22 @@
         <v>13</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>279</v>
+        <v>312</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>280</v>
+        <v>313</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>281</v>
+        <v>314</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>282</v>
+        <v>315</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>271</v>
+        <v>304</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>278</v>
+        <v>311</v>
       </c>
       <c r="H16" s="5">
         <f t="shared" si="0"/>
@@ -16635,22 +17054,22 @@
         <v>14</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>283</v>
+        <v>316</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>284</v>
+        <v>317</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>285</v>
+        <v>318</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>286</v>
+        <v>319</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>217</v>
+        <v>250</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>287</v>
+        <v>320</v>
       </c>
       <c r="H17" s="5">
         <f t="shared" si="0"/>
@@ -16662,16 +17081,16 @@
         <v>15</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>288</v>
+        <v>321</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>289</v>
+        <v>322</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>290</v>
+        <v>323</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>291</v>
+        <v>324</v>
       </c>
       <c r="F18" s="5">
         <v>20</v>
@@ -16689,22 +17108,22 @@
         <v>16</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>292</v>
+        <v>325</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>293</v>
+        <v>326</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>294</v>
+        <v>327</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>247</v>
+        <v>280</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>295</v>
+        <v>328</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>296</v>
+        <v>329</v>
       </c>
       <c r="H19" s="5">
         <f t="shared" si="0"/>
@@ -16716,22 +17135,22 @@
         <v>17</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>297</v>
+        <v>330</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>298</v>
+        <v>331</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>299</v>
+        <v>332</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>300</v>
+        <v>333</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>301</v>
+        <v>334</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>302</v>
+        <v>335</v>
       </c>
       <c r="H20" s="5">
         <f t="shared" si="0"/>
@@ -16743,10 +17162,10 @@
         <v>18</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>303</v>
+        <v>336</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>304</v>
+        <v>337</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>

--- a/Doc/GameData.xlsx
+++ b/Doc/GameData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="621" activeTab="2"/>
+    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="621" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="1" r:id="rId1"/>
@@ -123,6 +123,28 @@
     <author>wanhaofu</author>
   </authors>
   <commentList>
+    <comment ref="D4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>wanhaofu:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+自己不算</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="E5" authorId="0">
       <text>
         <r>
@@ -172,7 +194,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="344">
   <si>
     <t>分类</t>
   </si>
@@ -370,6 +392,15 @@
   </si>
   <si>
     <t>限时任务时间（分钟）</t>
+  </si>
+  <si>
+    <t>initBox</t>
+  </si>
+  <si>
+    <t>初始宝箱顺序</t>
+  </si>
+  <si>
+    <t>1 1 2 1 3 1 2 4 2 5 3 6</t>
   </si>
   <si>
     <t>名称</t>
@@ -928,7 +959,7 @@
     <t>一次性钻石</t>
   </si>
   <si>
-    <t>10 50 100</t>
+    <t>10 30 60</t>
   </si>
   <si>
     <t>200 1000 2000</t>
@@ -958,57 +989,60 @@
     <t>Ach_Des003</t>
   </si>
   <si>
-    <t>累计制作XX个面包</t>
-  </si>
-  <si>
-    <t>顾客移动速度增加</t>
+    <t>累计卖出XX个面包</t>
+  </si>
+  <si>
+    <t>售价提高</t>
   </si>
   <si>
     <t>500 2000 5000 10000</t>
   </si>
   <si>
+    <t>4 6 8 10</t>
+  </si>
+  <si>
+    <t>Ach_Name004</t>
+  </si>
+  <si>
+    <t>Ach_Des004</t>
+  </si>
+  <si>
+    <t>累计卖出XX杯果汁</t>
+  </si>
+  <si>
+    <t>制作速度提高</t>
+  </si>
+  <si>
+    <t>Ach_Name005</t>
+  </si>
+  <si>
+    <t>Ach_Des005</t>
+  </si>
+  <si>
+    <t>累计卖出XX个寿司</t>
+  </si>
+  <si>
+    <t>顾客移动速度提高</t>
+  </si>
+  <si>
+    <t>4 8 12 16</t>
+  </si>
+  <si>
+    <t>Ach_Name006</t>
+  </si>
+  <si>
+    <t>Ach_Des006</t>
+  </si>
+  <si>
+    <t>累计卖出XX个冰淇淋</t>
+  </si>
+  <si>
+    <t>顾客携带金币提高</t>
+  </si>
+  <si>
     <t>5 10 15 20</t>
   </si>
   <si>
-    <t>Ach_Name004</t>
-  </si>
-  <si>
-    <t>Ach_Des004</t>
-  </si>
-  <si>
-    <t>累计制作XX个寿司</t>
-  </si>
-  <si>
-    <t>制作速度提高</t>
-  </si>
-  <si>
-    <t>4 6 8 10</t>
-  </si>
-  <si>
-    <t>Ach_Name005</t>
-  </si>
-  <si>
-    <t>Ach_Des005</t>
-  </si>
-  <si>
-    <t>累计制作XX杯果汁</t>
-  </si>
-  <si>
-    <t>售价提高</t>
-  </si>
-  <si>
-    <t>Ach_Name006</t>
-  </si>
-  <si>
-    <t>Ach_Des006</t>
-  </si>
-  <si>
-    <t>累计制作XX个冰淇淋</t>
-  </si>
-  <si>
-    <t>顾客携带金币提高</t>
-  </si>
-  <si>
     <t>Ach_Name007</t>
   </si>
   <si>
@@ -1075,9 +1109,6 @@
     <t>招揽能量恢复速度提高</t>
   </si>
   <si>
-    <t>4 8 12 16</t>
-  </si>
-  <si>
     <t>Ach_Name011</t>
   </si>
   <si>
@@ -1105,7 +1136,7 @@
     <t>将XX个货架升到满级</t>
   </si>
   <si>
-    <t>堆叠数量提高</t>
+    <t>货架堆叠数量提高</t>
   </si>
   <si>
     <t>1 8 16</t>
@@ -1135,61 +1166,70 @@
     <t>完成段位1的每日挑战次数</t>
   </si>
   <si>
+    <t>20 50 100</t>
+  </si>
+  <si>
+    <t>Ach_Name015</t>
+  </si>
+  <si>
+    <t>Ach_Des015</t>
+  </si>
+  <si>
+    <t>商店里同时有XX个稀有顾客</t>
+  </si>
+  <si>
+    <t>每次招揽多1个可选择顾客</t>
+  </si>
+  <si>
+    <t>Ach_Name016</t>
+  </si>
+  <si>
+    <t>Ach_Des016</t>
+  </si>
+  <si>
+    <t>1分钟内完成任务个数XX</t>
+  </si>
+  <si>
+    <t>5 25</t>
+  </si>
+  <si>
+    <t>4 8</t>
+  </si>
+  <si>
+    <t>Ach_Name017</t>
+  </si>
+  <si>
+    <t>Ach_Des017</t>
+  </si>
+  <si>
+    <t>让XX个顾客离开时金币少于10</t>
+  </si>
+  <si>
+    <t>每次招揽有概率多选择1个顾客</t>
+  </si>
+  <si>
+    <t>20 50 100 200</t>
+  </si>
+  <si>
+    <t>10 15 20 25</t>
+  </si>
+  <si>
+    <t>Ach_Name018</t>
+  </si>
+  <si>
+    <t>Ach_Des018</t>
+  </si>
+  <si>
+    <t>完成任务XX个</t>
+  </si>
+  <si>
     <t>提高每日挑战奖励荣誉点数</t>
   </si>
   <si>
+    <t>50 200 500</t>
+  </si>
+  <si>
     <t>10 20 30</t>
-  </si>
-  <si>
-    <t>Ach_Name015</t>
-  </si>
-  <si>
-    <t>Ach_Des015</t>
-  </si>
-  <si>
-    <t>商店里同时有XX个稀有顾客</t>
-  </si>
-  <si>
-    <t>每次招揽多1个可选择顾客</t>
-  </si>
-  <si>
-    <t>Ach_Name016</t>
-  </si>
-  <si>
-    <t>Ach_Des016</t>
-  </si>
-  <si>
-    <t>1分钟内完成一个任务</t>
-  </si>
-  <si>
-    <t>5 25</t>
-  </si>
-  <si>
-    <t>4 8</t>
-  </si>
-  <si>
-    <t>Ach_Name017</t>
-  </si>
-  <si>
-    <t>Ach_Des017</t>
-  </si>
-  <si>
-    <t>让XX个顾客离开时金币少于10</t>
-  </si>
-  <si>
-    <t>每次招揽有概率多选择1个顾客</t>
-  </si>
-  <si>
-    <t>10 50 100 500</t>
-  </si>
-  <si>
-    <t>10 15 20 25</t>
-  </si>
-  <si>
-    <t>Ach_Name018</t>
-  </si>
-  <si>
-    <t>Ach_Des018</t>
   </si>
 </sst>
 </file>
@@ -1197,10 +1237,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -1219,7 +1259,67 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1234,60 +1334,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1301,9 +1356,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1311,22 +1365,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1342,21 +1389,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1412,7 +1452,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1430,25 +1536,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1460,85 +1548,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1556,19 +1566,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1580,19 +1614,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1696,50 +1736,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -1757,8 +1753,67 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1777,21 +1832,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1800,10 +1840,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1812,133 +1852,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2491,7 +2531,7 @@
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2619,7 +2659,7 @@
         <v>20</v>
       </c>
       <c r="D7" s="10">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E7" s="47"/>
       <c r="F7" s="7"/>
@@ -2913,7 +2953,7 @@
         <v>55</v>
       </c>
       <c r="D25" s="10">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
@@ -2947,7 +2987,7 @@
         <v>59</v>
       </c>
       <c r="D27" s="10">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
@@ -2964,7 +3004,7 @@
         <v>61</v>
       </c>
       <c r="D28" s="10">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
@@ -3008,9 +3048,15 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="6"/>
-      <c r="B31" s="9"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="10"/>
+      <c r="B31" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>68</v>
+      </c>
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
@@ -3088,39 +3134,39 @@
       <c r="A2" s="10"/>
       <c r="B2" s="10"/>
       <c r="C2" s="10" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D2" s="10"/>
       <c r="E2" s="10"/>
       <c r="F2" s="10" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="K2" s="10" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="L2" s="10" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="M2" s="10" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="N2" s="10" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="O2" s="10" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="P2" s="10"/>
       <c r="Q2" s="10"/>
@@ -3136,40 +3182,40 @@
     </row>
     <row r="3" s="15" customFormat="1" spans="1:26">
       <c r="A3" s="6" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
       <c r="J3" s="6" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="L3" s="45"/>
       <c r="M3" s="6" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="O3" s="6" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="P3" s="6"/>
       <c r="Q3" s="6"/>
@@ -3192,10 +3238,10 @@
         <v>DishName_101</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E4" s="5" t="str">
         <f t="shared" ref="E4:E39" si="1">"DishDes_"&amp;A4</f>
@@ -3221,7 +3267,7 @@
       <c r="L4" s="10"/>
       <c r="M4" s="5"/>
       <c r="N4" s="5" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="O4" s="5">
         <v>100</v>
@@ -3239,10 +3285,10 @@
         <v>DishName_102</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E5" s="5" t="str">
         <f t="shared" si="1"/>
@@ -3268,7 +3314,7 @@
       <c r="L5" s="10"/>
       <c r="M5" s="5"/>
       <c r="N5" s="5" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="O5" s="5">
         <v>100</v>
@@ -3286,10 +3332,10 @@
         <v>DishName_103</v>
       </c>
       <c r="C6" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>92</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>89</v>
       </c>
       <c r="E6" s="5" t="str">
         <f t="shared" si="1"/>
@@ -3315,7 +3361,7 @@
       <c r="L6" s="10"/>
       <c r="M6" s="5"/>
       <c r="N6" s="5" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="O6" s="5">
         <v>100</v>
@@ -3333,10 +3379,10 @@
         <v>DishName_104</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E7" s="5" t="str">
         <f t="shared" si="1"/>
@@ -3362,7 +3408,7 @@
       <c r="L7" s="10"/>
       <c r="M7" s="5"/>
       <c r="N7" s="5" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="O7" s="5">
         <v>100</v>
@@ -3380,10 +3426,10 @@
         <v>DishName_105</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E8" s="5" t="str">
         <f t="shared" si="1"/>
@@ -3409,7 +3455,7 @@
       <c r="L8" s="10"/>
       <c r="M8" s="5"/>
       <c r="N8" s="5" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="O8" s="5">
         <v>100</v>
@@ -3427,10 +3473,10 @@
         <v>DishName_106</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E9" s="5" t="str">
         <f t="shared" si="1"/>
@@ -3456,7 +3502,7 @@
       <c r="L9" s="10"/>
       <c r="M9" s="5"/>
       <c r="N9" s="5" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="O9" s="5">
         <v>100</v>
@@ -3474,10 +3520,10 @@
         <v>DishName_107</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E10" s="5" t="str">
         <f t="shared" si="1"/>
@@ -3503,7 +3549,7 @@
       <c r="L10" s="10"/>
       <c r="M10" s="5"/>
       <c r="N10" s="5" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="O10" s="5">
         <v>100</v>
@@ -3521,10 +3567,10 @@
         <v>DishName_108</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E11" s="5" t="str">
         <f t="shared" si="1"/>
@@ -3548,11 +3594,11 @@
         <v>0.7</v>
       </c>
       <c r="L11" s="10" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="M11" s="5"/>
       <c r="N11" s="5" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="O11" s="5">
         <v>100</v>
@@ -3570,10 +3616,10 @@
         <v>DishName_109</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E12" s="5" t="str">
         <f t="shared" si="1"/>
@@ -3597,11 +3643,11 @@
         <v>1</v>
       </c>
       <c r="L12" s="10" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="M12" s="5"/>
       <c r="N12" s="5" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="O12" s="5">
         <v>100</v>
@@ -3619,10 +3665,10 @@
         <v>DishName_201</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E13" s="5" t="str">
         <f t="shared" si="1"/>
@@ -3641,7 +3687,7 @@
       <c r="L13" s="10"/>
       <c r="M13" s="5"/>
       <c r="N13" s="5" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="O13" s="5">
         <v>100</v>
@@ -3659,10 +3705,10 @@
         <v>DishName_202</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E14" s="5" t="str">
         <f t="shared" si="1"/>
@@ -3681,7 +3727,7 @@
       <c r="L14" s="10"/>
       <c r="M14" s="5"/>
       <c r="N14" s="5" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="O14" s="5">
         <v>100</v>
@@ -3699,10 +3745,10 @@
         <v>DishName_203</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E15" s="5" t="str">
         <f t="shared" si="1"/>
@@ -3721,7 +3767,7 @@
       <c r="L15" s="10"/>
       <c r="M15" s="5"/>
       <c r="N15" s="5" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="O15" s="5">
         <v>100</v>
@@ -3739,10 +3785,10 @@
         <v>DishName_204</v>
       </c>
       <c r="C16" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D16" s="5" t="s">
         <v>108</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>105</v>
       </c>
       <c r="E16" s="5" t="str">
         <f t="shared" si="1"/>
@@ -3761,7 +3807,7 @@
       <c r="L16" s="10"/>
       <c r="M16" s="5"/>
       <c r="N16" s="5" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="O16" s="5">
         <v>100</v>
@@ -3779,10 +3825,10 @@
         <v>DishName_205</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E17" s="5" t="str">
         <f t="shared" si="1"/>
@@ -3803,7 +3849,7 @@
       <c r="L17" s="10"/>
       <c r="M17" s="5"/>
       <c r="N17" s="5" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="O17" s="5">
         <v>100</v>
@@ -3822,7 +3868,7 @@
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E18" s="5" t="str">
         <f t="shared" si="1"/>
@@ -3841,7 +3887,7 @@
       <c r="L18" s="10"/>
       <c r="M18" s="5"/>
       <c r="N18" s="5" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="O18" s="5">
         <v>100</v>
@@ -3860,7 +3906,7 @@
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="5" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E19" s="5" t="str">
         <f t="shared" si="1"/>
@@ -3879,7 +3925,7 @@
       <c r="L19" s="10"/>
       <c r="M19" s="5"/>
       <c r="N19" s="5" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="O19" s="5">
         <v>100</v>
@@ -3897,10 +3943,10 @@
         <v>DishName_208</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E20" s="5" t="str">
         <f t="shared" si="1"/>
@@ -3917,11 +3963,11 @@
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
       <c r="L20" s="10" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="M20" s="5"/>
       <c r="N20" s="5" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="O20" s="5">
         <v>100</v>
@@ -3939,10 +3985,10 @@
         <v>DishName_209</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E21" s="5" t="str">
         <f t="shared" si="1"/>
@@ -3963,11 +4009,11 @@
         <v>2</v>
       </c>
       <c r="L21" s="10" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="M21" s="5"/>
       <c r="N21" s="5" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="O21" s="5">
         <v>100</v>
@@ -3986,7 +4032,7 @@
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="5" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E22" s="5" t="str">
         <f t="shared" si="1"/>
@@ -4005,7 +4051,7 @@
       <c r="L22" s="10"/>
       <c r="M22" s="5"/>
       <c r="N22" s="5" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="O22" s="5">
         <v>100</v>
@@ -4024,7 +4070,7 @@
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="5" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E23" s="5" t="str">
         <f t="shared" si="1"/>
@@ -4041,7 +4087,7 @@
       <c r="L23" s="10"/>
       <c r="M23" s="5"/>
       <c r="N23" s="5" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="O23" s="5">
         <v>100</v>
@@ -4060,7 +4106,7 @@
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="5" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E24" s="5" t="str">
         <f t="shared" si="1"/>
@@ -4077,7 +4123,7 @@
       <c r="L24" s="10"/>
       <c r="M24" s="5"/>
       <c r="N24" s="5" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="O24" s="5">
         <v>100</v>
@@ -4096,7 +4142,7 @@
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="5" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E25" s="5" t="str">
         <f t="shared" si="1"/>
@@ -4113,7 +4159,7 @@
       <c r="L25" s="10"/>
       <c r="M25" s="5"/>
       <c r="N25" s="5" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="O25" s="5">
         <v>100</v>
@@ -4132,7 +4178,7 @@
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="5" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E26" s="5" t="str">
         <f t="shared" si="1"/>
@@ -4151,7 +4197,7 @@
       <c r="L26" s="10"/>
       <c r="M26" s="5"/>
       <c r="N26" s="5" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="O26" s="5">
         <v>100</v>
@@ -4170,7 +4216,7 @@
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="5" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E27" s="5" t="str">
         <f t="shared" si="1"/>
@@ -4187,7 +4233,7 @@
       <c r="L27" s="10"/>
       <c r="M27" s="5"/>
       <c r="N27" s="5" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="O27" s="5">
         <v>100</v>
@@ -4206,7 +4252,7 @@
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="5" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E28" s="5" t="str">
         <f t="shared" si="1"/>
@@ -4226,13 +4272,13 @@
         <v>3.22748612183951</v>
       </c>
       <c r="J28" s="5" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="K28" s="5"/>
       <c r="L28" s="10"/>
       <c r="M28" s="5"/>
       <c r="N28" s="5" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="O28" s="5">
         <v>100</v>
@@ -4251,7 +4297,7 @@
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="5" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E29" s="5" t="str">
         <f t="shared" si="1"/>
@@ -4268,11 +4314,11 @@
       <c r="J29" s="5"/>
       <c r="K29" s="5"/>
       <c r="L29" s="10" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="M29" s="5"/>
       <c r="N29" s="5" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="O29" s="5">
         <v>100</v>
@@ -4291,7 +4337,7 @@
       </c>
       <c r="C30" s="5"/>
       <c r="D30" s="5" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E30" s="5" t="str">
         <f t="shared" si="1"/>
@@ -4312,11 +4358,11 @@
         <v>0</v>
       </c>
       <c r="L30" s="10" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="M30" s="5"/>
       <c r="N30" s="5" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="O30" s="5">
         <v>100</v>
@@ -4335,7 +4381,7 @@
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="5" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E31" s="5" t="str">
         <f t="shared" si="1"/>
@@ -4352,7 +4398,7 @@
       <c r="L31" s="10"/>
       <c r="M31" s="5"/>
       <c r="N31" s="5" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="O31" s="5">
         <v>100</v>
@@ -4371,7 +4417,7 @@
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="5" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E32" s="5" t="str">
         <f t="shared" si="1"/>
@@ -4388,7 +4434,7 @@
       <c r="L32" s="10"/>
       <c r="M32" s="5"/>
       <c r="N32" s="5" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="O32" s="5">
         <v>100</v>
@@ -4407,7 +4453,7 @@
       </c>
       <c r="C33" s="5"/>
       <c r="D33" s="5" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E33" s="5" t="str">
         <f t="shared" si="1"/>
@@ -4424,7 +4470,7 @@
       <c r="L33" s="10"/>
       <c r="M33" s="5"/>
       <c r="N33" s="5" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="O33" s="5">
         <v>100</v>
@@ -4443,7 +4489,7 @@
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="5" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E34" s="5" t="str">
         <f t="shared" si="1"/>
@@ -4460,7 +4506,7 @@
       <c r="L34" s="10"/>
       <c r="M34" s="5"/>
       <c r="N34" s="5" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="O34" s="5">
         <v>100</v>
@@ -4479,7 +4525,7 @@
       </c>
       <c r="C35" s="5"/>
       <c r="D35" s="5" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E35" s="5" t="str">
         <f t="shared" si="1"/>
@@ -4498,7 +4544,7 @@
       <c r="L35" s="10"/>
       <c r="M35" s="5"/>
       <c r="N35" s="5" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="O35" s="5">
         <v>100</v>
@@ -4517,7 +4563,7 @@
       </c>
       <c r="C36" s="5"/>
       <c r="D36" s="5" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E36" s="5" t="str">
         <f t="shared" si="1"/>
@@ -4534,7 +4580,7 @@
       <c r="L36" s="10"/>
       <c r="M36" s="5"/>
       <c r="N36" s="5" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="O36" s="5">
         <v>100</v>
@@ -4552,10 +4598,10 @@
         <v>DishName_407</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E37" s="5" t="str">
         <f t="shared" si="1"/>
@@ -4576,7 +4622,7 @@
       <c r="L37" s="10"/>
       <c r="M37" s="5"/>
       <c r="N37" s="5" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="O37" s="5">
         <v>100</v>
@@ -4594,10 +4640,10 @@
         <v>DishName_408</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E38" s="5" t="str">
         <f t="shared" si="1"/>
@@ -4612,11 +4658,11 @@
       <c r="J38" s="5"/>
       <c r="K38" s="5"/>
       <c r="L38" s="10" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="M38" s="5"/>
       <c r="N38" s="5" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="O38" s="5">
         <v>100</v>
@@ -4634,10 +4680,10 @@
         <v>DishName_409</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E39" s="5" t="str">
         <f t="shared" si="1"/>
@@ -4658,11 +4704,11 @@
         <v>1</v>
       </c>
       <c r="L39" s="10" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="M39" s="5"/>
       <c r="N39" s="5" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="O39" s="5">
         <v>100</v>
@@ -6759,7 +6805,7 @@
   <sheetPr/>
   <dimension ref="A2:R44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
@@ -6786,23 +6832,23 @@
   <sheetData>
     <row r="2" spans="1:18">
       <c r="A2" s="16" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C2" s="16"/>
       <c r="D2" s="4" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="F2" s="14"/>
       <c r="G2" s="14"/>
       <c r="H2" s="9"/>
       <c r="I2" s="8" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="J2" s="14"/>
       <c r="K2" s="14"/>
@@ -6810,7 +6856,7 @@
       <c r="M2" s="14"/>
       <c r="N2" s="9"/>
       <c r="O2" s="5" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="P2" s="7"/>
       <c r="Q2" s="7"/>
@@ -6818,42 +6864,42 @@
     </row>
     <row r="3" s="15" customFormat="1" spans="1:18">
       <c r="A3" s="18" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
       <c r="D3" s="6" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>7</v>
       </c>
       <c r="H3" s="18" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="J3" s="29" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="K3" s="29" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="L3" s="29" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="O3" s="6"/>
       <c r="P3" s="6"/>
@@ -6882,7 +6928,7 @@
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="16" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="I4" s="4">
         <v>10</v>
@@ -6901,7 +6947,7 @@
       </c>
       <c r="N4" s="4"/>
       <c r="O4" s="30" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="P4" s="7"/>
       <c r="Q4" s="7"/>
@@ -6930,7 +6976,7 @@
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="16" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="I5" s="4">
         <v>10</v>
@@ -7022,7 +7068,7 @@
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="16" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="I7" s="4">
         <v>11</v>
@@ -7113,7 +7159,7 @@
       </c>
       <c r="G9" s="22"/>
       <c r="H9" s="20" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="I9" s="22">
         <v>12</v>
@@ -7132,7 +7178,7 @@
       </c>
       <c r="N9" s="22"/>
       <c r="O9" s="34" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="P9" s="7"/>
       <c r="Q9" s="7"/>
@@ -7207,7 +7253,7 @@
       </c>
       <c r="G11" s="22"/>
       <c r="H11" s="20" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="I11" s="22">
         <v>13</v>
@@ -7361,7 +7407,7 @@
       </c>
       <c r="N14" s="26"/>
       <c r="O14" s="38" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="P14" s="7"/>
       <c r="Q14" s="7"/>
@@ -7817,7 +7863,7 @@
       </c>
       <c r="N24" s="28"/>
       <c r="O24" s="42" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="P24" s="7"/>
       <c r="Q24" s="7"/>
@@ -10094,54 +10140,54 @@
     </row>
     <row r="2" customFormat="1" spans="1:9">
       <c r="A2" s="5" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="E2" s="9"/>
       <c r="F2" s="8" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="G2" s="9"/>
       <c r="H2" s="8" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="I2" s="9"/>
     </row>
     <row r="3" s="15" customFormat="1" spans="1:9">
       <c r="A3" s="6" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -11270,20 +11316,20 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="4" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>0</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="G2" s="14"/>
       <c r="H2" s="14"/>
@@ -11294,31 +11340,31 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="6" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
@@ -11329,7 +11375,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5">
@@ -11362,7 +11408,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5">
@@ -11387,7 +11433,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5">
@@ -11412,7 +11458,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5">
@@ -11437,7 +11483,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5">
@@ -11462,7 +11508,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5">
@@ -11487,7 +11533,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5">
@@ -11512,7 +11558,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5">
@@ -11537,7 +11583,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5">
@@ -11562,7 +11608,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5">
@@ -11587,7 +11633,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="5">
@@ -11612,7 +11658,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="5">
@@ -11637,7 +11683,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="5">
@@ -11662,7 +11708,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="5">
@@ -11687,7 +11733,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5">
@@ -11712,7 +11758,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="5">
@@ -11737,7 +11783,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="5">
@@ -11762,7 +11808,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="5">
@@ -11787,7 +11833,7 @@
         <v>19</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="5">
@@ -11812,7 +11858,7 @@
         <v>20</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="5">
@@ -11837,7 +11883,7 @@
         <v>21</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="5">
@@ -11862,7 +11908,7 @@
         <v>22</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="5">
@@ -11887,7 +11933,7 @@
         <v>23</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="5">
@@ -11912,7 +11958,7 @@
         <v>24</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="5">
@@ -11937,7 +11983,7 @@
         <v>25</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="5">
@@ -11962,7 +12008,7 @@
         <v>26</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="5">
@@ -11987,7 +12033,7 @@
         <v>27</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C30" s="5"/>
       <c r="D30" s="5">
@@ -12012,7 +12058,7 @@
         <v>28</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="5">
@@ -12037,7 +12083,7 @@
         <v>29</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="5">
@@ -12062,7 +12108,7 @@
         <v>30</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C33" s="5"/>
       <c r="D33" s="5">
@@ -15345,7 +15391,7 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD10"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -15370,7 +15416,7 @@
       <c r="H1" s="7"/>
       <c r="I1" s="7"/>
       <c r="J1" s="5" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="K1" s="11"/>
     </row>
@@ -15378,7 +15424,7 @@
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="5" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
@@ -15391,32 +15437,32 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="6" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="K3" s="6"/>
     </row>
@@ -15425,10 +15471,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="D4" s="5">
         <v>1</v>
@@ -15452,10 +15498,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="D5" s="5">
         <v>30</v>
@@ -15479,10 +15525,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D6" s="5">
         <v>120</v>
@@ -15508,10 +15554,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="D7" s="5">
         <v>480</v>
@@ -15537,10 +15583,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="D8" s="5">
         <v>720</v>
@@ -15568,10 +15614,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D9" s="5">
         <v>1440</v>
@@ -15599,10 +15645,10 @@
         <v>7</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="D10" s="5">
         <v>0</v>
@@ -15877,7 +15923,7 @@
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2" s="8" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="G2" s="9"/>
       <c r="H2" s="7"/>
@@ -15890,23 +15936,23 @@
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="6" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
@@ -15921,10 +15967,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D4" s="5">
         <v>0</v>
@@ -15951,10 +15997,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="D5" s="5">
         <v>0</v>
@@ -15981,10 +16027,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="D6" s="5">
         <v>4</v>
@@ -16011,10 +16057,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="D7" s="5">
         <v>8</v>
@@ -16041,10 +16087,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="D8" s="5">
         <v>12</v>
@@ -16071,10 +16117,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="D9" s="5">
         <v>6</v>
@@ -16101,10 +16147,10 @@
         <v>7</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="D10" s="5">
         <v>10</v>
@@ -16131,10 +16177,10 @@
         <v>8</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="D11" s="5">
         <v>8</v>
@@ -16161,10 +16207,10 @@
         <v>9</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="D12" s="5">
         <v>5</v>
@@ -16633,15 +16679,15 @@
   <sheetPr/>
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:E20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="6.375" customWidth="1"/>
     <col min="2" max="2" width="13.625" customWidth="1"/>
-    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="3" max="3" width="11.25" customWidth="1"/>
     <col min="4" max="4" width="25.625" style="1" customWidth="1"/>
     <col min="5" max="5" width="26.25" style="1" customWidth="1"/>
     <col min="6" max="6" width="30.5" style="1" customWidth="1"/>
@@ -16661,40 +16707,40 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="4" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5">
-        <f>SUM(H4:H21)</f>
-        <v>61</v>
+        <f>SUM(H5:H21)</f>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="6" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
       <c r="F3" s="6" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="H3" s="6"/>
     </row>
@@ -16703,25 +16749,25 @@
         <v>1</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="H4" s="5">
-        <f t="shared" ref="H4:H21" si="0">LEN(F4)-LEN(SUBSTITUTE(F4," ",""))+1</f>
+        <f t="shared" ref="H4:H22" si="0">LEN(F4)-LEN(SUBSTITUTE(F4," ",""))+1</f>
         <v>3</v>
       </c>
     </row>
@@ -16730,22 +16776,22 @@
         <v>2</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="H5" s="5">
         <f t="shared" si="0"/>
@@ -16757,22 +16803,22 @@
         <v>3</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="H6" s="5">
         <f t="shared" si="0"/>
@@ -16781,25 +16827,25 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="C7" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="G7" s="5" t="s">
         <v>266</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>268</v>
       </c>
       <c r="H7" s="5">
         <f t="shared" si="0"/>
@@ -16808,28 +16854,28 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="H8" s="5">
-        <f t="shared" si="0"/>
+        <f>LEN(F8)-LEN(SUBSTITUTE(F8," ",""))+1</f>
         <v>4</v>
       </c>
     </row>
@@ -16838,22 +16884,22 @@
         <v>6</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>263</v>
+        <v>280</v>
       </c>
       <c r="H9" s="5">
         <f t="shared" si="0"/>
@@ -16865,22 +16911,22 @@
         <v>7</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="H10" s="5">
         <f t="shared" si="0"/>
@@ -16892,22 +16938,22 @@
         <v>8</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="H11" s="5">
         <f t="shared" si="0"/>
@@ -16919,22 +16965,22 @@
         <v>9</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="H12" s="5">
         <f t="shared" si="0"/>
@@ -16946,22 +16992,22 @@
         <v>10</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>299</v>
+        <v>275</v>
       </c>
       <c r="H13" s="5">
         <f t="shared" si="0"/>
@@ -16973,22 +17019,22 @@
         <v>11</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="H14" s="5">
         <f t="shared" si="0"/>
@@ -17000,22 +17046,22 @@
         <v>12</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="H15" s="5">
         <f t="shared" si="0"/>
@@ -17027,22 +17073,22 @@
         <v>13</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="D16" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="G16" s="5" t="s">
         <v>314</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>311</v>
       </c>
       <c r="H16" s="5">
         <f t="shared" si="0"/>
@@ -17054,22 +17100,22 @@
         <v>14</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>319</v>
+        <v>274</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>250</v>
+        <v>322</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="H17" s="5">
         <f t="shared" si="0"/>
@@ -17081,16 +17127,16 @@
         <v>15</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="F18" s="5">
         <v>20</v>
@@ -17108,22 +17154,22 @@
         <v>16</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="H19" s="5">
         <f t="shared" si="0"/>
@@ -17135,22 +17181,22 @@
         <v>17</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="H20" s="5">
         <f t="shared" si="0"/>
@@ -17162,253 +17208,884 @@
         <v>18</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>337</v>
-      </c>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
+        <v>339</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>343</v>
+      </c>
       <c r="H21" s="5">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A3:G3">
-    <cfRule type="expression" dxfId="0" priority="561">
-      <formula>#REF!="blue"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="562">
-      <formula>#REF!="green"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="563">
-      <formula>#REF!="purple"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="564">
-      <formula>#REF!="orange"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="565" operator="equal">
-      <formula>"blue"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="566" operator="equal">
-      <formula>"green"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="567" operator="equal">
+    <cfRule type="expression" dxfId="0" priority="641">
+      <formula>#REF!="blue"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="642">
+      <formula>#REF!="green"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="643">
+      <formula>#REF!="purple"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="644">
+      <formula>#REF!="orange"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="645" operator="equal">
+      <formula>"blue"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="646" operator="equal">
+      <formula>"green"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="647" operator="equal">
       <formula>"white"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:F4">
+    <cfRule type="expression" dxfId="0" priority="145">
+      <formula>#REF!="blue"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="146">
+      <formula>#REF!="green"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="147">
+      <formula>#REF!="purple"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="148">
+      <formula>#REF!="orange"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="149">
+      <formula>#REF!="orange"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="150" operator="equal">
+      <formula>"blue"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="151" operator="equal">
+      <formula>"green"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="152" operator="equal">
+      <formula>"white"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4">
+    <cfRule type="expression" dxfId="0" priority="137">
+      <formula>#REF!="blue"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="138">
+      <formula>#REF!="green"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="139">
+      <formula>#REF!="purple"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="140">
+      <formula>#REF!="orange"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="141">
+      <formula>#REF!="orange"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="142" operator="equal">
+      <formula>"blue"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="143" operator="equal">
+      <formula>"green"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="144" operator="equal">
+      <formula>"white"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="cellIs" priority="32" operator="equal">
+      <formula>"white"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="31" operator="equal">
+      <formula>"green"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="30" operator="equal">
+      <formula>"blue"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="29">
+      <formula>#REF!="orange"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="28">
+      <formula>#REF!="orange"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="27">
+      <formula>#REF!="purple"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="26">
+      <formula>#REF!="green"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="25">
+      <formula>#REF!="blue"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G6">
+    <cfRule type="cellIs" priority="8" operator="equal">
+      <formula>"white"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
+      <formula>"green"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+      <formula>"blue"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="5">
+      <formula>#REF!="orange"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>#REF!="orange"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>#REF!="purple"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>#REF!="green"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>#REF!="blue"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7">
+    <cfRule type="expression" dxfId="0" priority="185">
+      <formula>#REF!="blue"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="187">
+      <formula>#REF!="green"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="189">
+      <formula>#REF!="purple"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="191">
+      <formula>#REF!="orange"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="193">
+      <formula>#REF!="orange"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="195" operator="equal">
+      <formula>"blue"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="197" operator="equal">
+      <formula>"green"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="199" operator="equal">
+      <formula>"white"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7">
+    <cfRule type="cellIs" priority="24" operator="equal">
+      <formula>"white"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="23" operator="equal">
+      <formula>"green"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="22" operator="equal">
+      <formula>"blue"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="21">
+      <formula>#REF!="orange"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="20">
+      <formula>#REF!="orange"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="19">
+      <formula>#REF!="purple"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="18">
+      <formula>#REF!="green"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="17">
+      <formula>#REF!="blue"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G7">
+    <cfRule type="cellIs" priority="16" operator="equal">
+      <formula>"white"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="15" operator="equal">
+      <formula>"green"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="14" operator="equal">
+      <formula>"blue"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="13">
+      <formula>#REF!="orange"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="12">
+      <formula>#REF!="orange"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="11">
+      <formula>#REF!="purple"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="10">
+      <formula>#REF!="green"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="9">
+      <formula>#REF!="blue"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8">
+    <cfRule type="expression" dxfId="0" priority="186">
+      <formula>#REF!="blue"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="188">
+      <formula>#REF!="green"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="190">
+      <formula>#REF!="purple"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="192">
+      <formula>#REF!="orange"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="194">
+      <formula>#REF!="orange"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="196" operator="equal">
+      <formula>"blue"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="198" operator="equal">
+      <formula>"green"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="200" operator="equal">
+      <formula>"white"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E8">
+    <cfRule type="expression" dxfId="0" priority="49">
+      <formula>#REF!="blue"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="50">
+      <formula>#REF!="green"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="51">
+      <formula>#REF!="purple"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="52">
+      <formula>#REF!="orange"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="53">
+      <formula>#REF!="orange"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="54" operator="equal">
+      <formula>"blue"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="55" operator="equal">
+      <formula>"green"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="56" operator="equal">
+      <formula>"white"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F8">
+    <cfRule type="expression" dxfId="0" priority="33">
+      <formula>#REF!="blue"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="34">
+      <formula>#REF!="green"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="35">
+      <formula>#REF!="purple"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="36">
+      <formula>#REF!="orange"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="37">
+      <formula>#REF!="orange"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="38" operator="equal">
+      <formula>"blue"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="39" operator="equal">
+      <formula>"green"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="40" operator="equal">
+      <formula>"white"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G8">
+    <cfRule type="expression" dxfId="0" priority="41">
+      <formula>#REF!="blue"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="42">
+      <formula>#REF!="green"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="43">
+      <formula>#REF!="purple"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="44">
+      <formula>#REF!="orange"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="45">
+      <formula>#REF!="orange"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="46" operator="equal">
+      <formula>"blue"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="47" operator="equal">
+      <formula>"green"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="48" operator="equal">
+      <formula>"white"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D9">
+    <cfRule type="expression" dxfId="0" priority="169">
+      <formula>#REF!="blue"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="170">
+      <formula>#REF!="green"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="171">
+      <formula>#REF!="purple"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="172">
+      <formula>#REF!="orange"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="173">
+      <formula>#REF!="orange"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="174" operator="equal">
+      <formula>"blue"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="175" operator="equal">
+      <formula>"green"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="176" operator="equal">
+      <formula>"white"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D11:F11">
+    <cfRule type="expression" dxfId="0" priority="209">
+      <formula>#REF!="blue"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="210">
+      <formula>#REF!="green"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="211">
+      <formula>#REF!="purple"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="212">
+      <formula>#REF!="orange"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="213">
+      <formula>#REF!="orange"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="214" operator="equal">
+      <formula>"blue"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="215" operator="equal">
+      <formula>"green"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="216" operator="equal">
+      <formula>"white"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G11">
+    <cfRule type="expression" dxfId="0" priority="201">
+      <formula>#REF!="blue"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="202">
+      <formula>#REF!="green"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="203">
+      <formula>#REF!="purple"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="204">
+      <formula>#REF!="orange"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="205">
+      <formula>#REF!="orange"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="206" operator="equal">
+      <formula>"blue"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="207" operator="equal">
+      <formula>"green"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="208" operator="equal">
+      <formula>"white"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D14:F14">
+    <cfRule type="expression" dxfId="0" priority="541">
+      <formula>#REF!="blue"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="554">
+      <formula>#REF!="green"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="567">
+      <formula>#REF!="purple"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="580">
+      <formula>#REF!="orange"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="593">
+      <formula>#REF!="orange"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="606" operator="equal">
+      <formula>"blue"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="619" operator="equal">
+      <formula>"green"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="632" operator="equal">
+      <formula>"white"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G14">
+    <cfRule type="expression" dxfId="0" priority="333">
+      <formula>#REF!="blue"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="346">
+      <formula>#REF!="green"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="359">
+      <formula>#REF!="purple"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="372">
+      <formula>#REF!="orange"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="385">
+      <formula>#REF!="orange"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="398" operator="equal">
+      <formula>"blue"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="411" operator="equal">
+      <formula>"green"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="424" operator="equal">
+      <formula>"white"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E15">
+    <cfRule type="expression" dxfId="0" priority="105">
+      <formula>#REF!="blue"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="106">
+      <formula>#REF!="green"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="107">
+      <formula>#REF!="purple"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="108">
+      <formula>#REF!="orange"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="109">
+      <formula>#REF!="orange"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="110" operator="equal">
+      <formula>"blue"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="111" operator="equal">
+      <formula>"green"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="112" operator="equal">
+      <formula>"white"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G15">
+    <cfRule type="expression" dxfId="0" priority="113">
+      <formula>#REF!="blue"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="114">
+      <formula>#REF!="green"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="115">
+      <formula>#REF!="purple"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="116">
+      <formula>#REF!="orange"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="117">
+      <formula>#REF!="orange"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="118" operator="equal">
+      <formula>"blue"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="119" operator="equal">
+      <formula>"green"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="120" operator="equal">
+      <formula>"white"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E16">
+    <cfRule type="expression" dxfId="0" priority="129">
+      <formula>#REF!="blue"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="130">
+      <formula>#REF!="green"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="131">
+      <formula>#REF!="purple"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="132">
+      <formula>#REF!="orange"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="133">
+      <formula>#REF!="orange"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="134" operator="equal">
+      <formula>"blue"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="135" operator="equal">
+      <formula>"green"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="136" operator="equal">
+      <formula>"white"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G16">
+    <cfRule type="expression" dxfId="0" priority="97">
+      <formula>#REF!="blue"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="98">
+      <formula>#REF!="green"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="99">
+      <formula>#REF!="purple"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="100">
+      <formula>#REF!="orange"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="101">
+      <formula>#REF!="orange"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="102" operator="equal">
+      <formula>"blue"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="103" operator="equal">
+      <formula>"green"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="104" operator="equal">
+      <formula>"white"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E17">
+    <cfRule type="cellIs" priority="64" operator="equal">
+      <formula>"white"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="63" operator="equal">
+      <formula>"green"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="62" operator="equal">
+      <formula>"blue"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="61">
+      <formula>#REF!="orange"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="60">
+      <formula>#REF!="orange"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="59">
+      <formula>#REF!="purple"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="58">
+      <formula>#REF!="green"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="57">
+      <formula>#REF!="blue"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G17">
+    <cfRule type="expression" dxfId="0" priority="273">
+      <formula>#REF!="blue"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="276">
+      <formula>#REF!="green"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="279">
+      <formula>#REF!="purple"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="282">
+      <formula>#REF!="orange"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="285">
+      <formula>#REF!="orange"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="288" operator="equal">
+      <formula>"blue"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="291" operator="equal">
+      <formula>"green"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="294" operator="equal">
+      <formula>"white"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E18:F18">
+    <cfRule type="expression" dxfId="0" priority="533">
+      <formula>#REF!="blue"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="546">
+      <formula>#REF!="green"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="559">
+      <formula>#REF!="purple"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="572">
+      <formula>#REF!="orange"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="585">
+      <formula>#REF!="orange"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="598" operator="equal">
+      <formula>"blue"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="611" operator="equal">
+      <formula>"green"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="624" operator="equal">
+      <formula>"white"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G18">
+    <cfRule type="expression" dxfId="0" priority="325">
+      <formula>#REF!="blue"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="338">
+      <formula>#REF!="green"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="351">
+      <formula>#REF!="purple"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="364">
+      <formula>#REF!="orange"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="377">
+      <formula>#REF!="orange"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="390" operator="equal">
+      <formula>"blue"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="403" operator="equal">
+      <formula>"green"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="416" operator="equal">
+      <formula>"white"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E19">
+    <cfRule type="cellIs" priority="88" operator="equal">
+      <formula>"white"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="87" operator="equal">
+      <formula>"green"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="86" operator="equal">
+      <formula>"blue"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="85">
+      <formula>#REF!="orange"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="84">
+      <formula>#REF!="orange"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="83">
+      <formula>#REF!="purple"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="82">
+      <formula>#REF!="green"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="81">
+      <formula>#REF!="blue"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E21">
+    <cfRule type="cellIs" priority="80" operator="equal">
+      <formula>"white"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="79" operator="equal">
+      <formula>"green"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="78" operator="equal">
+      <formula>"blue"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="77">
+      <formula>#REF!="orange"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="76">
+      <formula>#REF!="orange"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="75">
+      <formula>#REF!="purple"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="74">
+      <formula>#REF!="green"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="73">
+      <formula>#REF!="blue"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G21">
+    <cfRule type="cellIs" priority="72" operator="equal">
+      <formula>"white"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="71" operator="equal">
+      <formula>"green"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="70" operator="equal">
+      <formula>"blue"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="69">
+      <formula>#REF!="orange"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="68">
+      <formula>#REF!="orange"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="67">
+      <formula>#REF!="purple"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="66">
+      <formula>#REF!="green"</formula>
+    </cfRule>
     <cfRule type="expression" dxfId="0" priority="65">
       <formula>#REF!="blue"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="66">
-      <formula>#REF!="green"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="67">
-      <formula>#REF!="purple"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="68">
-      <formula>#REF!="orange"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="69">
-      <formula>#REF!="orange"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="70" operator="equal">
-      <formula>"blue"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="71" operator="equal">
-      <formula>"green"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="72" operator="equal">
-      <formula>"white"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G4">
-    <cfRule type="expression" dxfId="0" priority="57">
-      <formula>#REF!="blue"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="58">
-      <formula>#REF!="green"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="59">
-      <formula>#REF!="purple"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="60">
-      <formula>#REF!="orange"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="61">
-      <formula>#REF!="orange"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="62" operator="equal">
-      <formula>"blue"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="63" operator="equal">
-      <formula>"green"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="64" operator="equal">
-      <formula>"white"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D7:E7">
-    <cfRule type="expression" dxfId="0" priority="106">
-      <formula>#REF!="blue"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="108">
-      <formula>#REF!="green"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="110">
-      <formula>#REF!="purple"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="112">
-      <formula>#REF!="orange"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="114">
-      <formula>#REF!="orange"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="116" operator="equal">
-      <formula>"blue"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="118" operator="equal">
-      <formula>"green"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="120" operator="equal">
-      <formula>"white"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G7">
-    <cfRule type="expression" dxfId="0" priority="97">
-      <formula>#REF!="blue"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="98">
-      <formula>#REF!="green"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="99">
-      <formula>#REF!="purple"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="100">
-      <formula>#REF!="orange"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="101">
-      <formula>#REF!="orange"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="102" operator="equal">
-      <formula>"blue"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="103" operator="equal">
-      <formula>"green"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="104" operator="equal">
-      <formula>"white"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D8">
-    <cfRule type="expression" dxfId="0" priority="105">
-      <formula>#REF!="blue"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="107">
-      <formula>#REF!="green"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="109">
-      <formula>#REF!="purple"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="111">
-      <formula>#REF!="orange"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="113">
-      <formula>#REF!="orange"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="115" operator="equal">
-      <formula>"blue"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="117" operator="equal">
-      <formula>"green"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="119" operator="equal">
-      <formula>"white"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G8">
-    <cfRule type="cellIs" priority="16" operator="equal">
-      <formula>"white"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="15" operator="equal">
-      <formula>"green"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="14" operator="equal">
-      <formula>"blue"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="13">
-      <formula>#REF!="orange"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="12">
-      <formula>#REF!="orange"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="11">
-      <formula>#REF!="purple"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="10">
-      <formula>#REF!="green"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="9">
-      <formula>#REF!="blue"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D9">
-    <cfRule type="expression" dxfId="0" priority="89">
-      <formula>#REF!="blue"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="90">
-      <formula>#REF!="green"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="91">
-      <formula>#REF!="purple"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="92">
-      <formula>#REF!="orange"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="93">
-      <formula>#REF!="orange"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="94" operator="equal">
-      <formula>"blue"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="95" operator="equal">
-      <formula>"green"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="96" operator="equal">
-      <formula>"white"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D11:F11">
-    <cfRule type="expression" dxfId="0" priority="129">
-      <formula>#REF!="blue"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="130">
-      <formula>#REF!="green"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="131">
-      <formula>#REF!="purple"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="132">
-      <formula>#REF!="orange"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="133">
-      <formula>#REF!="orange"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="134" operator="equal">
-      <formula>"blue"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="135" operator="equal">
-      <formula>"green"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="136" operator="equal">
-      <formula>"white"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G11">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:G2 H3">
+    <cfRule type="expression" dxfId="0" priority="664">
+      <formula>#REF!="blue"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="665">
+      <formula>#REF!="green"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="666">
+      <formula>#REF!="purple"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="667">
+      <formula>#REF!="orange"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="669" operator="equal">
+      <formula>"blue"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="670" operator="equal">
+      <formula>"green"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="671" operator="equal">
+      <formula>"white"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4:C21 D5:D13">
+    <cfRule type="expression" dxfId="0" priority="656">
+      <formula>#REF!="blue"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="657">
+      <formula>#REF!="green"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="658">
+      <formula>#REF!="purple"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="659">
+      <formula>#REF!="orange"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="660">
+      <formula>#REF!="orange"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="661" operator="equal">
+      <formula>"blue"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="662" operator="equal">
+      <formula>"green"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="663" operator="equal">
+      <formula>"white"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5 D10:F10 D12:F13">
+    <cfRule type="expression" dxfId="2" priority="227">
+      <formula>#REF!="purple"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="228">
+      <formula>#REF!="orange"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="229">
+      <formula>#REF!="orange"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="230" operator="equal">
+      <formula>"blue"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="231" operator="equal">
+      <formula>"green"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="232" operator="equal">
+      <formula>"white"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5 D10:F10 E12:F13">
+    <cfRule type="expression" dxfId="0" priority="225">
+      <formula>#REF!="blue"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="226">
+      <formula>#REF!="green"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F6:F7 F9">
+    <cfRule type="expression" dxfId="0" priority="161">
+      <formula>#REF!="blue"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="162">
+      <formula>#REF!="green"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="163">
+      <formula>#REF!="purple"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="164">
+      <formula>#REF!="orange"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="165">
+      <formula>#REF!="orange"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="166" operator="equal">
+      <formula>"blue"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="167" operator="equal">
+      <formula>"green"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="168" operator="equal">
+      <formula>"white"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G12:G13 G10">
+    <cfRule type="expression" dxfId="0" priority="217">
+      <formula>#REF!="blue"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="218">
+      <formula>#REF!="green"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="219">
+      <formula>#REF!="purple"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="220">
+      <formula>#REF!="orange"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="221">
+      <formula>#REF!="orange"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="222" operator="equal">
+      <formula>"blue"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="223" operator="equal">
+      <formula>"green"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="224" operator="equal">
+      <formula>"white"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F15 D15">
     <cfRule type="expression" dxfId="0" priority="121">
       <formula>#REF!="blue"</formula>
     </cfRule>
@@ -17431,421 +18108,6 @@
       <formula>"green"</formula>
     </cfRule>
     <cfRule type="cellIs" priority="128" operator="equal">
-      <formula>"white"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D14:F14">
-    <cfRule type="expression" dxfId="0" priority="461">
-      <formula>#REF!="blue"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="474">
-      <formula>#REF!="green"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="487">
-      <formula>#REF!="purple"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="500">
-      <formula>#REF!="orange"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="513">
-      <formula>#REF!="orange"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="526" operator="equal">
-      <formula>"blue"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="539" operator="equal">
-      <formula>"green"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="552" operator="equal">
-      <formula>"white"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G14">
-    <cfRule type="expression" dxfId="0" priority="253">
-      <formula>#REF!="blue"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="266">
-      <formula>#REF!="green"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="279">
-      <formula>#REF!="purple"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="292">
-      <formula>#REF!="orange"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="305">
-      <formula>#REF!="orange"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="318" operator="equal">
-      <formula>"blue"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="331" operator="equal">
-      <formula>"green"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="344" operator="equal">
-      <formula>"white"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E15">
-    <cfRule type="expression" dxfId="0" priority="25">
-      <formula>#REF!="blue"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="26">
-      <formula>#REF!="green"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="27">
-      <formula>#REF!="purple"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="28">
-      <formula>#REF!="orange"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="29">
-      <formula>#REF!="orange"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="30" operator="equal">
-      <formula>"blue"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="31" operator="equal">
-      <formula>"green"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="32" operator="equal">
-      <formula>"white"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G15">
-    <cfRule type="expression" dxfId="0" priority="33">
-      <formula>#REF!="blue"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="34">
-      <formula>#REF!="green"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="35">
-      <formula>#REF!="purple"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="36">
-      <formula>#REF!="orange"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="37">
-      <formula>#REF!="orange"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="38" operator="equal">
-      <formula>"blue"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="39" operator="equal">
-      <formula>"green"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="40" operator="equal">
-      <formula>"white"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E16">
-    <cfRule type="expression" dxfId="0" priority="49">
-      <formula>#REF!="blue"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="50">
-      <formula>#REF!="green"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="51">
-      <formula>#REF!="purple"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="52">
-      <formula>#REF!="orange"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="53">
-      <formula>#REF!="orange"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="54" operator="equal">
-      <formula>"blue"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="55" operator="equal">
-      <formula>"green"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="56" operator="equal">
-      <formula>"white"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G16">
-    <cfRule type="expression" dxfId="0" priority="17">
-      <formula>#REF!="blue"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="18">
-      <formula>#REF!="green"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="19">
-      <formula>#REF!="purple"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="20">
-      <formula>#REF!="orange"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="21">
-      <formula>#REF!="orange"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="22" operator="equal">
-      <formula>"blue"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="23" operator="equal">
-      <formula>"green"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="24" operator="equal">
-      <formula>"white"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G17">
-    <cfRule type="expression" dxfId="0" priority="193">
-      <formula>#REF!="blue"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="196">
-      <formula>#REF!="green"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="199">
-      <formula>#REF!="purple"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="202">
-      <formula>#REF!="orange"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="205">
-      <formula>#REF!="orange"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="208" operator="equal">
-      <formula>"blue"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="211" operator="equal">
-      <formula>"green"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="214" operator="equal">
-      <formula>"white"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E18:F18">
-    <cfRule type="expression" dxfId="0" priority="453">
-      <formula>#REF!="blue"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="466">
-      <formula>#REF!="green"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="479">
-      <formula>#REF!="purple"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="492">
-      <formula>#REF!="orange"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="505">
-      <formula>#REF!="orange"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="518" operator="equal">
-      <formula>"blue"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="531" operator="equal">
-      <formula>"green"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="544" operator="equal">
-      <formula>"white"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G18">
-    <cfRule type="expression" dxfId="0" priority="245">
-      <formula>#REF!="blue"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="258">
-      <formula>#REF!="green"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="271">
-      <formula>#REF!="purple"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="284">
-      <formula>#REF!="orange"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="297">
-      <formula>#REF!="orange"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="310" operator="equal">
-      <formula>"blue"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="323" operator="equal">
-      <formula>"green"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="336" operator="equal">
-      <formula>"white"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E19">
-    <cfRule type="cellIs" priority="8" operator="equal">
-      <formula>"white"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
-      <formula>"green"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
-      <formula>"blue"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="5">
-      <formula>#REF!="orange"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="4">
-      <formula>#REF!="orange"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="3">
-      <formula>#REF!="purple"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>#REF!="green"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>#REF!="blue"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F6:F9">
-    <cfRule type="expression" dxfId="0" priority="81">
-      <formula>#REF!="blue"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="82">
-      <formula>#REF!="green"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="83">
-      <formula>#REF!="purple"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="84">
-      <formula>#REF!="orange"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="85">
-      <formula>#REF!="orange"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="86" operator="equal">
-      <formula>"blue"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="87" operator="equal">
-      <formula>"green"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="88" operator="equal">
-      <formula>"white"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A2:G2 H3">
-    <cfRule type="expression" dxfId="0" priority="584">
-      <formula>#REF!="blue"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="585">
-      <formula>#REF!="green"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="586">
-      <formula>#REF!="purple"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="587">
-      <formula>#REF!="orange"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="589" operator="equal">
-      <formula>"blue"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="590" operator="equal">
-      <formula>"green"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="591" operator="equal">
-      <formula>"white"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A4:C21 D5:D13 E17">
-    <cfRule type="expression" dxfId="0" priority="576">
-      <formula>#REF!="blue"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="577">
-      <formula>#REF!="green"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="578">
-      <formula>#REF!="purple"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="579">
-      <formula>#REF!="orange"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="580">
-      <formula>#REF!="orange"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="581" operator="equal">
-      <formula>"blue"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="582" operator="equal">
-      <formula>"green"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="583" operator="equal">
-      <formula>"white"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F5 D10:F10 D12:F13 E6 E8">
-    <cfRule type="expression" dxfId="2" priority="147">
-      <formula>#REF!="purple"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="148">
-      <formula>#REF!="orange"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="149">
-      <formula>#REF!="orange"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="150" operator="equal">
-      <formula>"blue"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="151" operator="equal">
-      <formula>"green"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="152" operator="equal">
-      <formula>"white"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F5 D10:F10 E12:F13 E6 E8">
-    <cfRule type="expression" dxfId="0" priority="145">
-      <formula>#REF!="blue"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="146">
-      <formula>#REF!="green"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G6 G12:G13 G10">
-    <cfRule type="expression" dxfId="0" priority="137">
-      <formula>#REF!="blue"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="138">
-      <formula>#REF!="green"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="139">
-      <formula>#REF!="purple"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="140">
-      <formula>#REF!="orange"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="141">
-      <formula>#REF!="orange"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="142" operator="equal">
-      <formula>"blue"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="143" operator="equal">
-      <formula>"green"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="144" operator="equal">
-      <formula>"white"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F15 D15">
-    <cfRule type="expression" dxfId="0" priority="41">
-      <formula>#REF!="blue"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="42">
-      <formula>#REF!="green"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="43">
-      <formula>#REF!="purple"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="44">
-      <formula>#REF!="orange"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="45">
-      <formula>#REF!="orange"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="46" operator="equal">
-      <formula>"blue"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="47" operator="equal">
-      <formula>"green"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="48" operator="equal">
       <formula>"white"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Doc/GameData.xlsx
+++ b/Doc/GameData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="621" activeTab="7"/>
+    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="621"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="1" r:id="rId1"/>
@@ -59,38 +59,6 @@
     <author>wanhaofu</author>
   </authors>
   <commentList>
-    <comment ref="L20" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>wanhaofu:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-接下来2次计算点菜概率时，必定要点。但真实点菜概率依旧持续递减。同时，每个顾客每次最多点一次该菜品。</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>wanhaofu</author>
-  </authors>
-  <commentList>
     <comment ref="M3" authorId="0">
       <text>
         <r>
@@ -117,7 +85,7 @@
 </comments>
 </file>
 
-<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>wanhaofu</author>
@@ -163,7 +131,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-稀有顾客：携带大量金币，偏好贵的商品，初始好感度高，形象为独角兽、伶鼬等</t>
+稀有顾客：携带大量金币，初始好感度高，结账有概率用钻石支付，形象为独角兽、伶鼬等</t>
         </r>
       </text>
     </comment>
@@ -194,7 +162,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="351">
   <si>
     <t>分类</t>
   </si>
@@ -457,7 +425,7 @@
     <t>priceList</t>
   </si>
   <si>
-    <t>mood</t>
+    <t>moodList</t>
   </si>
   <si>
     <t>skillParams</t>
@@ -475,12 +443,18 @@
     <t>Cake</t>
   </si>
   <si>
+    <t>8 10 12 14 16 18 20 22 24 26 28</t>
+  </si>
+  <si>
     <t>Green</t>
   </si>
   <si>
     <t>甜甜圈</t>
   </si>
   <si>
+    <t>6 9 12 15 18 21 24 27 30 33 36</t>
+  </si>
+  <si>
     <t>马卡龙</t>
   </si>
   <si>
@@ -490,19 +464,31 @@
     <t>樱桃蛋糕</t>
   </si>
   <si>
+    <t>14 16 18 20 22 24 26 28 30 32</t>
+  </si>
+  <si>
     <t>Blue</t>
   </si>
   <si>
     <t>拿破仑蛋糕</t>
   </si>
   <si>
+    <t>9 12 15 18 21 24 27 30 33 36</t>
+  </si>
+  <si>
     <t>水果慕斯</t>
   </si>
   <si>
+    <t>30 32 34 36 38 40 42 44 46 48</t>
+  </si>
+  <si>
     <t>提拉米苏</t>
   </si>
   <si>
-    <t>烤制后散发浓浓的香味，每次制作完成都会吸引一些顾客前往</t>
+    <t>30 33 36 39 42 45 48 51 54</t>
+  </si>
+  <si>
+    <t>烤制后散发浓浓的香味，每次制作完成有一定概率吸引顾客到店</t>
   </si>
   <si>
     <t>Purple</t>
@@ -511,6 +497,9 @@
     <t>爱心蛋糕</t>
   </si>
   <si>
+    <t>55 60 65 70 75 80 85 90</t>
+  </si>
+  <si>
     <t>有了这道菜，餐厅好像都变得更高级了，所有菜品售价提升</t>
   </si>
   <si>
@@ -529,22 +518,22 @@
     <t>西瓜汁</t>
   </si>
   <si>
-    <t>草莓饮料</t>
-  </si>
-  <si>
     <t>新鲜椰汁</t>
   </si>
   <si>
-    <t>冰鲜柠檬水</t>
-  </si>
-  <si>
-    <t>非常开胃，食用后可能会购买更多的菜品</t>
+    <t>幸运草莓汁</t>
+  </si>
+  <si>
+    <t>购买后顾客的口袋里会多出一些金币</t>
   </si>
   <si>
     <t>芒果西米露</t>
   </si>
   <si>
-    <t>食用后心情大好，每次购买都会获得额外的好感度</t>
+    <t>100 110 120 130 140 150 160 170</t>
+  </si>
+  <si>
+    <t>食用后心情大好，每次购买都有几率增加额外的心情</t>
   </si>
   <si>
     <t>Sushi</t>
@@ -553,28 +542,22 @@
     <t>25 100 200 300 500 700 1000</t>
   </si>
   <si>
+    <t>激励，餐厅里有了这道菜，所有菜品制作速度都增加了</t>
+  </si>
+  <si>
+    <t>Icecream</t>
+  </si>
+  <si>
+    <t>迷你小蛋筒</t>
+  </si>
+  <si>
+    <t>旋风冰淇淋</t>
+  </si>
+  <si>
+    <t>顾客食用后，移动速度提高</t>
+  </si>
+  <si>
     <t>食用后会让顾客变得慷慨大方，每次购买都会支付额外的金币</t>
-  </si>
-  <si>
-    <t>激励，餐厅里有了这道菜，所有菜品制作速度都增加了</t>
-  </si>
-  <si>
-    <t>Icecream</t>
-  </si>
-  <si>
-    <t>迷你小蛋筒</t>
-  </si>
-  <si>
-    <t>旋风冰淇淋</t>
-  </si>
-  <si>
-    <t>顾客食用后，移动速度提高</t>
-  </si>
-  <si>
-    <t>幸运冰淇淋</t>
-  </si>
-  <si>
-    <t>食用后顾客的口袋里会多出一些金币</t>
   </si>
   <si>
     <t>等级</t>
@@ -1109,6 +1092,9 @@
     <t>招揽能量恢复速度提高</t>
   </si>
   <si>
+    <t>2000 5000 10000 20000</t>
+  </si>
+  <si>
     <t>Ach_Name011</t>
   </si>
   <si>
@@ -1121,42 +1107,45 @@
     <t>商店能量恢复速度提高</t>
   </si>
   <si>
+    <t>30 100 500</t>
+  </si>
+  <si>
+    <t>5 10 15</t>
+  </si>
+  <si>
+    <t>Ach_Name012</t>
+  </si>
+  <si>
+    <t>Ach_Des012</t>
+  </si>
+  <si>
+    <t>将XX个货架升到满级</t>
+  </si>
+  <si>
+    <t>货架堆叠数量提高</t>
+  </si>
+  <si>
+    <t>1 8 16</t>
+  </si>
+  <si>
+    <t>1 2 3</t>
+  </si>
+  <si>
+    <t>Ach_Name013</t>
+  </si>
+  <si>
+    <t>Ach_Des013</t>
+  </si>
+  <si>
+    <t>XX个顾客购买10个以上商品</t>
+  </si>
+  <si>
+    <t>顾客初始好感度提高</t>
+  </si>
+  <si>
     <t>20 100 500</t>
   </si>
   <si>
-    <t>5 10 15</t>
-  </si>
-  <si>
-    <t>Ach_Name012</t>
-  </si>
-  <si>
-    <t>Ach_Des012</t>
-  </si>
-  <si>
-    <t>将XX个货架升到满级</t>
-  </si>
-  <si>
-    <t>货架堆叠数量提高</t>
-  </si>
-  <si>
-    <t>1 8 16</t>
-  </si>
-  <si>
-    <t>1 2 3</t>
-  </si>
-  <si>
-    <t>Ach_Name013</t>
-  </si>
-  <si>
-    <t>Ach_Des013</t>
-  </si>
-  <si>
-    <t>XX个顾客购买10个以上商品</t>
-  </si>
-  <si>
-    <t>顾客初始好感度提高</t>
-  </si>
-  <si>
     <t>Ach_Name014</t>
   </si>
   <si>
@@ -1226,7 +1215,7 @@
     <t>提高每日挑战奖励荣誉点数</t>
   </si>
   <si>
-    <t>50 200 500</t>
+    <t>100 250 500</t>
   </si>
   <si>
     <t>10 20 30</t>
@@ -1237,10 +1226,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -1259,14 +1248,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1279,31 +1283,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1326,7 +1308,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1340,11 +1322,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1353,6 +1335,22 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1365,21 +1363,12 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -1389,7 +1378,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1452,55 +1441,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1518,7 +1471,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1536,7 +1531,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1548,7 +1567,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1560,31 +1579,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1602,37 +1615,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1750,24 +1739,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1779,6 +1750,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1807,17 +1787,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1832,6 +1801,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1840,10 +1829,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1852,133 +1841,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2530,8 +2519,8 @@
   <sheetPr/>
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2676,7 +2665,7 @@
         <v>22</v>
       </c>
       <c r="D8" s="10">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E8" s="47"/>
       <c r="F8" s="7"/>
@@ -3107,7 +3096,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J17" sqref="J17"/>
+      <selection pane="bottomLeft" activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3120,8 +3109,8 @@
     <col min="6" max="6" width="12.25" style="1" customWidth="1"/>
     <col min="7" max="7" width="8.5" style="1" customWidth="1"/>
     <col min="8" max="9" width="8.375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="32.25" style="1" customWidth="1"/>
-    <col min="11" max="11" width="8.75" style="1" customWidth="1"/>
+    <col min="10" max="10" width="29.25" style="1" customWidth="1"/>
+    <col min="11" max="11" width="33.5" style="1" customWidth="1"/>
     <col min="12" max="12" width="27.5" style="3" customWidth="1"/>
     <col min="13" max="13" width="13.5" style="1" customWidth="1"/>
     <col min="14" max="14" width="6.625" style="1" customWidth="1"/>
@@ -3261,13 +3250,13 @@
         <v>22.3606797749979</v>
       </c>
       <c r="J4" s="5"/>
-      <c r="K4" s="5">
-        <v>0.2</v>
+      <c r="K4" s="5" t="s">
+        <v>93</v>
       </c>
       <c r="L4" s="10"/>
       <c r="M4" s="5"/>
       <c r="N4" s="5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O4" s="5">
         <v>100</v>
@@ -3285,7 +3274,7 @@
         <v>DishName_102</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>92</v>
@@ -3308,13 +3297,13 @@
         <v>17.8885438199983</v>
       </c>
       <c r="J5" s="5"/>
-      <c r="K5" s="5">
-        <v>0.2</v>
+      <c r="K5" s="5" t="s">
+        <v>96</v>
       </c>
       <c r="L5" s="10"/>
       <c r="M5" s="5"/>
       <c r="N5" s="5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O5" s="5">
         <v>100</v>
@@ -3332,7 +3321,7 @@
         <v>DishName_103</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>92</v>
@@ -3355,13 +3344,13 @@
         <v>15.8113883008419</v>
       </c>
       <c r="J6" s="5"/>
-      <c r="K6" s="5">
-        <v>0.2</v>
+      <c r="K6" s="5" t="s">
+        <v>93</v>
       </c>
       <c r="L6" s="10"/>
       <c r="M6" s="5"/>
       <c r="N6" s="5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O6" s="5">
         <v>100</v>
@@ -3379,7 +3368,7 @@
         <v>DishName_104</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>92</v>
@@ -3402,13 +3391,13 @@
         <v>20.2072594216369</v>
       </c>
       <c r="J7" s="5"/>
-      <c r="K7" s="5">
-        <v>0.2</v>
+      <c r="K7" s="5" t="s">
+        <v>96</v>
       </c>
       <c r="L7" s="10"/>
       <c r="M7" s="5"/>
       <c r="N7" s="5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O7" s="5">
         <v>100</v>
@@ -3426,7 +3415,7 @@
         <v>DishName_105</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>92</v>
@@ -3449,13 +3438,13 @@
         <v>28.4604989415154</v>
       </c>
       <c r="J8" s="5"/>
-      <c r="K8" s="5">
-        <v>0.5</v>
+      <c r="K8" s="5" t="s">
+        <v>100</v>
       </c>
       <c r="L8" s="10"/>
       <c r="M8" s="5"/>
       <c r="N8" s="5" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="O8" s="5">
         <v>100</v>
@@ -3473,7 +3462,7 @@
         <v>DishName_106</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>92</v>
@@ -3496,13 +3485,13 @@
         <v>27.3861278752583</v>
       </c>
       <c r="J9" s="5"/>
-      <c r="K9" s="5">
-        <v>0.5</v>
+      <c r="K9" s="5" t="s">
+        <v>103</v>
       </c>
       <c r="L9" s="10"/>
       <c r="M9" s="5"/>
       <c r="N9" s="5" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="O9" s="5">
         <v>100</v>
@@ -3520,7 +3509,7 @@
         <v>DishName_107</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>92</v>
@@ -3543,13 +3532,13 @@
         <v>25.9807621135332</v>
       </c>
       <c r="J10" s="5"/>
-      <c r="K10" s="5">
-        <v>1</v>
+      <c r="K10" s="5" t="s">
+        <v>105</v>
       </c>
       <c r="L10" s="10"/>
       <c r="M10" s="5"/>
       <c r="N10" s="5" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="O10" s="5">
         <v>100</v>
@@ -3567,7 +3556,7 @@
         <v>DishName_108</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>92</v>
@@ -3590,15 +3579,15 @@
         <v>37.2677996249965</v>
       </c>
       <c r="J11" s="5"/>
-      <c r="K11" s="5">
-        <v>0.7</v>
+      <c r="K11" s="5" t="s">
+        <v>107</v>
       </c>
       <c r="L11" s="10" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="M11" s="5"/>
       <c r="N11" s="5" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="O11" s="5">
         <v>100</v>
@@ -3616,7 +3605,7 @@
         <v>DishName_109</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>92</v>
@@ -3639,15 +3628,15 @@
         <v>35.3553390593274</v>
       </c>
       <c r="J12" s="5"/>
-      <c r="K12" s="5">
-        <v>1</v>
+      <c r="K12" s="5" t="s">
+        <v>111</v>
       </c>
       <c r="L12" s="10" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="M12" s="5"/>
       <c r="N12" s="5" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="O12" s="5">
         <v>100</v>
@@ -3665,10 +3654,10 @@
         <v>DishName_201</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="E13" s="5" t="str">
         <f t="shared" si="1"/>
@@ -3687,7 +3676,7 @@
       <c r="L13" s="10"/>
       <c r="M13" s="5"/>
       <c r="N13" s="5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O13" s="5">
         <v>100</v>
@@ -3705,10 +3694,10 @@
         <v>DishName_202</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="E14" s="5" t="str">
         <f t="shared" si="1"/>
@@ -3727,7 +3716,7 @@
       <c r="L14" s="10"/>
       <c r="M14" s="5"/>
       <c r="N14" s="5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O14" s="5">
         <v>100</v>
@@ -3745,10 +3734,10 @@
         <v>DishName_203</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="E15" s="5" t="str">
         <f t="shared" si="1"/>
@@ -3767,7 +3756,7 @@
       <c r="L15" s="10"/>
       <c r="M15" s="5"/>
       <c r="N15" s="5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O15" s="5">
         <v>100</v>
@@ -3784,11 +3773,9 @@
         <f t="shared" si="0"/>
         <v>DishName_204</v>
       </c>
-      <c r="C16" s="5" t="s">
-        <v>111</v>
-      </c>
+      <c r="C16" s="5"/>
       <c r="D16" s="5" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="E16" s="5" t="str">
         <f t="shared" si="1"/>
@@ -3807,7 +3794,7 @@
       <c r="L16" s="10"/>
       <c r="M16" s="5"/>
       <c r="N16" s="5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O16" s="5">
         <v>100</v>
@@ -3825,10 +3812,10 @@
         <v>DishName_205</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="E17" s="5" t="str">
         <f t="shared" si="1"/>
@@ -3843,13 +3830,11 @@
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
-      <c r="K17" s="5">
-        <v>1</v>
-      </c>
+      <c r="K17" s="5"/>
       <c r="L17" s="10"/>
       <c r="M17" s="5"/>
       <c r="N17" s="5" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="O17" s="5">
         <v>100</v>
@@ -3868,7 +3853,7 @@
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="E18" s="5" t="str">
         <f t="shared" si="1"/>
@@ -3887,7 +3872,7 @@
       <c r="L18" s="10"/>
       <c r="M18" s="5"/>
       <c r="N18" s="5" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="O18" s="5">
         <v>100</v>
@@ -3906,7 +3891,7 @@
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="5" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="E19" s="5" t="str">
         <f t="shared" si="1"/>
@@ -3925,7 +3910,7 @@
       <c r="L19" s="10"/>
       <c r="M19" s="5"/>
       <c r="N19" s="5" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="O19" s="5">
         <v>100</v>
@@ -3943,10 +3928,10 @@
         <v>DishName_208</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="E20" s="5" t="str">
         <f t="shared" si="1"/>
@@ -3963,11 +3948,11 @@
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
       <c r="L20" s="10" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="M20" s="5"/>
       <c r="N20" s="5" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="O20" s="5">
         <v>100</v>
@@ -3985,10 +3970,10 @@
         <v>DishName_209</v>
       </c>
       <c r="C21" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D21" s="5" t="s">
         <v>115</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>108</v>
       </c>
       <c r="E21" s="5" t="str">
         <f t="shared" si="1"/>
@@ -4005,15 +3990,15 @@
       </c>
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
-      <c r="K21" s="5">
-        <v>2</v>
+      <c r="K21" s="5" t="s">
+        <v>122</v>
       </c>
       <c r="L21" s="10" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="M21" s="5"/>
       <c r="N21" s="5" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="O21" s="5">
         <v>100</v>
@@ -4032,7 +4017,7 @@
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="5" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="E22" s="5" t="str">
         <f t="shared" si="1"/>
@@ -4051,7 +4036,7 @@
       <c r="L22" s="10"/>
       <c r="M22" s="5"/>
       <c r="N22" s="5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O22" s="5">
         <v>100</v>
@@ -4070,7 +4055,7 @@
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="5" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="E23" s="5" t="str">
         <f t="shared" si="1"/>
@@ -4087,7 +4072,7 @@
       <c r="L23" s="10"/>
       <c r="M23" s="5"/>
       <c r="N23" s="5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O23" s="5">
         <v>100</v>
@@ -4106,7 +4091,7 @@
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="5" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="E24" s="5" t="str">
         <f t="shared" si="1"/>
@@ -4123,7 +4108,7 @@
       <c r="L24" s="10"/>
       <c r="M24" s="5"/>
       <c r="N24" s="5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O24" s="5">
         <v>100</v>
@@ -4142,7 +4127,7 @@
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="5" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="E25" s="5" t="str">
         <f t="shared" si="1"/>
@@ -4159,7 +4144,7 @@
       <c r="L25" s="10"/>
       <c r="M25" s="5"/>
       <c r="N25" s="5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O25" s="5">
         <v>100</v>
@@ -4178,7 +4163,7 @@
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="5" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="E26" s="5" t="str">
         <f t="shared" si="1"/>
@@ -4197,7 +4182,7 @@
       <c r="L26" s="10"/>
       <c r="M26" s="5"/>
       <c r="N26" s="5" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="O26" s="5">
         <v>100</v>
@@ -4216,7 +4201,7 @@
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="5" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="E27" s="5" t="str">
         <f t="shared" si="1"/>
@@ -4233,7 +4218,7 @@
       <c r="L27" s="10"/>
       <c r="M27" s="5"/>
       <c r="N27" s="5" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="O27" s="5">
         <v>100</v>
@@ -4252,7 +4237,7 @@
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="5" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="E28" s="5" t="str">
         <f t="shared" si="1"/>
@@ -4272,13 +4257,13 @@
         <v>3.22748612183951</v>
       </c>
       <c r="J28" s="5" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="K28" s="5"/>
       <c r="L28" s="10"/>
       <c r="M28" s="5"/>
       <c r="N28" s="5" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="O28" s="5">
         <v>100</v>
@@ -4287,7 +4272,7 @@
       <c r="Q28" s="5"/>
       <c r="R28" s="8"/>
     </row>
-    <row r="29" ht="27" spans="1:18">
+    <row r="29" spans="1:18">
       <c r="A29" s="5">
         <v>308</v>
       </c>
@@ -4297,7 +4282,7 @@
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="5" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="E29" s="5" t="str">
         <f t="shared" si="1"/>
@@ -4313,12 +4298,10 @@
       <c r="I29" s="5"/>
       <c r="J29" s="5"/>
       <c r="K29" s="5"/>
-      <c r="L29" s="10" t="s">
-        <v>119</v>
-      </c>
+      <c r="L29" s="10"/>
       <c r="M29" s="5"/>
       <c r="N29" s="5" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="O29" s="5">
         <v>100</v>
@@ -4337,7 +4320,7 @@
       </c>
       <c r="C30" s="5"/>
       <c r="D30" s="5" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="E30" s="5" t="str">
         <f t="shared" si="1"/>
@@ -4354,15 +4337,15 @@
       </c>
       <c r="I30" s="5"/>
       <c r="J30" s="5"/>
-      <c r="K30" s="5">
-        <v>0</v>
+      <c r="K30" s="5" t="s">
+        <v>111</v>
       </c>
       <c r="L30" s="10" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="M30" s="5"/>
       <c r="N30" s="5" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="O30" s="5">
         <v>100</v>
@@ -4381,7 +4364,7 @@
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="5" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="E31" s="5" t="str">
         <f t="shared" si="1"/>
@@ -4398,7 +4381,7 @@
       <c r="L31" s="10"/>
       <c r="M31" s="5"/>
       <c r="N31" s="5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O31" s="5">
         <v>100</v>
@@ -4417,7 +4400,7 @@
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="5" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="E32" s="5" t="str">
         <f t="shared" si="1"/>
@@ -4434,7 +4417,7 @@
       <c r="L32" s="10"/>
       <c r="M32" s="5"/>
       <c r="N32" s="5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O32" s="5">
         <v>100</v>
@@ -4453,7 +4436,7 @@
       </c>
       <c r="C33" s="5"/>
       <c r="D33" s="5" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="E33" s="5" t="str">
         <f t="shared" si="1"/>
@@ -4470,7 +4453,7 @@
       <c r="L33" s="10"/>
       <c r="M33" s="5"/>
       <c r="N33" s="5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O33" s="5">
         <v>100</v>
@@ -4489,7 +4472,7 @@
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="5" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="E34" s="5" t="str">
         <f t="shared" si="1"/>
@@ -4506,7 +4489,7 @@
       <c r="L34" s="10"/>
       <c r="M34" s="5"/>
       <c r="N34" s="5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O34" s="5">
         <v>100</v>
@@ -4525,7 +4508,7 @@
       </c>
       <c r="C35" s="5"/>
       <c r="D35" s="5" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="E35" s="5" t="str">
         <f t="shared" si="1"/>
@@ -4544,7 +4527,7 @@
       <c r="L35" s="10"/>
       <c r="M35" s="5"/>
       <c r="N35" s="5" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="O35" s="5">
         <v>100</v>
@@ -4563,7 +4546,7 @@
       </c>
       <c r="C36" s="5"/>
       <c r="D36" s="5" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="E36" s="5" t="str">
         <f t="shared" si="1"/>
@@ -4580,7 +4563,7 @@
       <c r="L36" s="10"/>
       <c r="M36" s="5"/>
       <c r="N36" s="5" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="O36" s="5">
         <v>100</v>
@@ -4598,10 +4581,10 @@
         <v>DishName_407</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="E37" s="5" t="str">
         <f t="shared" si="1"/>
@@ -4622,7 +4605,7 @@
       <c r="L37" s="10"/>
       <c r="M37" s="5"/>
       <c r="N37" s="5" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="O37" s="5">
         <v>100</v>
@@ -4640,10 +4623,10 @@
         <v>DishName_408</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="E38" s="5" t="str">
         <f t="shared" si="1"/>
@@ -4658,11 +4641,11 @@
       <c r="J38" s="5"/>
       <c r="K38" s="5"/>
       <c r="L38" s="10" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="M38" s="5"/>
       <c r="N38" s="5" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="O38" s="5">
         <v>100</v>
@@ -4679,11 +4662,9 @@
         <f t="shared" si="0"/>
         <v>DishName_409</v>
       </c>
-      <c r="C39" s="5" t="s">
-        <v>125</v>
-      </c>
+      <c r="C39" s="5"/>
       <c r="D39" s="5" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="E39" s="5" t="str">
         <f t="shared" si="1"/>
@@ -4700,15 +4681,15 @@
       </c>
       <c r="I39" s="5"/>
       <c r="J39" s="5"/>
-      <c r="K39" s="5">
-        <v>1</v>
+      <c r="K39" s="5" t="s">
+        <v>111</v>
       </c>
       <c r="L39" s="10" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="M39" s="5"/>
       <c r="N39" s="5" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="O39" s="5">
         <v>100</v>
@@ -4719,2070 +4700,2204 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2">
-    <cfRule type="expression" dxfId="0" priority="544">
+    <cfRule type="expression" dxfId="0" priority="613">
       <formula>$N2="Blue"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="545">
+    <cfRule type="expression" dxfId="1" priority="614">
       <formula>$N2="Green"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="546">
+    <cfRule type="expression" dxfId="2" priority="615">
       <formula>$N2="Purple"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="547">
+    <cfRule type="expression" dxfId="3" priority="616">
       <formula>$N2="Gold"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4">
-    <cfRule type="expression" dxfId="3" priority="568">
+    <cfRule type="expression" dxfId="3" priority="637">
       <formula>#REF!="orange"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4">
-    <cfRule type="expression" dxfId="3" priority="206">
+    <cfRule type="expression" dxfId="3" priority="275">
       <formula>#REF!="orange"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="expression" dxfId="2" priority="217">
+    <cfRule type="expression" dxfId="2" priority="286">
       <formula>#REF!="purple"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L5">
-    <cfRule type="expression" dxfId="0" priority="169">
+    <cfRule type="expression" dxfId="0" priority="238">
       <formula>$N5="blue"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="170">
+    <cfRule type="expression" dxfId="1" priority="239">
       <formula>$N5="green"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="171">
+    <cfRule type="expression" dxfId="2" priority="240">
       <formula>$N5="purple"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="172">
+    <cfRule type="expression" dxfId="3" priority="241">
       <formula>$N5="orange"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="173">
+    <cfRule type="expression" dxfId="3" priority="242">
+      <formula>#REF!="orange"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K6">
+    <cfRule type="expression" dxfId="3" priority="35">
       <formula>#REF!="orange"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6">
-    <cfRule type="expression" dxfId="0" priority="196">
+    <cfRule type="expression" dxfId="0" priority="265">
       <formula>$N6="blue"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="197">
+    <cfRule type="expression" dxfId="1" priority="266">
       <formula>$N6="green"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="198">
+    <cfRule type="expression" dxfId="2" priority="267">
       <formula>$N6="purple"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="199">
+    <cfRule type="expression" dxfId="3" priority="268">
       <formula>$N6="orange"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="200">
+    <cfRule type="expression" dxfId="3" priority="269">
       <formula>#REF!="orange"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
+    <cfRule type="expression" dxfId="0" priority="950">
+      <formula>$N7="blue"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="951">
+      <formula>$N7="green"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="952">
+      <formula>$N7="purple"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="953">
+      <formula>$N7="orange"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="954">
+      <formula>#REF!="orange"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="955" operator="equal">
+      <formula>"blue"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="956" operator="equal">
+      <formula>"green"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="957" operator="equal">
+      <formula>"white"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F7">
+    <cfRule type="expression" dxfId="3" priority="958">
+      <formula>#REF!="orange"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K7">
+    <cfRule type="expression" dxfId="3" priority="57">
+      <formula>#REF!="orange"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="56">
+      <formula>$N7="orange"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="55">
+      <formula>$N7="purple"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="54">
+      <formula>$N7="green"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="53">
+      <formula>$N7="blue"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L7">
+    <cfRule type="expression" dxfId="0" priority="270">
+      <formula>$N7="blue"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="271">
+      <formula>$N7="green"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="272">
+      <formula>$N7="purple"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="273">
+      <formula>$N7="orange"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="274">
+      <formula>#REF!="orange"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8">
+    <cfRule type="expression" dxfId="0" priority="960">
+      <formula>$N8="blue"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="961">
+      <formula>$N8="green"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="962">
+      <formula>$N8="purple"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="963">
+      <formula>$N8="orange"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="964">
+      <formula>#REF!="orange"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="965" operator="equal">
+      <formula>"blue"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="966" operator="equal">
+      <formula>"green"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="967" operator="equal">
+      <formula>"white"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F8">
+    <cfRule type="expression" dxfId="3" priority="976">
+      <formula>#REF!="orange"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K8">
+    <cfRule type="expression" dxfId="3" priority="69">
+      <formula>#REF!="orange"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="68" operator="equal">
+      <formula>"white"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="67" operator="equal">
+      <formula>"green"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="66" operator="equal">
+      <formula>"blue"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L8">
+    <cfRule type="expression" dxfId="0" priority="230">
+      <formula>$N8="blue"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="231">
+      <formula>$N8="green"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="232">
+      <formula>$N8="purple"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="233">
+      <formula>$N8="orange"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="234">
+      <formula>#REF!="orange"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D9">
+    <cfRule type="expression" dxfId="0" priority="853">
+      <formula>$N9="blue"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="854">
+      <formula>$N9="green"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="855">
+      <formula>$N9="purple"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="856">
+      <formula>$N9="orange"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="857">
+      <formula>#REF!="orange"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="858" operator="equal">
+      <formula>"blue"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="859" operator="equal">
+      <formula>"green"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="860" operator="equal">
+      <formula>"white"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F9">
+    <cfRule type="expression" dxfId="3" priority="851">
+      <formula>#REF!="orange"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K9">
+    <cfRule type="cellIs" priority="65" operator="equal">
+      <formula>"white"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="64" operator="equal">
+      <formula>"green"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="63" operator="equal">
+      <formula>"blue"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="62">
+      <formula>#REF!="orange"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="61">
+      <formula>$N9="orange"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="60">
+      <formula>$N9="purple"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="59">
+      <formula>$N9="green"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="58">
+      <formula>$N9="blue"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L9">
+    <cfRule type="expression" dxfId="0" priority="225">
+      <formula>$N9="blue"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="226">
+      <formula>$N9="green"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="227">
+      <formula>$N9="purple"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="228">
+      <formula>$N9="orange"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="229">
+      <formula>#REF!="orange"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D10">
+    <cfRule type="expression" dxfId="0" priority="861">
+      <formula>$N10="blue"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="862">
+      <formula>$N10="green"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="863">
+      <formula>$N10="purple"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="864">
+      <formula>$N10="orange"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="865">
+      <formula>#REF!="orange"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="866" operator="equal">
+      <formula>"blue"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="867" operator="equal">
+      <formula>"green"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="868" operator="equal">
+      <formula>"white"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F10">
+    <cfRule type="expression" dxfId="3" priority="584">
+      <formula>#REF!="orange"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L10">
+    <cfRule type="expression" dxfId="0" priority="220">
+      <formula>$N10="blue"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="221">
+      <formula>$N10="green"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="222">
+      <formula>$N10="purple"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="223">
+      <formula>$N10="orange"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="224">
+      <formula>$N8="orange"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D11">
     <cfRule type="expression" dxfId="0" priority="881">
+      <formula>$N11="blue"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="882">
+      <formula>$N11="green"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="883">
+      <formula>$N11="purple"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="884">
+      <formula>$N11="orange"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="885">
+      <formula>$N9="orange"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="886" operator="equal">
+      <formula>"blue"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="887" operator="equal">
+      <formula>"green"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="888" operator="equal">
+      <formula>"white"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F11">
+    <cfRule type="expression" dxfId="3" priority="870">
+      <formula>$N9="orange"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L11">
+    <cfRule type="cellIs" dxfId="4" priority="149" operator="equal">
+      <formula>"blue"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="150" operator="equal">
+      <formula>"green"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="151" operator="equal">
+      <formula>"white"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="152">
+      <formula>$N11="blue"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="153">
+      <formula>$N11="green"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="154">
+      <formula>$N11="purple"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="155">
+      <formula>$N11="orange"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="156">
+      <formula>#REF!="orange"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="157">
+      <formula>$N11="Blue"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="158">
+      <formula>$N11="Green"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="159">
+      <formula>$N11="Purple"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="160">
+      <formula>$N11="Gold"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12">
+    <cfRule type="expression" dxfId="0" priority="889">
+      <formula>$N12="blue"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="890">
+      <formula>$N12="green"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="891">
+      <formula>$N12="purple"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="892">
+      <formula>$N12="orange"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="893">
+      <formula>#REF!="orange"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="894" operator="equal">
+      <formula>"blue"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="895" operator="equal">
+      <formula>"green"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="896" operator="equal">
+      <formula>"white"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F12">
+    <cfRule type="expression" dxfId="3" priority="869">
+      <formula>#REF!="orange"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K12">
+    <cfRule type="expression" dxfId="3" priority="5">
+      <formula>$N11="orange"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>$N12="orange"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>$N12="purple"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$N12="green"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$N12="blue"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L12">
+    <cfRule type="expression" dxfId="0" priority="250">
+      <formula>$N12="blue"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="251">
+      <formula>$N12="green"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="252">
+      <formula>$N12="purple"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="253">
+      <formula>$N12="orange"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="254">
+      <formula>$N11="orange"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D13">
+    <cfRule type="expression" dxfId="0" priority="968">
+      <formula>$N13="blue"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="969">
+      <formula>$N13="green"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="970">
+      <formula>$N13="purple"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="971">
+      <formula>$N13="orange"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="972">
+      <formula>#REF!="orange"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="973" operator="equal">
+      <formula>"blue"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="974" operator="equal">
+      <formula>"green"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="975" operator="equal">
+      <formula>"white"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F13">
+    <cfRule type="expression" dxfId="3" priority="107">
+      <formula>#REF!="orange"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L13">
+    <cfRule type="expression" dxfId="0" priority="260">
+      <formula>$N13="blue"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="261">
+      <formula>$N13="green"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="262">
+      <formula>$N13="purple"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="263">
+      <formula>$N13="orange"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="264">
+      <formula>#REF!="orange"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D14">
+    <cfRule type="expression" dxfId="0" priority="843">
+      <formula>$N14="blue"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="844">
+      <formula>$N14="green"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="845">
+      <formula>$N14="purple"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="846">
+      <formula>$N14="orange"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="847">
+      <formula>#REF!="orange"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="848" operator="equal">
+      <formula>"blue"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="849" operator="equal">
+      <formula>"green"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="850" operator="equal">
+      <formula>"white"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D15">
+    <cfRule type="expression" dxfId="0" priority="979">
+      <formula>$N15="blue"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="980">
+      <formula>$N15="green"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="981">
+      <formula>$N15="purple"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="982">
+      <formula>$N15="orange"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="983">
+      <formula>$N13="orange"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="984" operator="equal">
+      <formula>"blue"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="985" operator="equal">
+      <formula>"green"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="986" operator="equal">
+      <formula>"white"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16">
+    <cfRule type="expression" dxfId="0" priority="997">
+      <formula>$N16="blue"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="998">
+      <formula>$N16="green"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="999">
+      <formula>$N16="purple"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1000">
+      <formula>$N16="orange"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1001">
+      <formula>$N15="orange"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="1002" operator="equal">
+      <formula>"blue"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="1003" operator="equal">
+      <formula>"green"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="1004" operator="equal">
+      <formula>"white"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F16">
+    <cfRule type="expression" dxfId="3" priority="110">
+      <formula>#REF!="orange"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D17">
+    <cfRule type="expression" dxfId="0" priority="1005">
+      <formula>$N17="blue"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="1006">
+      <formula>$N17="green"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="1007">
+      <formula>$N17="purple"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1008">
+      <formula>$N17="orange"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1009">
+      <formula>#REF!="orange"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="1010" operator="equal">
+      <formula>"blue"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="1011" operator="equal">
+      <formula>"green"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="1012" operator="equal">
+      <formula>"white"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F17">
+    <cfRule type="expression" dxfId="3" priority="112">
+      <formula>#REF!="orange"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D18">
+    <cfRule type="expression" dxfId="0" priority="1105">
+      <formula>$N18="blue"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="1106">
+      <formula>$N18="green"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="1107">
+      <formula>$N18="purple"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1108">
+      <formula>$N18="orange"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1109">
+      <formula>#REF!="orange"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="1110" operator="equal">
+      <formula>"blue"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="1111" operator="equal">
+      <formula>"green"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="1112" operator="equal">
+      <formula>"white"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F18">
+    <cfRule type="expression" dxfId="3" priority="108">
+      <formula>#REF!="orange"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F19">
+    <cfRule type="expression" dxfId="3" priority="100">
+      <formula>#REF!="orange"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F20">
+    <cfRule type="expression" dxfId="3" priority="109">
+      <formula>$N18="orange"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D21">
+    <cfRule type="expression" dxfId="0" priority="1080">
+      <formula>$N21="blue"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="1081">
+      <formula>$N21="green"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="1082">
+      <formula>$N21="purple"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1083">
+      <formula>$N21="orange"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1084">
+      <formula>$N19="orange"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="1085" operator="equal">
+      <formula>"blue"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="1086" operator="equal">
+      <formula>"green"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="1087" operator="equal">
+      <formula>"white"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F21">
+    <cfRule type="expression" dxfId="3" priority="1096">
+      <formula>$N19="orange"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D22">
+    <cfRule type="expression" dxfId="0" priority="1097">
+      <formula>$N22="blue"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="1098">
+      <formula>$N22="green"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="1099">
+      <formula>$N22="purple"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1100">
+      <formula>$N22="orange"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1101">
+      <formula>$N17="orange"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="1102" operator="equal">
+      <formula>"blue"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="1103" operator="equal">
+      <formula>"green"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="1104" operator="equal">
+      <formula>"white"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F22">
+    <cfRule type="expression" dxfId="3" priority="94">
+      <formula>#REF!="orange"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D25">
+    <cfRule type="expression" dxfId="0" priority="1088">
+      <formula>$N25="blue"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="1089">
+      <formula>$N25="green"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="1090">
+      <formula>$N25="purple"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1091">
+      <formula>$N25="orange"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1092">
+      <formula>#REF!="orange"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="1093" operator="equal">
+      <formula>"blue"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="1094" operator="equal">
+      <formula>"green"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="1095" operator="equal">
+      <formula>"white"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F25">
+    <cfRule type="expression" dxfId="3" priority="97">
+      <formula>#REF!="orange"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D26">
+    <cfRule type="expression" dxfId="0" priority="1023">
+      <formula>$N26="blue"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="1024">
+      <formula>$N26="green"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="1025">
+      <formula>$N26="purple"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1026">
+      <formula>$N26="orange"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1027">
+      <formula>#REF!="orange"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="1028" operator="equal">
+      <formula>"blue"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="1029" operator="equal">
+      <formula>"green"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="1030" operator="equal">
+      <formula>"white"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F26">
+    <cfRule type="expression" dxfId="3" priority="99">
+      <formula>#REF!="orange"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F27">
+    <cfRule type="expression" dxfId="3" priority="95">
+      <formula>#REF!="orange"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F28">
+    <cfRule type="expression" dxfId="3" priority="87">
+      <formula>#REF!="orange"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I28">
+    <cfRule type="expression" dxfId="3" priority="134">
+      <formula>#REF!="orange"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F29">
+    <cfRule type="expression" dxfId="3" priority="96">
+      <formula>$N27="orange"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D30">
+    <cfRule type="expression" dxfId="0" priority="287">
+      <formula>$N30="blue"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="288">
+      <formula>$N30="green"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="289">
+      <formula>$N30="purple"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="290">
+      <formula>$N30="orange"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="291">
+      <formula>#REF!="orange"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="292" operator="equal">
+      <formula>"blue"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="293" operator="equal">
+      <formula>"green"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="294" operator="equal">
+      <formula>"white"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F30">
+    <cfRule type="expression" dxfId="3" priority="924">
+      <formula>#REF!="orange"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K30">
+    <cfRule type="expression" dxfId="3" priority="34">
+      <formula>$N29="orange"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="33">
+      <formula>$N30="orange"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="32">
+      <formula>$N30="purple"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="31">
+      <formula>$N30="green"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="30">
+      <formula>$N30="blue"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D31">
+    <cfRule type="expression" dxfId="0" priority="934">
+      <formula>$N31="blue"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="935">
+      <formula>$N31="green"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="936">
+      <formula>$N31="purple"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="937">
+      <formula>$N31="orange"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="938">
+      <formula>$N26="orange"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="939" operator="equal">
+      <formula>"blue"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="940" operator="equal">
+      <formula>"green"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="941" operator="equal">
+      <formula>"white"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F31">
+    <cfRule type="expression" dxfId="3" priority="77">
+      <formula>#REF!="orange"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D32">
+    <cfRule type="expression" dxfId="0" priority="1058">
+      <formula>$N32="blue"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="1059">
+      <formula>$N32="green"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="1060">
+      <formula>$N32="purple"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1061">
+      <formula>$N32="orange"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1062">
+      <formula>$N28="orange"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="1063" operator="equal">
+      <formula>"blue"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="1064" operator="equal">
+      <formula>"green"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="1065" operator="equal">
+      <formula>"white"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D33">
+    <cfRule type="expression" dxfId="0" priority="1067">
+      <formula>$N33="blue"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="1068">
+      <formula>$N33="green"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="1069">
+      <formula>$N33="purple"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1070">
+      <formula>$N33="orange"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1071">
+      <formula>$N31="orange"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="1072" operator="equal">
+      <formula>"blue"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="1073" operator="equal">
+      <formula>"green"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="1074" operator="equal">
+      <formula>"white"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L33">
+    <cfRule type="cellIs" dxfId="4" priority="235" operator="equal">
+      <formula>"blue"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="236" operator="equal">
+      <formula>"green"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="237" operator="equal">
+      <formula>"white"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D34">
+    <cfRule type="expression" dxfId="0" priority="334">
+      <formula>$N34="blue"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="343">
+      <formula>$N34="green"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="352">
+      <formula>$N34="purple"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="361">
+      <formula>$N34="orange"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="370">
+      <formula>#REF!="orange"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="379" operator="equal">
+      <formula>"blue"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="388" operator="equal">
+      <formula>"green"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="397" operator="equal">
+      <formula>"white"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F34">
+    <cfRule type="expression" dxfId="3" priority="80">
+      <formula>#REF!="orange"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L34">
+    <cfRule type="cellIs" dxfId="4" priority="168" operator="equal">
+      <formula>"blue"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="176" operator="equal">
+      <formula>"green"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="184" operator="equal">
+      <formula>"white"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="192">
+      <formula>$N34="Blue"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="200">
+      <formula>$N34="Green"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="208">
+      <formula>$N34="Purple"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="216">
+      <formula>$N34="Gold"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O34">
+    <cfRule type="cellIs" dxfId="4" priority="307" operator="equal">
+      <formula>"blue"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="316" operator="equal">
+      <formula>"green"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="325" operator="equal">
+      <formula>"white"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D35">
+    <cfRule type="expression" dxfId="0" priority="331">
+      <formula>$N35="blue"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="340">
+      <formula>$N35="green"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="349">
+      <formula>$N35="purple"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="358">
+      <formula>$N35="orange"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="367">
+      <formula>$N34="orange"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="376" operator="equal">
+      <formula>"blue"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="385" operator="equal">
+      <formula>"green"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="394" operator="equal">
+      <formula>"white"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F35">
+    <cfRule type="expression" dxfId="3" priority="82">
+      <formula>#REF!="orange"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L35">
+    <cfRule type="cellIs" dxfId="4" priority="166" operator="equal">
+      <formula>"blue"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="174" operator="equal">
+      <formula>"green"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="182" operator="equal">
+      <formula>"white"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="190">
+      <formula>$N35="Blue"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="198">
+      <formula>$N35="Green"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="206">
+      <formula>$N35="Purple"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="214">
+      <formula>$N35="Gold"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O35">
+    <cfRule type="cellIs" dxfId="4" priority="304" operator="equal">
+      <formula>"blue"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="313" operator="equal">
+      <formula>"green"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="322" operator="equal">
+      <formula>"white"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D36">
+    <cfRule type="expression" dxfId="0" priority="330">
+      <formula>$N36="blue"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="339">
+      <formula>$N36="green"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="348">
+      <formula>$N36="purple"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="357">
+      <formula>$N36="orange"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="366">
+      <formula>#REF!="orange"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="375" operator="equal">
+      <formula>"blue"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="384" operator="equal">
+      <formula>"green"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="393" operator="equal">
+      <formula>"white"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F36">
+    <cfRule type="expression" dxfId="3" priority="78">
+      <formula>#REF!="orange"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L36">
+    <cfRule type="cellIs" dxfId="4" priority="142" operator="equal">
+      <formula>"blue"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="143" operator="equal">
+      <formula>"green"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="144" operator="equal">
+      <formula>"white"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="145">
+      <formula>$N36="Blue"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="146">
+      <formula>$N36="Green"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="147">
+      <formula>$N36="Purple"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="148">
+      <formula>$N36="Gold"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O36">
+    <cfRule type="cellIs" dxfId="4" priority="303" operator="equal">
+      <formula>"blue"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="312" operator="equal">
+      <formula>"green"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="321" operator="equal">
+      <formula>"white"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C37">
+    <cfRule type="cellIs" dxfId="4" priority="127" operator="equal">
+      <formula>"blue"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="128" operator="equal">
+      <formula>"green"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="129" operator="equal">
+      <formula>"white"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="130">
+      <formula>$N37="Blue"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="131">
+      <formula>$N37="Green"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="132">
+      <formula>$N37="Purple"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="133">
+      <formula>$N37="Gold"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D37">
+    <cfRule type="expression" dxfId="0" priority="329">
+      <formula>$N37="blue"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="338">
+      <formula>$N37="green"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="347">
+      <formula>$N37="purple"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="356">
+      <formula>$N37="orange"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="365">
+      <formula>#REF!="orange"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="374" operator="equal">
+      <formula>"blue"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="383" operator="equal">
+      <formula>"green"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="392" operator="equal">
+      <formula>"white"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F37">
+    <cfRule type="expression" dxfId="3" priority="70">
+      <formula>#REF!="orange"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G37:H37">
+    <cfRule type="cellIs" dxfId="4" priority="120" operator="equal">
+      <formula>"blue"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="121" operator="equal">
+      <formula>"green"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="122" operator="equal">
+      <formula>"white"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="123">
+      <formula>$N37="Blue"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="124">
+      <formula>$N37="Green"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="125">
+      <formula>$N37="Purple"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="126">
+      <formula>$N37="Gold"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L37">
+    <cfRule type="cellIs" dxfId="4" priority="164" operator="equal">
+      <formula>"blue"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="172" operator="equal">
+      <formula>"green"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="180" operator="equal">
+      <formula>"white"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="188">
+      <formula>$N37="Blue"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="196">
+      <formula>$N37="Green"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="204">
+      <formula>$N37="Purple"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="212">
+      <formula>$N37="Gold"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O37">
+    <cfRule type="cellIs" dxfId="4" priority="302" operator="equal">
+      <formula>"blue"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="311" operator="equal">
+      <formula>"green"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="320" operator="equal">
+      <formula>"white"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D38">
+    <cfRule type="expression" dxfId="0" priority="328">
+      <formula>$N38="blue"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="337">
+      <formula>$N38="green"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="346">
+      <formula>$N38="purple"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="355">
+      <formula>$N38="orange"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="364">
+      <formula>$N35="orange"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="373" operator="equal">
+      <formula>"blue"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="382" operator="equal">
+      <formula>"green"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="391" operator="equal">
+      <formula>"white"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F38">
+    <cfRule type="expression" dxfId="3" priority="79">
+      <formula>$N36="orange"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L38">
+    <cfRule type="cellIs" dxfId="4" priority="135" operator="equal">
+      <formula>"blue"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="136" operator="equal">
+      <formula>"green"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="137" operator="equal">
+      <formula>"white"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="138">
+      <formula>$N38="Blue"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="139">
+      <formula>$N38="Green"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="140">
+      <formula>$N38="Purple"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="141">
+      <formula>$N38="Gold"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O38">
+    <cfRule type="cellIs" dxfId="4" priority="301" operator="equal">
+      <formula>"blue"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="310" operator="equal">
+      <formula>"green"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="319" operator="equal">
+      <formula>"white"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D39">
+    <cfRule type="expression" dxfId="0" priority="326">
+      <formula>$N39="blue"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="335">
+      <formula>$N39="green"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="344">
+      <formula>$N39="purple"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="353">
+      <formula>$N39="orange"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="362">
+      <formula>$N37="orange"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="371" operator="equal">
+      <formula>"blue"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="380" operator="equal">
+      <formula>"green"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="389" operator="equal">
+      <formula>"white"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F39">
+    <cfRule type="expression" dxfId="3" priority="533">
+      <formula>$N37="orange"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K39">
+    <cfRule type="cellIs" priority="17" operator="equal">
+      <formula>"white"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="16" operator="equal">
+      <formula>"green"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="15" operator="equal">
+      <formula>"blue"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="14">
+      <formula>$N39="Gold"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="13">
+      <formula>$N39="Purple"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="12">
+      <formula>$N39="Green"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="11">
+      <formula>$N39="Blue"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="10">
+      <formula>$N38="orange"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="9">
+      <formula>$N39="orange"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="8">
+      <formula>$N39="purple"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="7">
+      <formula>$N39="green"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="6">
+      <formula>$N39="blue"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L39">
+    <cfRule type="cellIs" dxfId="4" priority="161" operator="equal">
+      <formula>"blue"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="169" operator="equal">
+      <formula>"green"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="177" operator="equal">
+      <formula>"white"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="185">
+      <formula>$N39="Blue"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="193">
+      <formula>$N39="Green"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="201">
+      <formula>$N39="Purple"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="209">
+      <formula>$N39="Gold"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O39">
+    <cfRule type="cellIs" dxfId="4" priority="299" operator="equal">
+      <formula>"blue"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="308" operator="equal">
+      <formula>"green"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="317" operator="equal">
+      <formula>"white"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4:A39">
+    <cfRule type="expression" dxfId="0" priority="650">
+      <formula>$N4="blue"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="651">
+      <formula>$N4="green"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="652">
+      <formula>$N4="purple"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="653">
+      <formula>$N4="orange"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="654">
+      <formula>#REF!="orange"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="655" operator="equal">
+      <formula>"blue"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="656" operator="equal">
+      <formula>"green"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="657" operator="equal">
+      <formula>"white"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C4:C7">
+    <cfRule type="expression" dxfId="0" priority="633">
+      <formula>$N4="blue"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="634">
+      <formula>$N4="green"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="635">
+      <formula>$N4="purple"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="636">
+      <formula>$N4="orange"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="639" operator="equal">
+      <formula>"blue"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="640" operator="equal">
+      <formula>"green"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="641" operator="equal">
+      <formula>"white"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C8:C10">
+    <cfRule type="expression" dxfId="0" priority="603">
+      <formula>$N8="blue"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="604">
+      <formula>$N8="green"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="605">
+      <formula>$N8="purple"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="606">
+      <formula>$N8="orange"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="607" operator="equal">
+      <formula>"blue"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="608" operator="equal">
+      <formula>"green"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="609" operator="equal">
+      <formula>"white"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5:D6">
+    <cfRule type="expression" dxfId="0" priority="942">
+      <formula>$N5="blue"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="943">
+      <formula>$N5="green"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="944">
+      <formula>$N5="purple"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="945">
+      <formula>$N5="orange"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="946">
+      <formula>$N3="orange"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="947" operator="equal">
+      <formula>"blue"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="948" operator="equal">
+      <formula>"green"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="949" operator="equal">
+      <formula>"white"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D19:D20">
+    <cfRule type="expression" dxfId="0" priority="642">
+      <formula>$N19="blue"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="643">
+      <formula>$N19="green"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="644">
+      <formula>$N19="purple"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="645">
+      <formula>$N19="orange"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="646">
+      <formula>$N16="orange"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="647" operator="equal">
+      <formula>"blue"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="648" operator="equal">
+      <formula>"green"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="649" operator="equal">
+      <formula>"white"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D23:D24">
+    <cfRule type="expression" dxfId="0" priority="1015">
+      <formula>$N23="blue"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="1016">
+      <formula>$N23="green"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="1017">
+      <formula>$N23="purple"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1018">
+      <formula>$N23="orange"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1019">
+      <formula>$N19="orange"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="1020" operator="equal">
+      <formula>"blue"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="1021" operator="equal">
+      <formula>"green"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="1022" operator="equal">
+      <formula>"white"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D27:D29">
+    <cfRule type="expression" dxfId="0" priority="1042">
+      <formula>$N27="blue"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="1043">
+      <formula>$N27="green"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="1044">
+      <formula>$N27="purple"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1045">
+      <formula>$N27="orange"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1046">
+      <formula>$N23="orange"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="1047" operator="equal">
+      <formula>"blue"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="1048" operator="equal">
+      <formula>"green"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="1049" operator="equal">
+      <formula>"white"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5:F6">
+    <cfRule type="expression" dxfId="3" priority="959">
+      <formula>$N3="orange"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F14:F15">
+    <cfRule type="expression" dxfId="3" priority="111">
+      <formula>$N12="orange"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F17:F19">
+    <cfRule type="cellIs" priority="103" operator="equal">
+      <formula>"white"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="102" operator="equal">
+      <formula>"green"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="101" operator="equal">
+      <formula>"blue"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F23:F24">
+    <cfRule type="expression" dxfId="3" priority="98">
+      <formula>$N21="orange"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F26:F28">
+    <cfRule type="cellIs" priority="90" operator="equal">
+      <formula>"white"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="89" operator="equal">
+      <formula>"green"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="88" operator="equal">
+      <formula>"blue"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F31:F38">
+    <cfRule type="expression" dxfId="3" priority="86">
+      <formula>$N31="Gold"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="85">
+      <formula>$N31="Purple"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="84">
+      <formula>$N31="Green"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="83">
+      <formula>$N31="Blue"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F32:F33">
+    <cfRule type="expression" dxfId="3" priority="81">
+      <formula>$N30="orange"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F35:F37">
+    <cfRule type="cellIs" priority="73" operator="equal">
+      <formula>"white"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="72" operator="equal">
+      <formula>"green"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="71" operator="equal">
+      <formula>"blue"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L8:L10">
+    <cfRule type="cellIs" dxfId="4" priority="217" operator="equal">
+      <formula>"blue"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="218" operator="equal">
+      <formula>"green"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="219" operator="equal">
+      <formula>"white"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N33:N35">
+    <cfRule type="expression" dxfId="0" priority="295">
+      <formula>$N33="Blue"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="296">
+      <formula>$N33="Green"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="297">
+      <formula>$N33="Purple"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="298">
+      <formula>$N33="Gold"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O7:O33">
+    <cfRule type="cellIs" dxfId="4" priority="578" operator="equal">
+      <formula>"blue"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="579" operator="equal">
+      <formula>"green"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="580" operator="equal">
+      <formula>"white"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M1:P32 A1:I30 A31:E31 G31:I33 J1:K33 B32:E33 M33 O33:P33 A40:K1048576 M40:P1048576 A32:A39">
+    <cfRule type="expression" dxfId="0" priority="763">
+      <formula>$N1="Blue"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="764">
+      <formula>$N1="Green"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="765">
+      <formula>$N1="Purple"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="767">
+      <formula>$N1="Gold"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L1:L10 L12:L33 L40:L1048576">
+    <cfRule type="expression" dxfId="0" priority="243">
+      <formula>$N1="Blue"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="244">
+      <formula>$N1="Green"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="245">
+      <formula>$N1="Purple"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="246">
+      <formula>$N1="Gold"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A40:K1048576 I5:I12 J5:J7 E11:H12 J11:J12 C11:C32 B4:B33 H13:J32 E13:E20 G13:G20 E21:G21 E22:E29 G22:G32 C2 E30:F30 E31:E33 D2:J4 A2:B3 E8:E10 E5:H7 M40:M1048576 O40:AB1048576 S33:AB33 M2:M7 O2:AB6 P7:AB32 M11:M32 K2:K7 K11:K32">
+    <cfRule type="cellIs" dxfId="4" priority="770" operator="equal">
+      <formula>"blue"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="771" operator="equal">
+      <formula>"green"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="772" operator="equal">
+      <formula>"white"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L2:L7 L40:L1048576 L12:L32">
+    <cfRule type="cellIs" dxfId="4" priority="247" operator="equal">
+      <formula>"blue"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="248" operator="equal">
+      <formula>"green"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="249" operator="equal">
+      <formula>"white"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4:B33 D4:K4 I5:I12 E5:E33 M4 O4:AB4">
+    <cfRule type="expression" dxfId="3" priority="833">
+      <formula>#REF!="orange"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G5:H5 M5 K5">
+    <cfRule type="expression" dxfId="0" priority="750">
+      <formula>$N5="blue"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="751">
+      <formula>$N5="green"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="752">
+      <formula>$N5="purple"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="753">
+      <formula>$N5="orange"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="754">
+      <formula>#REF!="orange"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G6:H6 M6">
+    <cfRule type="expression" dxfId="0" priority="823">
+      <formula>$N6="blue"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="824">
+      <formula>$N6="green"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="825">
+      <formula>$N6="purple"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="826">
+      <formula>$N6="orange"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="827">
+      <formula>#REF!="orange"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G7:H7 M7">
+    <cfRule type="expression" dxfId="0" priority="828">
       <formula>$N7="blue"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="882">
+    <cfRule type="expression" dxfId="1" priority="829">
       <formula>$N7="green"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="883">
+    <cfRule type="expression" dxfId="2" priority="830">
       <formula>$N7="purple"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="884">
+    <cfRule type="expression" dxfId="3" priority="831">
       <formula>$N7="orange"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="885">
-      <formula>#REF!="orange"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="886" operator="equal">
-      <formula>"blue"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="887" operator="equal">
-      <formula>"green"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="888" operator="equal">
-      <formula>"white"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F7">
-    <cfRule type="expression" dxfId="3" priority="889">
-      <formula>#REF!="orange"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L7">
-    <cfRule type="expression" dxfId="0" priority="201">
-      <formula>$N7="blue"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="202">
-      <formula>$N7="green"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="203">
-      <formula>$N7="purple"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="204">
-      <formula>$N7="orange"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="205">
-      <formula>#REF!="orange"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D8">
-    <cfRule type="expression" dxfId="0" priority="891">
+    <cfRule type="expression" dxfId="3" priority="832">
+      <formula>#REF!="orange"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F8:H10 J8:J9 J10:K10 M8:M10">
+    <cfRule type="cellIs" dxfId="4" priority="585" operator="equal">
+      <formula>"blue"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="586" operator="equal">
+      <formula>"green"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="587" operator="equal">
+      <formula>"white"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G8:H8 M8">
+    <cfRule type="expression" dxfId="0" priority="598">
       <formula>$N8="blue"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="892">
+    <cfRule type="expression" dxfId="1" priority="599">
       <formula>$N8="green"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="893">
+    <cfRule type="expression" dxfId="2" priority="600">
       <formula>$N8="purple"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="894">
+    <cfRule type="expression" dxfId="3" priority="601">
       <formula>$N8="orange"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="895">
-      <formula>#REF!="orange"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="896" operator="equal">
-      <formula>"blue"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="897" operator="equal">
-      <formula>"green"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="898" operator="equal">
-      <formula>"white"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F8">
-    <cfRule type="expression" dxfId="3" priority="907">
-      <formula>#REF!="orange"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L8">
-    <cfRule type="expression" dxfId="0" priority="161">
-      <formula>$N8="blue"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="162">
-      <formula>$N8="green"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="163">
-      <formula>$N8="purple"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="164">
+    <cfRule type="expression" dxfId="3" priority="602">
+      <formula>#REF!="orange"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G9:H9 M9">
+    <cfRule type="expression" dxfId="0" priority="593">
+      <formula>$N9="blue"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="594">
+      <formula>$N9="green"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="595">
+      <formula>$N9="purple"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="596">
+      <formula>$N9="orange"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="597">
+      <formula>#REF!="orange"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G10:H10 M10 K10">
+    <cfRule type="expression" dxfId="0" priority="588">
+      <formula>$N10="blue"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="589">
+      <formula>$N10="green"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="590">
+      <formula>$N10="purple"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="591">
+      <formula>$N10="orange"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="592">
       <formula>$N8="orange"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="165">
-      <formula>#REF!="orange"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D9">
-    <cfRule type="expression" dxfId="0" priority="784">
-      <formula>$N9="blue"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="785">
-      <formula>$N9="green"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="786">
-      <formula>$N9="purple"</formula>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C11 G11:H11 M11 K11">
+    <cfRule type="expression" dxfId="0" priority="871">
+      <formula>$N11="blue"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="872">
+      <formula>$N11="green"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="873">
+      <formula>$N11="purple"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="874">
+      <formula>$N11="orange"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="875">
+      <formula>$N10="orange"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12 G12:H12 M12">
+    <cfRule type="expression" dxfId="0" priority="783">
+      <formula>$N12="blue"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="784">
+      <formula>$N12="green"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="785">
+      <formula>$N12="purple"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="786">
+      <formula>$N12="orange"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="3" priority="787">
-      <formula>$N9="orange"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="788">
-      <formula>#REF!="orange"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="789" operator="equal">
-      <formula>"blue"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="790" operator="equal">
-      <formula>"green"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="791" operator="equal">
-      <formula>"white"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F9">
-    <cfRule type="expression" dxfId="3" priority="782">
-      <formula>#REF!="orange"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L9">
-    <cfRule type="expression" dxfId="0" priority="156">
-      <formula>$N9="blue"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="157">
-      <formula>$N9="green"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="158">
-      <formula>$N9="purple"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="159">
-      <formula>$N9="orange"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="160">
-      <formula>#REF!="orange"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D10">
-    <cfRule type="expression" dxfId="0" priority="792">
-      <formula>$N10="blue"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="793">
-      <formula>$N10="green"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="794">
-      <formula>$N10="purple"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="795">
-      <formula>$N10="orange"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="796">
-      <formula>#REF!="orange"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="797" operator="equal">
-      <formula>"blue"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="798" operator="equal">
-      <formula>"green"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="799" operator="equal">
-      <formula>"white"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F10">
-    <cfRule type="expression" dxfId="3" priority="515">
-      <formula>#REF!="orange"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L10">
-    <cfRule type="expression" dxfId="0" priority="151">
-      <formula>$N10="blue"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="152">
-      <formula>$N10="green"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="153">
-      <formula>$N10="purple"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="154">
-      <formula>$N10="orange"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="155">
-      <formula>$N8="orange"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D11">
-    <cfRule type="expression" dxfId="0" priority="812">
-      <formula>$N11="blue"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="813">
-      <formula>$N11="green"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="814">
-      <formula>$N11="purple"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="815">
       <formula>$N11="orange"</formula>
     </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C13 G13:I13 M13 K13">
+    <cfRule type="expression" dxfId="0" priority="813">
+      <formula>$N13="blue"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="814">
+      <formula>$N13="green"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="815">
+      <formula>$N13="purple"</formula>
+    </cfRule>
     <cfRule type="expression" dxfId="3" priority="816">
-      <formula>$N9="orange"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="817" operator="equal">
-      <formula>"blue"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="818" operator="equal">
-      <formula>"green"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="819" operator="equal">
-      <formula>"white"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F11">
-    <cfRule type="expression" dxfId="3" priority="801">
-      <formula>$N9="orange"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L11">
-    <cfRule type="cellIs" dxfId="4" priority="80" operator="equal">
-      <formula>"blue"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="81" operator="equal">
-      <formula>"green"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="82" operator="equal">
-      <formula>"white"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="83">
-      <formula>$N11="blue"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="84">
-      <formula>$N11="green"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="85">
-      <formula>$N11="purple"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="86">
-      <formula>$N11="orange"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="87">
-      <formula>#REF!="orange"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="88">
-      <formula>$N11="Blue"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="89">
-      <formula>$N11="Green"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="90">
-      <formula>$N11="Purple"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="91">
-      <formula>$N11="Gold"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D12">
-    <cfRule type="expression" dxfId="0" priority="820">
-      <formula>$N12="blue"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="821">
-      <formula>$N12="green"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="822">
-      <formula>$N12="purple"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="823">
-      <formula>$N12="orange"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="824">
-      <formula>#REF!="orange"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="825" operator="equal">
-      <formula>"blue"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="826" operator="equal">
-      <formula>"green"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="827" operator="equal">
-      <formula>"white"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F12">
-    <cfRule type="expression" dxfId="3" priority="800">
-      <formula>#REF!="orange"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L12">
-    <cfRule type="expression" dxfId="0" priority="181">
-      <formula>$N12="blue"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="182">
-      <formula>$N12="green"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="183">
-      <formula>$N12="purple"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="184">
-      <formula>$N12="orange"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="185">
-      <formula>$N11="orange"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D13">
-    <cfRule type="expression" dxfId="0" priority="899">
-      <formula>$N13="blue"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="900">
-      <formula>$N13="green"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="901">
-      <formula>$N13="purple"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="902">
       <formula>$N13="orange"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="903">
-      <formula>#REF!="orange"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="904" operator="equal">
-      <formula>"blue"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="905" operator="equal">
-      <formula>"green"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="906" operator="equal">
-      <formula>"white"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F13">
-    <cfRule type="expression" dxfId="3" priority="38">
-      <formula>#REF!="orange"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L13">
-    <cfRule type="expression" dxfId="0" priority="191">
-      <formula>$N13="blue"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="192">
-      <formula>$N13="green"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="193">
-      <formula>$N13="purple"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="194">
-      <formula>$N13="orange"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="195">
-      <formula>#REF!="orange"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D14">
-    <cfRule type="expression" dxfId="0" priority="774">
-      <formula>$N14="blue"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="775">
-      <formula>$N14="green"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="776">
-      <formula>$N14="purple"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="777">
-      <formula>$N14="orange"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="778">
-      <formula>#REF!="orange"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="779" operator="equal">
-      <formula>"blue"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="780" operator="equal">
-      <formula>"green"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="781" operator="equal">
-      <formula>"white"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D15">
-    <cfRule type="expression" dxfId="0" priority="910">
-      <formula>$N15="blue"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="911">
-      <formula>$N15="green"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="912">
-      <formula>$N15="purple"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="913">
-      <formula>$N15="orange"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="914">
-      <formula>$N13="orange"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="915" operator="equal">
-      <formula>"blue"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="916" operator="equal">
-      <formula>"green"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="917" operator="equal">
-      <formula>"white"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D16">
-    <cfRule type="expression" dxfId="0" priority="928">
-      <formula>$N16="blue"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="929">
-      <formula>$N16="green"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="930">
-      <formula>$N16="purple"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="931">
-      <formula>$N16="orange"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="932">
-      <formula>$N15="orange"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="933" operator="equal">
-      <formula>"blue"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="934" operator="equal">
-      <formula>"green"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="935" operator="equal">
-      <formula>"white"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F16">
-    <cfRule type="expression" dxfId="3" priority="41">
-      <formula>#REF!="orange"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D17">
-    <cfRule type="expression" dxfId="0" priority="936">
-      <formula>$N17="blue"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="937">
-      <formula>$N17="green"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="938">
-      <formula>$N17="purple"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="939">
-      <formula>$N17="orange"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="940">
-      <formula>#REF!="orange"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="941" operator="equal">
-      <formula>"blue"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="942" operator="equal">
-      <formula>"green"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="943" operator="equal">
-      <formula>"white"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F17">
-    <cfRule type="expression" dxfId="3" priority="43">
-      <formula>#REF!="orange"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D18">
-    <cfRule type="expression" dxfId="0" priority="1036">
-      <formula>$N18="blue"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="1037">
-      <formula>$N18="green"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="1038">
-      <formula>$N18="purple"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="1039">
-      <formula>$N18="orange"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="1040">
-      <formula>#REF!="orange"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="1041" operator="equal">
-      <formula>"blue"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="1042" operator="equal">
-      <formula>"green"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="1043" operator="equal">
-      <formula>"white"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F18">
-    <cfRule type="expression" dxfId="3" priority="39">
-      <formula>#REF!="orange"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F19">
-    <cfRule type="expression" dxfId="3" priority="31">
-      <formula>#REF!="orange"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F20">
-    <cfRule type="expression" dxfId="3" priority="40">
-      <formula>$N18="orange"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D21">
-    <cfRule type="expression" dxfId="0" priority="1011">
-      <formula>$N21="blue"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="1012">
-      <formula>$N21="green"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="1013">
-      <formula>$N21="purple"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="1014">
-      <formula>$N21="orange"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="1015">
-      <formula>$N19="orange"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="1016" operator="equal">
-      <formula>"blue"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="1017" operator="equal">
-      <formula>"green"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="1018" operator="equal">
-      <formula>"white"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F21">
-    <cfRule type="expression" dxfId="3" priority="1027">
-      <formula>$N19="orange"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D22">
-    <cfRule type="expression" dxfId="0" priority="1028">
-      <formula>$N22="blue"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="1029">
-      <formula>$N22="green"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="1030">
-      <formula>$N22="purple"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="1031">
-      <formula>$N22="orange"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="1032">
-      <formula>$N17="orange"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="1033" operator="equal">
-      <formula>"blue"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="1034" operator="equal">
-      <formula>"green"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="1035" operator="equal">
-      <formula>"white"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F22">
-    <cfRule type="expression" dxfId="3" priority="25">
-      <formula>#REF!="orange"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D25">
-    <cfRule type="expression" dxfId="0" priority="1019">
-      <formula>$N25="blue"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="1020">
-      <formula>$N25="green"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="1021">
-      <formula>$N25="purple"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="1022">
-      <formula>$N25="orange"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="1023">
-      <formula>#REF!="orange"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="1024" operator="equal">
-      <formula>"blue"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="1025" operator="equal">
-      <formula>"green"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="1026" operator="equal">
-      <formula>"white"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F25">
-    <cfRule type="expression" dxfId="3" priority="28">
-      <formula>#REF!="orange"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D26">
-    <cfRule type="expression" dxfId="0" priority="954">
-      <formula>$N26="blue"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="955">
-      <formula>$N26="green"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="956">
-      <formula>$N26="purple"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="957">
-      <formula>$N26="orange"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="958">
-      <formula>#REF!="orange"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="959" operator="equal">
-      <formula>"blue"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="960" operator="equal">
-      <formula>"green"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="961" operator="equal">
-      <formula>"white"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F26">
-    <cfRule type="expression" dxfId="3" priority="30">
-      <formula>#REF!="orange"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F27">
-    <cfRule type="expression" dxfId="3" priority="26">
-      <formula>#REF!="orange"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F28">
-    <cfRule type="expression" dxfId="3" priority="18">
-      <formula>#REF!="orange"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I28">
-    <cfRule type="expression" dxfId="3" priority="65">
-      <formula>#REF!="orange"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F29">
-    <cfRule type="expression" dxfId="3" priority="27">
-      <formula>$N27="orange"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D30">
-    <cfRule type="expression" dxfId="0" priority="218">
-      <formula>$N30="blue"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="219">
-      <formula>$N30="green"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="220">
-      <formula>$N30="purple"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="221">
-      <formula>$N30="orange"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="222">
-      <formula>#REF!="orange"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="223" operator="equal">
-      <formula>"blue"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="224" operator="equal">
-      <formula>"green"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="225" operator="equal">
-      <formula>"white"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F30">
-    <cfRule type="expression" dxfId="3" priority="855">
-      <formula>#REF!="orange"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D31">
-    <cfRule type="expression" dxfId="0" priority="865">
-      <formula>$N31="blue"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="866">
-      <formula>$N31="green"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="867">
-      <formula>$N31="purple"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="868">
-      <formula>$N31="orange"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="869">
-      <formula>$N26="orange"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="870" operator="equal">
-      <formula>"blue"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="871" operator="equal">
-      <formula>"green"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="872" operator="equal">
-      <formula>"white"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F31">
-    <cfRule type="expression" dxfId="3" priority="8">
-      <formula>#REF!="orange"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D32">
-    <cfRule type="expression" dxfId="0" priority="989">
-      <formula>$N32="blue"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="990">
-      <formula>$N32="green"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="991">
-      <formula>$N32="purple"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="992">
-      <formula>$N32="orange"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="993">
-      <formula>$N28="orange"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="994" operator="equal">
-      <formula>"blue"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="995" operator="equal">
-      <formula>"green"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="996" operator="equal">
-      <formula>"white"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D33">
-    <cfRule type="expression" dxfId="0" priority="998">
-      <formula>$N33="blue"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="999">
-      <formula>$N33="green"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="1000">
-      <formula>$N33="purple"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="1001">
-      <formula>$N33="orange"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="1002">
-      <formula>$N31="orange"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="1003" operator="equal">
-      <formula>"blue"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="1004" operator="equal">
-      <formula>"green"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="1005" operator="equal">
-      <formula>"white"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L33">
-    <cfRule type="cellIs" dxfId="4" priority="166" operator="equal">
-      <formula>"blue"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="167" operator="equal">
-      <formula>"green"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="168" operator="equal">
-      <formula>"white"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D34">
-    <cfRule type="expression" dxfId="0" priority="265">
-      <formula>$N34="blue"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="274">
-      <formula>$N34="green"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="283">
-      <formula>$N34="purple"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="292">
-      <formula>$N34="orange"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="301">
-      <formula>#REF!="orange"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="310" operator="equal">
-      <formula>"blue"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="319" operator="equal">
-      <formula>"green"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="328" operator="equal">
-      <formula>"white"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F34">
-    <cfRule type="expression" dxfId="3" priority="11">
-      <formula>#REF!="orange"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L34">
-    <cfRule type="cellIs" dxfId="4" priority="99" operator="equal">
-      <formula>"blue"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="107" operator="equal">
-      <formula>"green"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="115" operator="equal">
-      <formula>"white"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="123">
+    <cfRule type="expression" dxfId="3" priority="817">
+      <formula>#REF!="orange"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F20 F13 F14:F16">
+    <cfRule type="cellIs" priority="106" operator="equal">
+      <formula>"white"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="105" operator="equal">
+      <formula>"green"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="104" operator="equal">
+      <formula>"blue"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F29 F22 F23:F25">
+    <cfRule type="cellIs" priority="93" operator="equal">
+      <formula>"white"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="92" operator="equal">
+      <formula>"green"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="91" operator="equal">
+      <formula>"blue"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F38 F31 F32:F34">
+    <cfRule type="cellIs" priority="76" operator="equal">
+      <formula>"white"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="75" operator="equal">
+      <formula>"green"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="74" operator="equal">
+      <formula>"blue"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C33 G33:K33 M33 P33:R33">
+    <cfRule type="cellIs" dxfId="4" priority="703" operator="equal">
+      <formula>"blue"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="718" operator="equal">
+      <formula>"green"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="733" operator="equal">
+      <formula>"white"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B34 E34">
+    <cfRule type="expression" dxfId="3" priority="577">
+      <formula>#REF!="orange"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B34 E34 S34:AB34">
+    <cfRule type="cellIs" dxfId="4" priority="550" operator="equal">
+      <formula>"blue"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="559" operator="equal">
+      <formula>"green"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="568" operator="equal">
+      <formula>"white"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M34 B34:E34 G34:K34 O34:P34">
+    <cfRule type="expression" dxfId="0" priority="505">
       <formula>$N34="Blue"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="131">
+    <cfRule type="expression" dxfId="1" priority="514">
       <formula>$N34="Green"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="139">
+    <cfRule type="expression" dxfId="2" priority="523">
       <formula>$N34="Purple"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="147">
+    <cfRule type="expression" dxfId="3" priority="532">
       <formula>$N34="Gold"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O34">
-    <cfRule type="cellIs" dxfId="4" priority="238" operator="equal">
-      <formula>"blue"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="247" operator="equal">
-      <formula>"green"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="256" operator="equal">
-      <formula>"white"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D35">
-    <cfRule type="expression" dxfId="0" priority="262">
-      <formula>$N35="blue"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="271">
-      <formula>$N35="green"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="280">
-      <formula>$N35="purple"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="289">
-      <formula>$N35="orange"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="298">
-      <formula>$N34="orange"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="307" operator="equal">
-      <formula>"blue"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="316" operator="equal">
-      <formula>"green"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="325" operator="equal">
-      <formula>"white"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F35">
-    <cfRule type="expression" dxfId="3" priority="13">
-      <formula>#REF!="orange"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L35">
-    <cfRule type="cellIs" dxfId="4" priority="97" operator="equal">
-      <formula>"blue"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="105" operator="equal">
-      <formula>"green"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="113" operator="equal">
-      <formula>"white"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="121">
+  <conditionalFormatting sqref="C34 G34:K34 M34 P34:R34">
+    <cfRule type="cellIs" dxfId="4" priority="478" operator="equal">
+      <formula>"blue"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="487" operator="equal">
+      <formula>"green"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="496" operator="equal">
+      <formula>"white"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B35 E35">
+    <cfRule type="expression" dxfId="3" priority="574">
+      <formula>#REF!="orange"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B35 E35 S35:AB35">
+    <cfRule type="cellIs" dxfId="4" priority="547" operator="equal">
+      <formula>"blue"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="556" operator="equal">
+      <formula>"green"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="565" operator="equal">
+      <formula>"white"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M35 B35:E35 G35:K35 O35:P35">
+    <cfRule type="expression" dxfId="0" priority="502">
       <formula>$N35="Blue"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="129">
+    <cfRule type="expression" dxfId="1" priority="511">
       <formula>$N35="Green"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="137">
+    <cfRule type="expression" dxfId="2" priority="520">
       <formula>$N35="Purple"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="145">
+    <cfRule type="expression" dxfId="3" priority="529">
       <formula>$N35="Gold"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O35">
-    <cfRule type="cellIs" dxfId="4" priority="235" operator="equal">
-      <formula>"blue"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="244" operator="equal">
-      <formula>"green"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="253" operator="equal">
-      <formula>"white"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D36">
-    <cfRule type="expression" dxfId="0" priority="261">
-      <formula>$N36="blue"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="270">
-      <formula>$N36="green"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="279">
-      <formula>$N36="purple"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="288">
-      <formula>$N36="orange"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="297">
-      <formula>#REF!="orange"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="306" operator="equal">
-      <formula>"blue"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="315" operator="equal">
-      <formula>"green"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="324" operator="equal">
-      <formula>"white"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F36">
-    <cfRule type="expression" dxfId="3" priority="9">
-      <formula>#REF!="orange"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L36">
-    <cfRule type="cellIs" dxfId="4" priority="73" operator="equal">
-      <formula>"blue"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="74" operator="equal">
-      <formula>"green"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="75" operator="equal">
-      <formula>"white"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="76">
+  <conditionalFormatting sqref="C35 G35:K35 P35:R35 M35">
+    <cfRule type="cellIs" dxfId="4" priority="475" operator="equal">
+      <formula>"blue"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="484" operator="equal">
+      <formula>"green"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="493" operator="equal">
+      <formula>"white"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B36 E36">
+    <cfRule type="expression" dxfId="3" priority="573">
+      <formula>#REF!="orange"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B36 E36 S36:AB36">
+    <cfRule type="cellIs" dxfId="4" priority="546" operator="equal">
+      <formula>"blue"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="555" operator="equal">
+      <formula>"green"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="564" operator="equal">
+      <formula>"white"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M36:P36 B36:E36 G36:K36">
+    <cfRule type="expression" dxfId="0" priority="501">
       <formula>$N36="Blue"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="77">
+    <cfRule type="expression" dxfId="1" priority="510">
       <formula>$N36="Green"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="78">
+    <cfRule type="expression" dxfId="2" priority="519">
       <formula>$N36="Purple"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="79">
+    <cfRule type="expression" dxfId="3" priority="528">
       <formula>$N36="Gold"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O36">
-    <cfRule type="cellIs" dxfId="4" priority="234" operator="equal">
-      <formula>"blue"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="243" operator="equal">
-      <formula>"green"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="252" operator="equal">
-      <formula>"white"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C37">
-    <cfRule type="cellIs" dxfId="4" priority="58" operator="equal">
-      <formula>"blue"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="59" operator="equal">
-      <formula>"green"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="60" operator="equal">
-      <formula>"white"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="61">
+  <conditionalFormatting sqref="C36 G36:K36 P36:R36 M36">
+    <cfRule type="cellIs" dxfId="4" priority="474" operator="equal">
+      <formula>"blue"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="483" operator="equal">
+      <formula>"green"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="492" operator="equal">
+      <formula>"white"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B37 E37">
+    <cfRule type="expression" dxfId="3" priority="572">
+      <formula>#REF!="orange"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B37 E37 S37:AB37">
+    <cfRule type="cellIs" dxfId="4" priority="545" operator="equal">
+      <formula>"blue"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="554" operator="equal">
+      <formula>"green"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="563" operator="equal">
+      <formula>"white"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M37:P37 B37 D37:E37 I37:K37">
+    <cfRule type="expression" dxfId="0" priority="500">
       <formula>$N37="Blue"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="62">
+    <cfRule type="expression" dxfId="1" priority="509">
       <formula>$N37="Green"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="63">
+    <cfRule type="expression" dxfId="2" priority="518">
       <formula>$N37="Purple"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="64">
+    <cfRule type="expression" dxfId="3" priority="527">
       <formula>$N37="Gold"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D37">
-    <cfRule type="expression" dxfId="0" priority="260">
-      <formula>$N37="blue"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="269">
-      <formula>$N37="green"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="278">
-      <formula>$N37="purple"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="287">
-      <formula>$N37="orange"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="296">
-      <formula>#REF!="orange"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="305" operator="equal">
-      <formula>"blue"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="314" operator="equal">
-      <formula>"green"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="323" operator="equal">
-      <formula>"white"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F37">
-    <cfRule type="expression" dxfId="3" priority="1">
-      <formula>#REF!="orange"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G37:H37">
-    <cfRule type="cellIs" dxfId="4" priority="51" operator="equal">
-      <formula>"blue"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="52" operator="equal">
-      <formula>"green"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="53" operator="equal">
-      <formula>"white"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="54">
-      <formula>$N37="Blue"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="55">
-      <formula>$N37="Green"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="56">
-      <formula>$N37="Purple"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="57">
-      <formula>$N37="Gold"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L37">
-    <cfRule type="cellIs" dxfId="4" priority="95" operator="equal">
-      <formula>"blue"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="103" operator="equal">
-      <formula>"green"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="111" operator="equal">
-      <formula>"white"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="119">
-      <formula>$N37="Blue"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="127">
-      <formula>$N37="Green"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="135">
-      <formula>$N37="Purple"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="143">
-      <formula>$N37="Gold"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O37">
-    <cfRule type="cellIs" dxfId="4" priority="233" operator="equal">
-      <formula>"blue"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="242" operator="equal">
-      <formula>"green"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="251" operator="equal">
-      <formula>"white"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D38">
-    <cfRule type="expression" dxfId="0" priority="259">
-      <formula>$N38="blue"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="268">
-      <formula>$N38="green"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="277">
-      <formula>$N38="purple"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="286">
-      <formula>$N38="orange"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="295">
-      <formula>$N35="orange"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="304" operator="equal">
-      <formula>"blue"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="313" operator="equal">
-      <formula>"green"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="322" operator="equal">
-      <formula>"white"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F38">
-    <cfRule type="expression" dxfId="3" priority="10">
-      <formula>$N36="orange"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L38">
-    <cfRule type="cellIs" dxfId="4" priority="66" operator="equal">
-      <formula>"blue"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="67" operator="equal">
-      <formula>"green"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="68" operator="equal">
-      <formula>"white"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="69">
+  <conditionalFormatting sqref="I37:K37 P37:R37 M37">
+    <cfRule type="cellIs" dxfId="4" priority="473" operator="equal">
+      <formula>"blue"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="482" operator="equal">
+      <formula>"green"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="491" operator="equal">
+      <formula>"white"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B38 E38">
+    <cfRule type="expression" dxfId="3" priority="571">
+      <formula>#REF!="orange"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B38 E38 S38:AB38">
+    <cfRule type="cellIs" dxfId="4" priority="544" operator="equal">
+      <formula>"blue"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="553" operator="equal">
+      <formula>"green"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="562" operator="equal">
+      <formula>"white"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M38:P38 B38:E38 G38:K38">
+    <cfRule type="expression" dxfId="0" priority="499">
       <formula>$N38="Blue"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="70">
+    <cfRule type="expression" dxfId="1" priority="508">
       <formula>$N38="Green"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="71">
+    <cfRule type="expression" dxfId="2" priority="517">
       <formula>$N38="Purple"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="72">
+    <cfRule type="expression" dxfId="3" priority="526">
       <formula>$N38="Gold"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O38">
-    <cfRule type="cellIs" dxfId="4" priority="232" operator="equal">
-      <formula>"blue"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="241" operator="equal">
-      <formula>"green"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="250" operator="equal">
-      <formula>"white"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D39">
-    <cfRule type="expression" dxfId="0" priority="257">
-      <formula>$N39="blue"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="266">
-      <formula>$N39="green"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="275">
-      <formula>$N39="purple"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="284">
-      <formula>$N39="orange"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="293">
-      <formula>$N37="orange"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="302" operator="equal">
-      <formula>"blue"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="311" operator="equal">
-      <formula>"green"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="320" operator="equal">
-      <formula>"white"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F39">
-    <cfRule type="expression" dxfId="3" priority="464">
-      <formula>$N37="orange"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L39">
-    <cfRule type="cellIs" dxfId="4" priority="92" operator="equal">
-      <formula>"blue"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="100" operator="equal">
-      <formula>"green"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="108" operator="equal">
-      <formula>"white"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="116">
+  <conditionalFormatting sqref="C38 G38:K38 P38:R38 M38">
+    <cfRule type="cellIs" dxfId="4" priority="472" operator="equal">
+      <formula>"blue"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="481" operator="equal">
+      <formula>"green"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="490" operator="equal">
+      <formula>"white"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B39 E39">
+    <cfRule type="expression" dxfId="3" priority="569">
+      <formula>#REF!="orange"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B39 E39:F39 S39:AB39">
+    <cfRule type="cellIs" dxfId="4" priority="542" operator="equal">
+      <formula>"blue"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="551" operator="equal">
+      <formula>"green"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="560" operator="equal">
+      <formula>"white"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M39:P39 B39:J39">
+    <cfRule type="expression" dxfId="0" priority="497">
       <formula>$N39="Blue"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="124">
+    <cfRule type="expression" dxfId="1" priority="506">
       <formula>$N39="Green"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="132">
+    <cfRule type="expression" dxfId="2" priority="515">
       <formula>$N39="Purple"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="140">
+    <cfRule type="expression" dxfId="3" priority="524">
       <formula>$N39="Gold"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O39">
-    <cfRule type="cellIs" dxfId="4" priority="230" operator="equal">
-      <formula>"blue"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="239" operator="equal">
-      <formula>"green"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="248" operator="equal">
-      <formula>"white"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A4:A39">
-    <cfRule type="expression" dxfId="0" priority="581">
-      <formula>$N4="blue"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="582">
-      <formula>$N4="green"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="583">
-      <formula>$N4="purple"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="584">
-      <formula>$N4="orange"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="585">
-      <formula>#REF!="orange"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="586" operator="equal">
-      <formula>"blue"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="587" operator="equal">
-      <formula>"green"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="588" operator="equal">
-      <formula>"white"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C4:C7">
-    <cfRule type="expression" dxfId="0" priority="564">
-      <formula>$N4="blue"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="565">
-      <formula>$N4="green"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="566">
-      <formula>$N4="purple"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="567">
-      <formula>$N4="orange"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="570" operator="equal">
-      <formula>"blue"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="571" operator="equal">
-      <formula>"green"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="572" operator="equal">
-      <formula>"white"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C8:C10">
-    <cfRule type="expression" dxfId="0" priority="534">
-      <formula>$N8="blue"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="535">
-      <formula>$N8="green"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="536">
-      <formula>$N8="purple"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="537">
-      <formula>$N8="orange"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="538" operator="equal">
-      <formula>"blue"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="539" operator="equal">
-      <formula>"green"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="540" operator="equal">
-      <formula>"white"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D5:D6">
-    <cfRule type="expression" dxfId="0" priority="873">
-      <formula>$N5="blue"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="874">
-      <formula>$N5="green"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="875">
-      <formula>$N5="purple"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="876">
-      <formula>$N5="orange"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="877">
-      <formula>$N3="orange"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="878" operator="equal">
-      <formula>"blue"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="879" operator="equal">
-      <formula>"green"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="880" operator="equal">
-      <formula>"white"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D19:D20">
-    <cfRule type="expression" dxfId="0" priority="573">
-      <formula>$N19="blue"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="574">
-      <formula>$N19="green"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="575">
-      <formula>$N19="purple"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="576">
-      <formula>$N19="orange"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="577">
-      <formula>$N16="orange"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="578" operator="equal">
-      <formula>"blue"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="579" operator="equal">
-      <formula>"green"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="580" operator="equal">
-      <formula>"white"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D23:D24">
-    <cfRule type="expression" dxfId="0" priority="946">
-      <formula>$N23="blue"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="947">
-      <formula>$N23="green"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="948">
-      <formula>$N23="purple"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="949">
-      <formula>$N23="orange"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="950">
-      <formula>$N19="orange"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="951" operator="equal">
-      <formula>"blue"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="952" operator="equal">
-      <formula>"green"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="953" operator="equal">
-      <formula>"white"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D27:D29">
-    <cfRule type="expression" dxfId="0" priority="973">
-      <formula>$N27="blue"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="974">
-      <formula>$N27="green"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="975">
-      <formula>$N27="purple"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="976">
-      <formula>$N27="orange"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="977">
-      <formula>$N23="orange"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="978" operator="equal">
-      <formula>"blue"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="979" operator="equal">
-      <formula>"green"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="980" operator="equal">
-      <formula>"white"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F5:F6">
-    <cfRule type="expression" dxfId="3" priority="890">
-      <formula>$N3="orange"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F14:F15">
-    <cfRule type="expression" dxfId="3" priority="42">
-      <formula>$N12="orange"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F17:F19">
-    <cfRule type="cellIs" priority="34" operator="equal">
-      <formula>"white"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="33" operator="equal">
-      <formula>"green"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="32" operator="equal">
-      <formula>"blue"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F23:F24">
-    <cfRule type="expression" dxfId="3" priority="29">
-      <formula>$N21="orange"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F26:F28">
-    <cfRule type="cellIs" priority="21" operator="equal">
-      <formula>"white"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="20" operator="equal">
-      <formula>"green"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="19" operator="equal">
-      <formula>"blue"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F31:F38">
-    <cfRule type="expression" dxfId="3" priority="17">
-      <formula>$N31="Gold"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="16">
-      <formula>$N31="Purple"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="15">
-      <formula>$N31="Green"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="14">
-      <formula>$N31="Blue"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F32:F33">
-    <cfRule type="expression" dxfId="3" priority="12">
-      <formula>$N30="orange"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F35:F37">
-    <cfRule type="cellIs" priority="4" operator="equal">
-      <formula>"white"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
-      <formula>"green"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
-      <formula>"blue"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L8:L10">
-    <cfRule type="cellIs" dxfId="4" priority="148" operator="equal">
-      <formula>"blue"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="149" operator="equal">
-      <formula>"green"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="150" operator="equal">
-      <formula>"white"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N33:N35">
-    <cfRule type="expression" dxfId="0" priority="226">
-      <formula>$N33="Blue"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="227">
-      <formula>$N33="Green"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="228">
-      <formula>$N33="Purple"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="229">
-      <formula>$N33="Gold"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O7:O33">
-    <cfRule type="cellIs" dxfId="4" priority="509" operator="equal">
-      <formula>"blue"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="510" operator="equal">
-      <formula>"green"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="511" operator="equal">
-      <formula>"white"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M1:P32 A1:I30 A31:E31 G31:I33 J1:K33 B32:E33 M33 O33:P33 A40:K1048576 M40:P1048576 A32:A39">
-    <cfRule type="expression" dxfId="0" priority="694">
-      <formula>$N1="Blue"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="695">
-      <formula>$N1="Green"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="696">
-      <formula>$N1="Purple"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="698">
-      <formula>$N1="Gold"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L10 L12:L33 L40:L1048576">
-    <cfRule type="expression" dxfId="0" priority="174">
-      <formula>$N1="Blue"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="175">
-      <formula>$N1="Green"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="176">
-      <formula>$N1="Purple"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="177">
-      <formula>$N1="Gold"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A40:K1048576 I5:I12 J5:J7 E11:H12 J11:J12 C11:C32 B4:B33 H13:J32 E13:E20 G13:G20 E21:G21 E22:E29 G22:G32 C2 E30:F30 E31:E33 D2:J4 A2:B3 E8:E10 E5:H7 M40:M1048576 O40:AB1048576 S33:AB33 M2:M7 O2:AB6 P7:AB32 M11:M32 K2:K7 K11:K32">
-    <cfRule type="cellIs" dxfId="4" priority="701" operator="equal">
-      <formula>"blue"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="702" operator="equal">
-      <formula>"green"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="703" operator="equal">
-      <formula>"white"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L2:L7 L40:L1048576 L12:L32">
-    <cfRule type="cellIs" dxfId="4" priority="178" operator="equal">
-      <formula>"blue"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="179" operator="equal">
-      <formula>"green"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="180" operator="equal">
-      <formula>"white"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B4:B33 D4:K4 I5:I12 E5:E33 M4 O4:AB4">
-    <cfRule type="expression" dxfId="3" priority="764">
-      <formula>#REF!="orange"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G5:H5 M5 K5">
-    <cfRule type="expression" dxfId="0" priority="681">
-      <formula>$N5="blue"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="682">
-      <formula>$N5="green"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="683">
-      <formula>$N5="purple"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="684">
-      <formula>$N5="orange"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="685">
-      <formula>#REF!="orange"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G6:H6 M6 K6">
-    <cfRule type="expression" dxfId="0" priority="754">
-      <formula>$N6="blue"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="755">
-      <formula>$N6="green"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="756">
-      <formula>$N6="purple"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="757">
-      <formula>$N6="orange"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="758">
-      <formula>#REF!="orange"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G7:H7 M7 K7">
-    <cfRule type="expression" dxfId="0" priority="759">
-      <formula>$N7="blue"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="760">
-      <formula>$N7="green"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="761">
-      <formula>$N7="purple"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="762">
-      <formula>$N7="orange"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="763">
-      <formula>#REF!="orange"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F8:H10 J8:K10 M8:M10">
-    <cfRule type="cellIs" dxfId="4" priority="516" operator="equal">
-      <formula>"blue"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="517" operator="equal">
-      <formula>"green"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="518" operator="equal">
-      <formula>"white"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G8:H8 M8 K8">
-    <cfRule type="expression" dxfId="0" priority="529">
-      <formula>$N8="blue"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="530">
-      <formula>$N8="green"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="531">
-      <formula>$N8="purple"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="532">
-      <formula>$N8="orange"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="533">
-      <formula>#REF!="orange"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G9:H9 M9 K9">
-    <cfRule type="expression" dxfId="0" priority="524">
-      <formula>$N9="blue"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="525">
-      <formula>$N9="green"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="526">
-      <formula>$N9="purple"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="527">
-      <formula>$N9="orange"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="528">
-      <formula>#REF!="orange"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G10:H10 M10 K10">
-    <cfRule type="expression" dxfId="0" priority="519">
-      <formula>$N10="blue"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="520">
-      <formula>$N10="green"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="521">
-      <formula>$N10="purple"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="522">
-      <formula>$N10="orange"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="523">
-      <formula>$N8="orange"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C11 G11:H11 M11 K11">
-    <cfRule type="expression" dxfId="0" priority="802">
-      <formula>$N11="blue"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="803">
-      <formula>$N11="green"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="804">
-      <formula>$N11="purple"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="805">
-      <formula>$N11="orange"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="806">
-      <formula>$N10="orange"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C12 G12:H12 M12 K12">
-    <cfRule type="expression" dxfId="0" priority="714">
-      <formula>$N12="blue"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="715">
-      <formula>$N12="green"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="716">
-      <formula>$N12="purple"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="717">
-      <formula>$N12="orange"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="718">
-      <formula>$N11="orange"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C13 G13:I13 M13 K13">
-    <cfRule type="expression" dxfId="0" priority="744">
-      <formula>$N13="blue"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="745">
-      <formula>$N13="green"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="746">
-      <formula>$N13="purple"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="747">
-      <formula>$N13="orange"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="748">
-      <formula>#REF!="orange"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F20 F13 F14:F16">
-    <cfRule type="cellIs" priority="37" operator="equal">
-      <formula>"white"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="36" operator="equal">
-      <formula>"green"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="35" operator="equal">
-      <formula>"blue"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F29 F22 F23:F25">
-    <cfRule type="cellIs" priority="24" operator="equal">
-      <formula>"white"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="23" operator="equal">
-      <formula>"green"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="22" operator="equal">
-      <formula>"blue"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F38 F31 F32:F34">
-    <cfRule type="cellIs" priority="7" operator="equal">
-      <formula>"white"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
-      <formula>"green"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
-      <formula>"blue"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C33 G33:K33 M33 P33:R33">
-    <cfRule type="cellIs" dxfId="4" priority="634" operator="equal">
-      <formula>"blue"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="649" operator="equal">
-      <formula>"green"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="664" operator="equal">
-      <formula>"white"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B34 E34">
-    <cfRule type="expression" dxfId="3" priority="508">
-      <formula>#REF!="orange"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B34 E34 S34:AB34">
-    <cfRule type="cellIs" dxfId="4" priority="481" operator="equal">
-      <formula>"blue"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="490" operator="equal">
-      <formula>"green"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="499" operator="equal">
-      <formula>"white"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M34 B34:E34 G34:K34 O34:P34">
-    <cfRule type="expression" dxfId="0" priority="436">
-      <formula>$N34="Blue"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="445">
-      <formula>$N34="Green"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="454">
-      <formula>$N34="Purple"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="463">
-      <formula>$N34="Gold"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C34 G34:K34 M34 P34:R34">
-    <cfRule type="cellIs" dxfId="4" priority="409" operator="equal">
-      <formula>"blue"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="418" operator="equal">
-      <formula>"green"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="427" operator="equal">
-      <formula>"white"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B35 E35">
-    <cfRule type="expression" dxfId="3" priority="505">
-      <formula>#REF!="orange"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B35 E35 S35:AB35">
-    <cfRule type="cellIs" dxfId="4" priority="478" operator="equal">
-      <formula>"blue"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="487" operator="equal">
-      <formula>"green"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="496" operator="equal">
-      <formula>"white"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M35 B35:E35 G35:K35 O35:P35">
-    <cfRule type="expression" dxfId="0" priority="433">
-      <formula>$N35="Blue"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="442">
-      <formula>$N35="Green"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="451">
-      <formula>$N35="Purple"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="460">
-      <formula>$N35="Gold"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C35 G35:K35 P35:R35 M35">
-    <cfRule type="cellIs" dxfId="4" priority="406" operator="equal">
-      <formula>"blue"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="415" operator="equal">
-      <formula>"green"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="424" operator="equal">
-      <formula>"white"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B36 E36">
-    <cfRule type="expression" dxfId="3" priority="504">
-      <formula>#REF!="orange"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B36 E36 S36:AB36">
-    <cfRule type="cellIs" dxfId="4" priority="477" operator="equal">
-      <formula>"blue"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="486" operator="equal">
-      <formula>"green"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="495" operator="equal">
-      <formula>"white"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M36:P36 B36:E36 G36:K36">
-    <cfRule type="expression" dxfId="0" priority="432">
-      <formula>$N36="Blue"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="441">
-      <formula>$N36="Green"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="450">
-      <formula>$N36="Purple"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="459">
-      <formula>$N36="Gold"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C36 G36:K36 P36:R36 M36">
-    <cfRule type="cellIs" dxfId="4" priority="405" operator="equal">
-      <formula>"blue"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="414" operator="equal">
-      <formula>"green"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="423" operator="equal">
-      <formula>"white"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B37 E37">
-    <cfRule type="expression" dxfId="3" priority="503">
-      <formula>#REF!="orange"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B37 E37 S37:AB37">
-    <cfRule type="cellIs" dxfId="4" priority="476" operator="equal">
-      <formula>"blue"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="485" operator="equal">
-      <formula>"green"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="494" operator="equal">
-      <formula>"white"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M37:P37 B37 D37:E37 I37:K37">
-    <cfRule type="expression" dxfId="0" priority="431">
-      <formula>$N37="Blue"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="440">
-      <formula>$N37="Green"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="449">
-      <formula>$N37="Purple"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="458">
-      <formula>$N37="Gold"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I37:K37 P37:R37 M37">
-    <cfRule type="cellIs" dxfId="4" priority="404" operator="equal">
-      <formula>"blue"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="413" operator="equal">
-      <formula>"green"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="422" operator="equal">
-      <formula>"white"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B38 E38">
-    <cfRule type="expression" dxfId="3" priority="502">
-      <formula>#REF!="orange"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B38 E38 S38:AB38">
-    <cfRule type="cellIs" dxfId="4" priority="475" operator="equal">
-      <formula>"blue"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="484" operator="equal">
-      <formula>"green"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="493" operator="equal">
-      <formula>"white"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M38:P38 B38:E38 G38:K38">
-    <cfRule type="expression" dxfId="0" priority="430">
-      <formula>$N38="Blue"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="439">
-      <formula>$N38="Green"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="448">
-      <formula>$N38="Purple"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="457">
-      <formula>$N38="Gold"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C38 G38:K38 P38:R38 M38">
-    <cfRule type="cellIs" dxfId="4" priority="403" operator="equal">
-      <formula>"blue"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="412" operator="equal">
-      <formula>"green"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="421" operator="equal">
-      <formula>"white"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B39 E39">
-    <cfRule type="expression" dxfId="3" priority="500">
-      <formula>#REF!="orange"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B39 E39:F39 S39:AB39">
-    <cfRule type="cellIs" dxfId="4" priority="473" operator="equal">
-      <formula>"blue"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="482" operator="equal">
-      <formula>"green"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="491" operator="equal">
-      <formula>"white"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M39:P39 B39:K39">
-    <cfRule type="expression" dxfId="0" priority="428">
-      <formula>$N39="Blue"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="437">
-      <formula>$N39="Green"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="446">
-      <formula>$N39="Purple"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="455">
-      <formula>$N39="Gold"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C39 G39:K39 P39:R39 M39">
-    <cfRule type="cellIs" dxfId="4" priority="401" operator="equal">
-      <formula>"blue"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="410" operator="equal">
-      <formula>"green"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="419" operator="equal">
+  <conditionalFormatting sqref="C39 G39:J39 P39:R39 M39">
+    <cfRule type="cellIs" dxfId="4" priority="470" operator="equal">
+      <formula>"blue"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="479" operator="equal">
+      <formula>"green"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="488" operator="equal">
       <formula>"white"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6796,7 +6911,6 @@
   <ignoredErrors>
     <ignoredError sqref="N2:N3" listDataValidation="1"/>
   </ignoredErrors>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -6832,23 +6946,23 @@
   <sheetData>
     <row r="2" spans="1:18">
       <c r="A2" s="16" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="C2" s="16"/>
       <c r="D2" s="4" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="F2" s="14"/>
       <c r="G2" s="14"/>
       <c r="H2" s="9"/>
       <c r="I2" s="8" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="J2" s="14"/>
       <c r="K2" s="14"/>
@@ -6856,7 +6970,7 @@
       <c r="M2" s="14"/>
       <c r="N2" s="9"/>
       <c r="O2" s="5" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="P2" s="7"/>
       <c r="Q2" s="7"/>
@@ -6864,42 +6978,42 @@
     </row>
     <row r="3" s="15" customFormat="1" spans="1:18">
       <c r="A3" s="18" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
       <c r="D3" s="6" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>7</v>
       </c>
       <c r="H3" s="18" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="J3" s="29" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="K3" s="29" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="L3" s="29" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="O3" s="6"/>
       <c r="P3" s="6"/>
@@ -6928,7 +7042,7 @@
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="16" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="I4" s="4">
         <v>10</v>
@@ -6947,7 +7061,7 @@
       </c>
       <c r="N4" s="4"/>
       <c r="O4" s="30" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="P4" s="7"/>
       <c r="Q4" s="7"/>
@@ -6976,7 +7090,7 @@
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="16" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="I5" s="4">
         <v>10</v>
@@ -7068,7 +7182,7 @@
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="16" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="I7" s="4">
         <v>11</v>
@@ -7159,7 +7273,7 @@
       </c>
       <c r="G9" s="22"/>
       <c r="H9" s="20" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="I9" s="22">
         <v>12</v>
@@ -7178,7 +7292,7 @@
       </c>
       <c r="N9" s="22"/>
       <c r="O9" s="34" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="P9" s="7"/>
       <c r="Q9" s="7"/>
@@ -7253,7 +7367,7 @@
       </c>
       <c r="G11" s="22"/>
       <c r="H11" s="20" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="I11" s="22">
         <v>13</v>
@@ -7407,7 +7521,7 @@
       </c>
       <c r="N14" s="26"/>
       <c r="O14" s="38" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="P14" s="7"/>
       <c r="Q14" s="7"/>
@@ -7863,7 +7977,7 @@
       </c>
       <c r="N24" s="28"/>
       <c r="O24" s="42" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="P24" s="7"/>
       <c r="Q24" s="7"/>
@@ -10140,30 +10254,30 @@
     </row>
     <row r="2" customFormat="1" spans="1:9">
       <c r="A2" s="5" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="E2" s="9"/>
       <c r="F2" s="8" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="G2" s="9"/>
       <c r="H2" s="8" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="I2" s="9"/>
     </row>
     <row r="3" s="15" customFormat="1" spans="1:9">
       <c r="A3" s="6" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>84</v>
@@ -10172,22 +10286,22 @@
         <v>11</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -11316,20 +11430,20 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="4" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>0</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="G2" s="14"/>
       <c r="H2" s="14"/>
@@ -11349,22 +11463,22 @@
         <v>84</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
@@ -11375,7 +11489,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5">
@@ -11408,7 +11522,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5">
@@ -11433,7 +11547,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5">
@@ -11458,7 +11572,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5">
@@ -11483,7 +11597,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5">
@@ -11508,7 +11622,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5">
@@ -11533,7 +11647,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5">
@@ -11558,7 +11672,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5">
@@ -11583,7 +11697,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5">
@@ -11608,7 +11722,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5">
@@ -11633,7 +11747,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="5">
@@ -11658,7 +11772,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="5">
@@ -11683,7 +11797,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="5">
@@ -11708,7 +11822,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="5">
@@ -11733,7 +11847,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5">
@@ -11758,7 +11872,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="5">
@@ -11783,7 +11897,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="5">
@@ -11808,7 +11922,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="5">
@@ -11833,7 +11947,7 @@
         <v>19</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="5">
@@ -11858,7 +11972,7 @@
         <v>20</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="5">
@@ -11883,7 +11997,7 @@
         <v>21</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="5">
@@ -11908,7 +12022,7 @@
         <v>22</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="5">
@@ -11933,7 +12047,7 @@
         <v>23</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="5">
@@ -11958,7 +12072,7 @@
         <v>24</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="5">
@@ -11983,7 +12097,7 @@
         <v>25</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="5">
@@ -12008,7 +12122,7 @@
         <v>26</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="5">
@@ -12033,7 +12147,7 @@
         <v>27</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="C30" s="5"/>
       <c r="D30" s="5">
@@ -12058,7 +12172,7 @@
         <v>28</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="5">
@@ -12083,7 +12197,7 @@
         <v>29</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="5">
@@ -12108,7 +12222,7 @@
         <v>30</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="C33" s="5"/>
       <c r="D33" s="5">
@@ -15416,7 +15530,7 @@
       <c r="H1" s="7"/>
       <c r="I1" s="7"/>
       <c r="J1" s="5" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="K1" s="11"/>
     </row>
@@ -15447,22 +15561,22 @@
         <v>85</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="K3" s="6"/>
     </row>
@@ -15471,10 +15585,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="D4" s="5">
         <v>1</v>
@@ -15498,10 +15612,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="D5" s="5">
         <v>30</v>
@@ -15525,10 +15639,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="D6" s="5">
         <v>120</v>
@@ -15554,10 +15668,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="D7" s="5">
         <v>480</v>
@@ -15583,10 +15697,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="D8" s="5">
         <v>720</v>
@@ -15614,10 +15728,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="D9" s="5">
         <v>1440</v>
@@ -15645,10 +15759,10 @@
         <v>7</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="D10" s="5">
         <v>0</v>
@@ -15923,7 +16037,7 @@
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2" s="8" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="G2" s="9"/>
       <c r="H2" s="7"/>
@@ -15946,13 +16060,13 @@
         <v>84</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
@@ -15967,10 +16081,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="D4" s="5">
         <v>0</v>
@@ -15997,10 +16111,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="D5" s="5">
         <v>0</v>
@@ -16027,10 +16141,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="D6" s="5">
         <v>4</v>
@@ -16057,10 +16171,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="D7" s="5">
         <v>8</v>
@@ -16087,10 +16201,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="D8" s="5">
         <v>12</v>
@@ -16117,10 +16231,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="D9" s="5">
         <v>6</v>
@@ -16147,10 +16261,10 @@
         <v>7</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="D10" s="5">
         <v>10</v>
@@ -16177,10 +16291,10 @@
         <v>8</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="D11" s="5">
         <v>8</v>
@@ -16207,10 +16321,10 @@
         <v>9</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="D12" s="5">
         <v>5</v>
@@ -16679,8 +16793,8 @@
   <sheetPr/>
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -16707,15 +16821,15 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="4" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
@@ -16737,10 +16851,10 @@
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
       <c r="F3" s="6" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="H3" s="6"/>
     </row>
@@ -16749,52 +16863,49 @@
         <v>1</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="H4" s="5">
-        <f t="shared" ref="H4:H22" si="0">LEN(F4)-LEN(SUBSTITUTE(F4," ",""))+1</f>
-        <v>3</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="H4" s="5"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="5">
         <v>2</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="H5" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="H4:H22" si="0">LEN(F5)-LEN(SUBSTITUTE(F5," ",""))+1</f>
         <v>6</v>
       </c>
     </row>
@@ -16803,22 +16914,22 @@
         <v>3</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="H6" s="5">
         <f t="shared" si="0"/>
@@ -16830,22 +16941,22 @@
         <v>5</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="E7" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="F7" s="5" t="s">
-        <v>265</v>
-      </c>
       <c r="G7" s="5" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="H7" s="5">
         <f t="shared" si="0"/>
@@ -16857,25 +16968,25 @@
         <v>4</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="H8" s="5">
-        <f>LEN(F8)-LEN(SUBSTITUTE(F8," ",""))+1</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
@@ -16884,22 +16995,22 @@
         <v>6</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="H9" s="5">
         <f t="shared" si="0"/>
@@ -16911,22 +17022,22 @@
         <v>7</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="H10" s="5">
         <f t="shared" si="0"/>
@@ -16938,22 +17049,22 @@
         <v>8</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="H11" s="5">
         <f t="shared" si="0"/>
@@ -16965,22 +17076,22 @@
         <v>9</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="H12" s="5">
         <f t="shared" si="0"/>
@@ -16992,22 +17103,22 @@
         <v>10</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>265</v>
+        <v>308</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="H13" s="5">
         <f t="shared" si="0"/>
@@ -17019,22 +17130,22 @@
         <v>11</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="H14" s="5">
         <f t="shared" si="0"/>
@@ -17046,22 +17157,22 @@
         <v>12</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="H15" s="5">
         <f t="shared" si="0"/>
@@ -17073,22 +17184,22 @@
         <v>13</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>307</v>
+        <v>325</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="H16" s="5">
         <f t="shared" si="0"/>
@@ -17100,22 +17211,22 @@
         <v>14</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="H17" s="5">
         <f t="shared" si="0"/>
@@ -17127,16 +17238,16 @@
         <v>15</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="F18" s="5">
         <v>20</v>
@@ -17154,22 +17265,22 @@
         <v>16</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="H19" s="5">
         <f t="shared" si="0"/>
@@ -17181,22 +17292,22 @@
         <v>17</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="H20" s="5">
         <f t="shared" si="0"/>
@@ -17208,22 +17319,22 @@
         <v>18</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="H21" s="5">
         <f t="shared" si="0"/>
